--- a/SimulationStudyData/Model5/SimCase32_Yobs_SimRun3.xlsx
+++ b/SimulationStudyData/Model5/SimCase32_Yobs_SimRun3.xlsx
@@ -407,6402 +407,6402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10.4060864540764</v>
+        <v>11.3377417258026</v>
       </c>
       <c r="B2" t="n">
-        <v>3.21660410608642</v>
+        <v>11.0527223476331</v>
       </c>
       <c r="C2" t="n">
-        <v>3.45752173449427</v>
+        <v>11.6186282259985</v>
       </c>
       <c r="D2" t="n">
-        <v>4.5425746153274</v>
+        <v>13.721725317894</v>
       </c>
       <c r="E2" t="n">
-        <v>4.99498892123305</v>
+        <v>12.5141626023332</v>
       </c>
       <c r="F2" t="n">
-        <v>4.52026398481228</v>
+        <v>14.4712329099369</v>
       </c>
       <c r="G2" t="n">
-        <v>5.7454652574954</v>
+        <v>16.891022273516</v>
       </c>
       <c r="H2" t="n">
-        <v>6.21827250656713</v>
+        <v>16.8391506383866</v>
       </c>
       <c r="I2" t="n">
-        <v>6.6714062334117</v>
+        <v>18.207449246944</v>
       </c>
       <c r="J2" t="n">
-        <v>6.71561772204868</v>
+        <v>18.4709791219668</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10.4212747785174</v>
+        <v>2.79909474660962</v>
       </c>
       <c r="B3" t="n">
-        <v>9.89225977295529</v>
+        <v>2.72997680975183</v>
       </c>
       <c r="C3" t="n">
-        <v>11.5970297107089</v>
+        <v>3.65283990430292</v>
       </c>
       <c r="D3" t="n">
-        <v>13.0768535364877</v>
+        <v>4.03666416091056</v>
       </c>
       <c r="E3" t="n">
-        <v>13.9281282945422</v>
+        <v>4.58519163544541</v>
       </c>
       <c r="F3" t="n">
-        <v>14.2791639354272</v>
+        <v>4.25646785977734</v>
       </c>
       <c r="G3" t="n">
-        <v>15.9108413955377</v>
+        <v>5.11154794828839</v>
       </c>
       <c r="H3" t="n">
-        <v>16.1455689274986</v>
+        <v>6.68448861548248</v>
       </c>
       <c r="I3" t="n">
-        <v>19.1341269803117</v>
+        <v>6.27580022518679</v>
       </c>
       <c r="J3" t="n">
-        <v>17.7359122835859</v>
+        <v>7.081846369643</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-4.60013679298689</v>
+        <v>9.70376873059036</v>
       </c>
       <c r="B4" t="n">
-        <v>-5.38269494770285</v>
+        <v>10.6992439449013</v>
       </c>
       <c r="C4" t="n">
-        <v>-5.95729648972811</v>
+        <v>12.5061578761177</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.33952136803713</v>
+        <v>14.2492022023246</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.50623459254036</v>
+        <v>14.3403171822532</v>
       </c>
       <c r="F4" t="n">
-        <v>-7.76926724629743</v>
+        <v>16.2978698180808</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.68576605158882</v>
+        <v>16.3313268090832</v>
       </c>
       <c r="H4" t="n">
-        <v>-8.79532696844084</v>
+        <v>6.22547045796667</v>
       </c>
       <c r="I4" t="n">
-        <v>-9.14200665289284</v>
+        <v>5.97614596750164</v>
       </c>
       <c r="J4" t="n">
-        <v>-9.31289867592431</v>
+        <v>7.23901176655169</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.79406696586045</v>
+        <v>-5.57643748085119</v>
       </c>
       <c r="B5" t="n">
-        <v>2.77830096634699</v>
+        <v>-5.94324038013211</v>
       </c>
       <c r="C5" t="n">
-        <v>3.47109693043105</v>
+        <v>-5.80489264279051</v>
       </c>
       <c r="D5" t="n">
-        <v>2.78979638957408</v>
+        <v>-6.11621518863833</v>
       </c>
       <c r="E5" t="n">
-        <v>4.71017751218352</v>
+        <v>-6.97679506935038</v>
       </c>
       <c r="F5" t="n">
-        <v>4.28112282714339</v>
+        <v>-7.63114705665722</v>
       </c>
       <c r="G5" t="n">
-        <v>5.25778529780796</v>
+        <v>-7.75332318040947</v>
       </c>
       <c r="H5" t="n">
-        <v>6.23567134122442</v>
+        <v>-7.92941011439576</v>
       </c>
       <c r="I5" t="n">
-        <v>5.69220929033506</v>
+        <v>-8.77205307020086</v>
       </c>
       <c r="J5" t="n">
-        <v>6.531549024028</v>
+        <v>-9.1108249035816</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10.1071544896283</v>
+        <v>10.1174542515856</v>
       </c>
       <c r="B6" t="n">
-        <v>11.4294108933815</v>
+        <v>11.2033315609099</v>
       </c>
       <c r="C6" t="n">
-        <v>10.6036756459634</v>
+        <v>11.5526723658246</v>
       </c>
       <c r="D6" t="n">
-        <v>12.9028076180113</v>
+        <v>12.9270450702636</v>
       </c>
       <c r="E6" t="n">
-        <v>13.1352410431498</v>
+        <v>14.0033410590575</v>
       </c>
       <c r="F6" t="n">
-        <v>15.0263582011863</v>
+        <v>16.5186153940539</v>
       </c>
       <c r="G6" t="n">
-        <v>17.3989483640736</v>
+        <v>15.5629698473144</v>
       </c>
       <c r="H6" t="n">
-        <v>17.6248261615303</v>
+        <v>-8.70484641094603</v>
       </c>
       <c r="I6" t="n">
-        <v>17.1742538234402</v>
+        <v>-9.04375952310385</v>
       </c>
       <c r="J6" t="n">
-        <v>18.7870436830375</v>
+        <v>-9.6013503882194</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.95301110943764</v>
+        <v>1.77940851792422</v>
       </c>
       <c r="B7" t="n">
-        <v>10.2711985053579</v>
+        <v>2.32536891587379</v>
       </c>
       <c r="C7" t="n">
-        <v>11.5557649560131</v>
+        <v>2.42826463861494</v>
       </c>
       <c r="D7" t="n">
-        <v>11.8579035870963</v>
+        <v>4.31647760921162</v>
       </c>
       <c r="E7" t="n">
-        <v>13.5528644479978</v>
+        <v>3.71749240547991</v>
       </c>
       <c r="F7" t="n">
-        <v>14.9287417462344</v>
+        <v>5.08183936709155</v>
       </c>
       <c r="G7" t="n">
-        <v>15.842276892989</v>
+        <v>5.59452521886878</v>
       </c>
       <c r="H7" t="n">
-        <v>16.3978921453989</v>
+        <v>6.43295138426528</v>
       </c>
       <c r="I7" t="n">
-        <v>17.3471138828307</v>
+        <v>6.37695048284568</v>
       </c>
       <c r="J7" t="n">
-        <v>6.54036908874124</v>
+        <v>6.39446814191785</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.53115985201355</v>
+        <v>10.4028433771194</v>
       </c>
       <c r="B8" t="n">
-        <v>2.55398567095311</v>
+        <v>10.6553035214414</v>
       </c>
       <c r="C8" t="n">
-        <v>2.98754279371869</v>
+        <v>11.2281986582482</v>
       </c>
       <c r="D8" t="n">
-        <v>4.39355389553916</v>
+        <v>14.4263325318668</v>
       </c>
       <c r="E8" t="n">
-        <v>3.83922246038553</v>
+        <v>13.585408696113</v>
       </c>
       <c r="F8" t="n">
-        <v>5.27001456828111</v>
+        <v>15.5629041769919</v>
       </c>
       <c r="G8" t="n">
-        <v>5.10421289529939</v>
+        <v>17.9145318233154</v>
       </c>
       <c r="H8" t="n">
-        <v>6.03111834095012</v>
+        <v>16.7733581762882</v>
       </c>
       <c r="I8" t="n">
-        <v>5.30059353612092</v>
+        <v>17.8536827655032</v>
       </c>
       <c r="J8" t="n">
-        <v>6.63938626373152</v>
+        <v>19.1570257109914</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-5.21630298668737</v>
+        <v>2.42124181758379</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.97045794897757</v>
+        <v>3.36634002867697</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.72943630163363</v>
+        <v>4.75447843732229</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.63013165523373</v>
+        <v>-6.56869440751981</v>
       </c>
       <c r="E9" t="n">
-        <v>-6.68677103082013</v>
+        <v>-6.98381868237449</v>
       </c>
       <c r="F9" t="n">
-        <v>-8.00527897635115</v>
+        <v>-7.36947820267583</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.2248427573685</v>
+        <v>-8.24051392207429</v>
       </c>
       <c r="H9" t="n">
-        <v>-8.60427088037205</v>
+        <v>-9.02029061064996</v>
       </c>
       <c r="I9" t="n">
-        <v>-8.98691595615218</v>
+        <v>-9.05115175344931</v>
       </c>
       <c r="J9" t="n">
-        <v>-9.89614309201762</v>
+        <v>-9.73459260632196</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10.0372682491782</v>
+        <v>11.0599710733355</v>
       </c>
       <c r="B10" t="n">
-        <v>11.0787550458319</v>
+        <v>11.2974253861617</v>
       </c>
       <c r="C10" t="n">
-        <v>11.013721582235</v>
+        <v>13.3954545298573</v>
       </c>
       <c r="D10" t="n">
-        <v>14.0681577946351</v>
+        <v>3.05280879424942</v>
       </c>
       <c r="E10" t="n">
-        <v>14.205636371246</v>
+        <v>5.1569987844197</v>
       </c>
       <c r="F10" t="n">
-        <v>16.2302159809705</v>
+        <v>4.32151450774937</v>
       </c>
       <c r="G10" t="n">
-        <v>15.2603313355065</v>
+        <v>5.45280978912466</v>
       </c>
       <c r="H10" t="n">
-        <v>17.2497804157987</v>
+        <v>6.41328809825506</v>
       </c>
       <c r="I10" t="n">
-        <v>16.5597233031315</v>
+        <v>6.27719097140261</v>
       </c>
       <c r="J10" t="n">
-        <v>18.0529682816885</v>
+        <v>7.52682884747583</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-4.76353487292403</v>
+        <v>10.7050203413318</v>
       </c>
       <c r="B11" t="n">
-        <v>-5.73724164018047</v>
+        <v>9.10019365982327</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.0658786237331</v>
+        <v>12.768044150244</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.38054314048247</v>
+        <v>3.72746033251807</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.78297050926001</v>
+        <v>15.1344767013074</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.11050611774781</v>
+        <v>14.5682129430721</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.07862713746029</v>
+        <v>17.4645172532547</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.21958781441629</v>
+        <v>17.0585887612822</v>
       </c>
       <c r="I11" t="n">
-        <v>-8.77123500924583</v>
+        <v>17.2626330287754</v>
       </c>
       <c r="J11" t="n">
-        <v>-9.46120091611105</v>
+        <v>17.3516636137779</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11.2884389055863</v>
+        <v>10.6412862015849</v>
       </c>
       <c r="B12" t="n">
-        <v>11.9951083369352</v>
+        <v>11.1506724693806</v>
       </c>
       <c r="C12" t="n">
-        <v>12.6555697766716</v>
+        <v>11.7259167723522</v>
       </c>
       <c r="D12" t="n">
-        <v>4.06617429309826</v>
+        <v>13.0105563189224</v>
       </c>
       <c r="E12" t="n">
-        <v>4.62736005093728</v>
+        <v>13.5069023457976</v>
       </c>
       <c r="F12" t="n">
-        <v>3.6128350610131</v>
+        <v>4.26124118817089</v>
       </c>
       <c r="G12" t="n">
-        <v>4.73580622357275</v>
+        <v>5.75246513501856</v>
       </c>
       <c r="H12" t="n">
-        <v>6.63296134791871</v>
+        <v>5.86114390737388</v>
       </c>
       <c r="I12" t="n">
-        <v>6.30548471622311</v>
+        <v>5.92175578418636</v>
       </c>
       <c r="J12" t="n">
-        <v>6.25263912415216</v>
+        <v>7.7936282669722</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9.19701922456267</v>
+        <v>2.60753358986792</v>
       </c>
       <c r="B13" t="n">
-        <v>12.2803760987475</v>
+        <v>3.13989169541238</v>
       </c>
       <c r="C13" t="n">
-        <v>13.1844426350427</v>
+        <v>3.04532464509292</v>
       </c>
       <c r="D13" t="n">
-        <v>12.6108642406952</v>
+        <v>3.79522150869417</v>
       </c>
       <c r="E13" t="n">
-        <v>4.81989533146359</v>
+        <v>4.06375096607722</v>
       </c>
       <c r="F13" t="n">
-        <v>5.27685639275179</v>
+        <v>5.71173635283583</v>
       </c>
       <c r="G13" t="n">
-        <v>5.93425268356673</v>
+        <v>6.62698292596368</v>
       </c>
       <c r="H13" t="n">
-        <v>6.70308075527332</v>
+        <v>5.87404016494225</v>
       </c>
       <c r="I13" t="n">
-        <v>6.28823517654354</v>
+        <v>6.50266423124238</v>
       </c>
       <c r="J13" t="n">
-        <v>7.48272928648708</v>
+        <v>7.01114214528788</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.92851097180049</v>
+        <v>1.7948699207437</v>
       </c>
       <c r="B14" t="n">
-        <v>11.8527166840915</v>
+        <v>3.35714518730884</v>
       </c>
       <c r="C14" t="n">
-        <v>11.4852901745177</v>
+        <v>4.12979486380765</v>
       </c>
       <c r="D14" t="n">
-        <v>13.7650762813157</v>
+        <v>4.24511482420862</v>
       </c>
       <c r="E14" t="n">
-        <v>13.5558713150443</v>
+        <v>4.44421815043031</v>
       </c>
       <c r="F14" t="n">
-        <v>14.2703520607174</v>
+        <v>5.074271400139</v>
       </c>
       <c r="G14" t="n">
-        <v>15.9319197348837</v>
+        <v>5.23817013957438</v>
       </c>
       <c r="H14" t="n">
-        <v>16.5322073343507</v>
+        <v>5.74936084342692</v>
       </c>
       <c r="I14" t="n">
-        <v>19.2725239689149</v>
+        <v>6.95966157416983</v>
       </c>
       <c r="J14" t="n">
-        <v>19.7676479702582</v>
+        <v>6.81443543739785</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-4.86957866089638</v>
+        <v>10.6680964156474</v>
       </c>
       <c r="B15" t="n">
-        <v>-5.62007229555732</v>
+        <v>11.1243633002234</v>
       </c>
       <c r="C15" t="n">
-        <v>-6.21517893547417</v>
+        <v>11.2262933355029</v>
       </c>
       <c r="D15" t="n">
-        <v>-6.58094402311267</v>
+        <v>12.9345293033231</v>
       </c>
       <c r="E15" t="n">
-        <v>-6.7156209951529</v>
+        <v>15.2794465600999</v>
       </c>
       <c r="F15" t="n">
-        <v>-7.40403038752532</v>
+        <v>15.2052055968931</v>
       </c>
       <c r="G15" t="n">
-        <v>-8.07299443832523</v>
+        <v>5.39789356913972</v>
       </c>
       <c r="H15" t="n">
-        <v>-8.80051879453143</v>
+        <v>5.92944032333496</v>
       </c>
       <c r="I15" t="n">
-        <v>-9.09459873014606</v>
+        <v>5.92679806579885</v>
       </c>
       <c r="J15" t="n">
-        <v>-9.7950320940738</v>
+        <v>7.46579976518364</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.85426431968729</v>
+        <v>-4.69210058302416</v>
       </c>
       <c r="B16" t="n">
-        <v>2.42950849221486</v>
+        <v>-5.50048197094835</v>
       </c>
       <c r="C16" t="n">
-        <v>3.33088889252515</v>
+        <v>-6.45856131422428</v>
       </c>
       <c r="D16" t="n">
-        <v>4.61430191394668</v>
+        <v>-6.68113572610793</v>
       </c>
       <c r="E16" t="n">
-        <v>4.488926259862</v>
+        <v>-7.37470339163624</v>
       </c>
       <c r="F16" t="n">
-        <v>5.57477377001524</v>
+        <v>-7.6454460216131</v>
       </c>
       <c r="G16" t="n">
-        <v>5.08074202717284</v>
+        <v>-7.66716318500245</v>
       </c>
       <c r="H16" t="n">
-        <v>6.87986248629958</v>
+        <v>-8.44288263604517</v>
       </c>
       <c r="I16" t="n">
-        <v>6.84317235587686</v>
+        <v>-8.82785021895651</v>
       </c>
       <c r="J16" t="n">
-        <v>7.17234275184794</v>
+        <v>-9.37847822088763</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10.9282307671954</v>
+        <v>9.9945732085047</v>
       </c>
       <c r="B17" t="n">
-        <v>11.2630474454132</v>
+        <v>11.3657826244447</v>
       </c>
       <c r="C17" t="n">
-        <v>12.3862117414571</v>
+        <v>11.3715066638673</v>
       </c>
       <c r="D17" t="n">
-        <v>14.4297482072638</v>
+        <v>12.6893333830697</v>
       </c>
       <c r="E17" t="n">
-        <v>13.1537710864395</v>
+        <v>-7.22071340043654</v>
       </c>
       <c r="F17" t="n">
-        <v>13.2680108418731</v>
+        <v>-7.07746791535049</v>
       </c>
       <c r="G17" t="n">
-        <v>14.6787156200989</v>
+        <v>-7.73066934323165</v>
       </c>
       <c r="H17" t="n">
-        <v>17.2239984727768</v>
+        <v>-8.53907232307065</v>
       </c>
       <c r="I17" t="n">
-        <v>18.1237576939347</v>
+        <v>-8.81514787923033</v>
       </c>
       <c r="J17" t="n">
-        <v>18.5001532384672</v>
+        <v>-9.56140520330096</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10.4121012753767</v>
+        <v>10.0002867237824</v>
       </c>
       <c r="B18" t="n">
-        <v>-5.48041693745508</v>
+        <v>2.46489907026061</v>
       </c>
       <c r="C18" t="n">
-        <v>-5.85155323226063</v>
+        <v>3.14184669083805</v>
       </c>
       <c r="D18" t="n">
-        <v>-6.38866519439566</v>
+        <v>4.18650544318607</v>
       </c>
       <c r="E18" t="n">
-        <v>-7.0238630021991</v>
+        <v>4.47293279358275</v>
       </c>
       <c r="F18" t="n">
-        <v>-7.55930585911787</v>
+        <v>4.49169945660407</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.0098266003819</v>
+        <v>5.51052263624672</v>
       </c>
       <c r="H18" t="n">
-        <v>-8.4472611920065</v>
+        <v>4.89687924037658</v>
       </c>
       <c r="I18" t="n">
-        <v>-9.69742085467529</v>
+        <v>7.16628693583906</v>
       </c>
       <c r="J18" t="n">
-        <v>-9.30310477535857</v>
+        <v>6.48084868682937</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-5.15943441082422</v>
+        <v>10.2949381412422</v>
       </c>
       <c r="B19" t="n">
-        <v>-5.75119035071608</v>
+        <v>11.6393989117693</v>
       </c>
       <c r="C19" t="n">
-        <v>-6.22329740563877</v>
+        <v>10.1080748789821</v>
       </c>
       <c r="D19" t="n">
-        <v>-6.54767998371255</v>
+        <v>13.4158366964195</v>
       </c>
       <c r="E19" t="n">
-        <v>-6.96051523769111</v>
+        <v>13.8666889592545</v>
       </c>
       <c r="F19" t="n">
-        <v>-7.11388519182385</v>
+        <v>14.1725126581325</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.69432375509185</v>
+        <v>14.9047147501432</v>
       </c>
       <c r="H19" t="n">
-        <v>-9.06025871574239</v>
+        <v>15.8438139604769</v>
       </c>
       <c r="I19" t="n">
-        <v>-9.12523590119038</v>
+        <v>17.8225784568191</v>
       </c>
       <c r="J19" t="n">
-        <v>-9.50443872043101</v>
+        <v>19.9255588877403</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.66253348194173</v>
+        <v>2.91935944577224</v>
       </c>
       <c r="B20" t="n">
-        <v>2.14594680646999</v>
+        <v>4.03119180395431</v>
       </c>
       <c r="C20" t="n">
-        <v>2.97412962661045</v>
+        <v>4.78665641649274</v>
       </c>
       <c r="D20" t="n">
-        <v>4.31658605552286</v>
+        <v>3.18336334161551</v>
       </c>
       <c r="E20" t="n">
-        <v>14.2610766169689</v>
+        <v>14.4327510826797</v>
       </c>
       <c r="F20" t="n">
-        <v>15.7748601420059</v>
+        <v>14.40728886637</v>
       </c>
       <c r="G20" t="n">
-        <v>15.7225570611712</v>
+        <v>16.0136965985914</v>
       </c>
       <c r="H20" t="n">
-        <v>16.0890623216873</v>
+        <v>17.1355210560935</v>
       </c>
       <c r="I20" t="n">
-        <v>-8.99034924247076</v>
+        <v>17.3180400760148</v>
       </c>
       <c r="J20" t="n">
-        <v>-9.17394827876907</v>
+        <v>17.826065155369</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10.1548006494861</v>
+        <v>-5.60388099788623</v>
       </c>
       <c r="B21" t="n">
-        <v>10.1887779202729</v>
+        <v>-5.75568175483886</v>
       </c>
       <c r="C21" t="n">
-        <v>11.5654407106046</v>
+        <v>-6.1358836634758</v>
       </c>
       <c r="D21" t="n">
-        <v>12.2450972381078</v>
+        <v>-6.63419518012738</v>
       </c>
       <c r="E21" t="n">
-        <v>13.8060440305583</v>
+        <v>-7.00172353429731</v>
       </c>
       <c r="F21" t="n">
-        <v>15.4544981785964</v>
+        <v>-7.91724499306882</v>
       </c>
       <c r="G21" t="n">
-        <v>15.0811611486403</v>
+        <v>-7.77729338164983</v>
       </c>
       <c r="H21" t="n">
-        <v>17.321855105035</v>
+        <v>-8.80890648304627</v>
       </c>
       <c r="I21" t="n">
-        <v>18.2593854757665</v>
+        <v>-9.22168369695707</v>
       </c>
       <c r="J21" t="n">
-        <v>6.63670372492731</v>
+        <v>-9.55668769326943</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.14749613412066</v>
+        <v>8.67505253768218</v>
       </c>
       <c r="B22" t="n">
-        <v>2.55392921982885</v>
+        <v>11.201112078177</v>
       </c>
       <c r="C22" t="n">
-        <v>4.34104056927886</v>
+        <v>12.5532811260438</v>
       </c>
       <c r="D22" t="n">
-        <v>3.33410291278318</v>
+        <v>12.7152310542776</v>
       </c>
       <c r="E22" t="n">
-        <v>4.13395750385045</v>
+        <v>14.7734590128785</v>
       </c>
       <c r="F22" t="n">
-        <v>5.96438972160801</v>
+        <v>14.1383505616974</v>
       </c>
       <c r="G22" t="n">
-        <v>6.0552259105533</v>
+        <v>15.7543984553259</v>
       </c>
       <c r="H22" t="n">
-        <v>6.01527530532544</v>
+        <v>17.4837599081857</v>
       </c>
       <c r="I22" t="n">
-        <v>6.41149639085085</v>
+        <v>18.6349226259588</v>
       </c>
       <c r="J22" t="n">
-        <v>6.30878233273543</v>
+        <v>19.5547132876808</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11.4611817673228</v>
+        <v>2.30998548953064</v>
       </c>
       <c r="B23" t="n">
-        <v>3.35163844687077</v>
+        <v>2.95052699185861</v>
       </c>
       <c r="C23" t="n">
-        <v>3.75994494660688</v>
+        <v>3.64603889099105</v>
       </c>
       <c r="D23" t="n">
-        <v>4.16115282919663</v>
+        <v>2.5791370479705</v>
       </c>
       <c r="E23" t="n">
-        <v>4.04108776804311</v>
+        <v>4.06252066690381</v>
       </c>
       <c r="F23" t="n">
-        <v>5.31591662485773</v>
+        <v>5.10778884931931</v>
       </c>
       <c r="G23" t="n">
-        <v>5.10260411229359</v>
+        <v>5.54395948498238</v>
       </c>
       <c r="H23" t="n">
-        <v>5.78587076703424</v>
+        <v>6.39184660959307</v>
       </c>
       <c r="I23" t="n">
-        <v>6.32500402402205</v>
+        <v>6.58847713376734</v>
       </c>
       <c r="J23" t="n">
-        <v>6.9057003626998</v>
+        <v>6.27882097904379</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-5.21414664223637</v>
+        <v>10.6750056195385</v>
       </c>
       <c r="B24" t="n">
-        <v>-5.03755084490238</v>
+        <v>9.14352432999111</v>
       </c>
       <c r="C24" t="n">
-        <v>-5.64115584503623</v>
+        <v>11.7457602687377</v>
       </c>
       <c r="D24" t="n">
-        <v>-6.41761198809487</v>
+        <v>3.67129313115494</v>
       </c>
       <c r="E24" t="n">
-        <v>-7.0015320662008</v>
+        <v>4.56066519577553</v>
       </c>
       <c r="F24" t="n">
-        <v>-7.53430296363646</v>
+        <v>4.41899188305566</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.78139881131126</v>
+        <v>6.03750603535568</v>
       </c>
       <c r="H24" t="n">
-        <v>6.27544988381246</v>
+        <v>5.56968119081425</v>
       </c>
       <c r="I24" t="n">
-        <v>6.47219274766603</v>
+        <v>5.7216811165923</v>
       </c>
       <c r="J24" t="n">
-        <v>7.64917776703444</v>
+        <v>7.22714609868706</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9.36571914299497</v>
+        <v>10.3503489892649</v>
       </c>
       <c r="B25" t="n">
-        <v>11.6354343474987</v>
+        <v>10.1398212325202</v>
       </c>
       <c r="C25" t="n">
-        <v>11.6337102902006</v>
+        <v>-6.26479313719202</v>
       </c>
       <c r="D25" t="n">
-        <v>14.4493443707642</v>
+        <v>-6.73177292407522</v>
       </c>
       <c r="E25" t="n">
-        <v>13.1446481966073</v>
+        <v>-7.07856814728735</v>
       </c>
       <c r="F25" t="n">
-        <v>13.4429558903895</v>
+        <v>-8.00170384097047</v>
       </c>
       <c r="G25" t="n">
-        <v>15.2909459553409</v>
+        <v>-8.38956873693459</v>
       </c>
       <c r="H25" t="n">
-        <v>17.2335934541811</v>
+        <v>-8.23845859477603</v>
       </c>
       <c r="I25" t="n">
-        <v>18.3146139988371</v>
+        <v>-9.2050039550991</v>
       </c>
       <c r="J25" t="n">
-        <v>-9.50185402935013</v>
+        <v>-9.108231050016</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-4.86081293027117</v>
+        <v>9.60906692139075</v>
       </c>
       <c r="B26" t="n">
-        <v>-5.17910556740248</v>
+        <v>10.7485076133657</v>
       </c>
       <c r="C26" t="n">
-        <v>-5.98531494475519</v>
+        <v>12.1529036844413</v>
       </c>
       <c r="D26" t="n">
-        <v>-6.29989204238383</v>
+        <v>12.707983330153</v>
       </c>
       <c r="E26" t="n">
-        <v>-6.97371811184017</v>
+        <v>14.1542124070096</v>
       </c>
       <c r="F26" t="n">
-        <v>-7.67518765860472</v>
+        <v>13.2907417957212</v>
       </c>
       <c r="G26" t="n">
-        <v>-8.1447247266511</v>
+        <v>14.6019024321037</v>
       </c>
       <c r="H26" t="n">
-        <v>-8.60621214086985</v>
+        <v>17.1000330583078</v>
       </c>
       <c r="I26" t="n">
-        <v>-9.0037521001211</v>
+        <v>16.0998529575388</v>
       </c>
       <c r="J26" t="n">
-        <v>-9.82249516687915</v>
+        <v>19.2531819661846</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10.7446496991682</v>
+        <v>9.77184538900381</v>
       </c>
       <c r="B27" t="n">
-        <v>12.130137192945</v>
+        <v>12.0333369731866</v>
       </c>
       <c r="C27" t="n">
-        <v>12.3979271280518</v>
+        <v>11.8414488860683</v>
       </c>
       <c r="D27" t="n">
-        <v>13.8162739413519</v>
+        <v>11.8117255344654</v>
       </c>
       <c r="E27" t="n">
-        <v>14.415788523421</v>
+        <v>13.4629549201638</v>
       </c>
       <c r="F27" t="n">
-        <v>16.1770231150279</v>
+        <v>14.7185001755106</v>
       </c>
       <c r="G27" t="n">
-        <v>16.0523177460056</v>
+        <v>14.7405776780813</v>
       </c>
       <c r="H27" t="n">
-        <v>17.2286208431494</v>
+        <v>18.3737083952911</v>
       </c>
       <c r="I27" t="n">
-        <v>17.272226329592</v>
+        <v>18.7978425108936</v>
       </c>
       <c r="J27" t="n">
-        <v>18.6488007162526</v>
+        <v>18.218638923146</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.84137143175035</v>
+        <v>9.32904882116663</v>
       </c>
       <c r="B28" t="n">
-        <v>2.87772776740369</v>
+        <v>9.85564596140315</v>
       </c>
       <c r="C28" t="n">
-        <v>3.21271137077723</v>
+        <v>12.534569727954</v>
       </c>
       <c r="D28" t="n">
-        <v>4.62077522158367</v>
+        <v>12.7832021498953</v>
       </c>
       <c r="E28" t="n">
-        <v>4.69863091970051</v>
+        <v>14.9824380038765</v>
       </c>
       <c r="F28" t="n">
-        <v>4.96725621935226</v>
+        <v>-7.57067573679856</v>
       </c>
       <c r="G28" t="n">
-        <v>5.78974337165803</v>
+        <v>-7.76807114156078</v>
       </c>
       <c r="H28" t="n">
-        <v>6.2100089537963</v>
+        <v>-8.4145471275791</v>
       </c>
       <c r="I28" t="n">
-        <v>6.81704409896801</v>
+        <v>-8.88287338623145</v>
       </c>
       <c r="J28" t="n">
-        <v>6.53723751381859</v>
+        <v>-10.0101209489868</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.76268732983009</v>
+        <v>8.24869450780259</v>
       </c>
       <c r="B29" t="n">
-        <v>3.30819471000717</v>
+        <v>11.2106807200099</v>
       </c>
       <c r="C29" t="n">
-        <v>4.13745691872028</v>
+        <v>12.2463736884622</v>
       </c>
       <c r="D29" t="n">
-        <v>3.80507697141481</v>
+        <v>13.7281736465356</v>
       </c>
       <c r="E29" t="n">
-        <v>3.75971253803795</v>
+        <v>13.3092525734381</v>
       </c>
       <c r="F29" t="n">
-        <v>5.91801580789991</v>
+        <v>15.1607365783889</v>
       </c>
       <c r="G29" t="n">
-        <v>5.9803051259933</v>
+        <v>15.9036958580777</v>
       </c>
       <c r="H29" t="n">
-        <v>6.38713679152932</v>
+        <v>16.3409598728601</v>
       </c>
       <c r="I29" t="n">
-        <v>7.35673278448634</v>
+        <v>17.7623949757307</v>
       </c>
       <c r="J29" t="n">
-        <v>6.67663688220207</v>
+        <v>20.011468954014</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10.1450847577061</v>
+        <v>2.28200435058366</v>
       </c>
       <c r="B30" t="n">
-        <v>11.8591074944599</v>
+        <v>2.96875392322221</v>
       </c>
       <c r="C30" t="n">
-        <v>12.5088074192918</v>
+        <v>3.91957823955462</v>
       </c>
       <c r="D30" t="n">
-        <v>3.52769019131914</v>
+        <v>4.31065416225827</v>
       </c>
       <c r="E30" t="n">
-        <v>4.46704504071786</v>
+        <v>4.27179124253282</v>
       </c>
       <c r="F30" t="n">
-        <v>4.83709876202795</v>
+        <v>4.79345718071963</v>
       </c>
       <c r="G30" t="n">
-        <v>5.20917379711672</v>
+        <v>5.44150359874557</v>
       </c>
       <c r="H30" t="n">
-        <v>5.9761164237634</v>
+        <v>6.39855689807867</v>
       </c>
       <c r="I30" t="n">
-        <v>6.61497730895124</v>
+        <v>6.09947876413034</v>
       </c>
       <c r="J30" t="n">
-        <v>6.92124724782649</v>
+        <v>7.01393241452902</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-5.28842587485765</v>
+        <v>9.35552587589503</v>
       </c>
       <c r="B31" t="n">
-        <v>-5.08103972510743</v>
+        <v>11.1266092092761</v>
       </c>
       <c r="C31" t="n">
-        <v>-6.6078833400846</v>
+        <v>12.1617963135478</v>
       </c>
       <c r="D31" t="n">
-        <v>-6.67507090729466</v>
+        <v>12.9707302268049</v>
       </c>
       <c r="E31" t="n">
-        <v>-6.62205776908896</v>
+        <v>15.0769774086259</v>
       </c>
       <c r="F31" t="n">
-        <v>-7.4281928974226</v>
+        <v>15.4871590018905</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.85728032083249</v>
+        <v>16.0189498928224</v>
       </c>
       <c r="H31" t="n">
-        <v>-8.47370519261175</v>
+        <v>15.8077598252221</v>
       </c>
       <c r="I31" t="n">
-        <v>-8.91123291391733</v>
+        <v>18.2000581009352</v>
       </c>
       <c r="J31" t="n">
-        <v>-9.78701042148825</v>
+        <v>19.6903870633962</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>9.92817040830098</v>
+        <v>8.7661132947924</v>
       </c>
       <c r="B32" t="n">
-        <v>10.5707714705018</v>
+        <v>10.4904436832788</v>
       </c>
       <c r="C32" t="n">
-        <v>12.4092145867848</v>
+        <v>11.7849908692744</v>
       </c>
       <c r="D32" t="n">
-        <v>12.4536177575156</v>
+        <v>12.444194251617</v>
       </c>
       <c r="E32" t="n">
-        <v>14.1441129125047</v>
+        <v>13.5516380394578</v>
       </c>
       <c r="F32" t="n">
-        <v>15.8631629934353</v>
+        <v>14.7839985093006</v>
       </c>
       <c r="G32" t="n">
-        <v>15.0614219942766</v>
+        <v>15.3606451402941</v>
       </c>
       <c r="H32" t="n">
-        <v>16.2538179573088</v>
+        <v>17.0961954358967</v>
       </c>
       <c r="I32" t="n">
-        <v>17.0499926833053</v>
+        <v>18.3288334594297</v>
       </c>
       <c r="J32" t="n">
-        <v>19.9476100344984</v>
+        <v>19.2303520787135</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>10.0156550591195</v>
+        <v>1.92534903499619</v>
       </c>
       <c r="B33" t="n">
-        <v>10.1179897115768</v>
+        <v>2.90976732948055</v>
       </c>
       <c r="C33" t="n">
-        <v>11.1221243175797</v>
+        <v>3.87592296636393</v>
       </c>
       <c r="D33" t="n">
-        <v>13.4016515476238</v>
+        <v>3.93529919857326</v>
       </c>
       <c r="E33" t="n">
-        <v>13.0752995912859</v>
+        <v>4.33874621102829</v>
       </c>
       <c r="F33" t="n">
-        <v>15.8361993794406</v>
+        <v>5.46961544065078</v>
       </c>
       <c r="G33" t="n">
-        <v>16.1470095688948</v>
+        <v>6.14870541777857</v>
       </c>
       <c r="H33" t="n">
-        <v>17.1288888567965</v>
+        <v>6.89607185441521</v>
       </c>
       <c r="I33" t="n">
-        <v>19.0407071222509</v>
+        <v>-9.23629468528367</v>
       </c>
       <c r="J33" t="n">
-        <v>18.8456300625136</v>
+        <v>-9.37092373698261</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>10.7743278302191</v>
+        <v>-5.11868506408301</v>
       </c>
       <c r="B34" t="n">
-        <v>9.9316672925765</v>
+        <v>-5.85786613133587</v>
       </c>
       <c r="C34" t="n">
-        <v>11.4603931959439</v>
+        <v>-5.92883341409882</v>
       </c>
       <c r="D34" t="n">
-        <v>12.0090153458813</v>
+        <v>-6.54267619396206</v>
       </c>
       <c r="E34" t="n">
-        <v>-6.7925606189484</v>
+        <v>-6.67681841666107</v>
       </c>
       <c r="F34" t="n">
-        <v>-7.51430852380948</v>
+        <v>-7.83182243228388</v>
       </c>
       <c r="G34" t="n">
-        <v>-8.43726534341255</v>
+        <v>-7.7290178713913</v>
       </c>
       <c r="H34" t="n">
-        <v>-8.58739258944678</v>
+        <v>-8.26642590777457</v>
       </c>
       <c r="I34" t="n">
-        <v>-9.13220203445647</v>
+        <v>-9.24442519041801</v>
       </c>
       <c r="J34" t="n">
-        <v>-9.77435897481449</v>
+        <v>-9.66667683439169</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-4.51938172948466</v>
+        <v>-5.00767024287362</v>
       </c>
       <c r="B35" t="n">
-        <v>10.4358724121884</v>
+        <v>-5.36460438102087</v>
       </c>
       <c r="C35" t="n">
-        <v>10.8993071320435</v>
+        <v>-5.79736881061276</v>
       </c>
       <c r="D35" t="n">
-        <v>2.48029446751594</v>
+        <v>11.6662670584323</v>
       </c>
       <c r="E35" t="n">
-        <v>4.18777019012533</v>
+        <v>15.1523343217632</v>
       </c>
       <c r="F35" t="n">
-        <v>5.4598032834821</v>
+        <v>15.8731314574271</v>
       </c>
       <c r="G35" t="n">
-        <v>5.75887894669261</v>
+        <v>16.4001270564453</v>
       </c>
       <c r="H35" t="n">
-        <v>5.10144139117164</v>
+        <v>17.7438504612186</v>
       </c>
       <c r="I35" t="n">
-        <v>6.74503484980243</v>
+        <v>16.7473189488778</v>
       </c>
       <c r="J35" t="n">
-        <v>7.08902908559953</v>
+        <v>18.527814358904</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>9.41629607420499</v>
+        <v>10.4515278022332</v>
       </c>
       <c r="B36" t="n">
-        <v>11.2684785263303</v>
+        <v>9.99606356123922</v>
       </c>
       <c r="C36" t="n">
-        <v>-5.80498322573792</v>
+        <v>13.0530068394328</v>
       </c>
       <c r="D36" t="n">
-        <v>-6.35454017257868</v>
+        <v>13.3560168241401</v>
       </c>
       <c r="E36" t="n">
-        <v>-6.94495647430149</v>
+        <v>13.5738145316857</v>
       </c>
       <c r="F36" t="n">
-        <v>-7.61014285731142</v>
+        <v>14.8801066737954</v>
       </c>
       <c r="G36" t="n">
-        <v>-8.03856813160361</v>
+        <v>15.8067622678463</v>
       </c>
       <c r="H36" t="n">
-        <v>-8.84357563316942</v>
+        <v>17.4493607815649</v>
       </c>
       <c r="I36" t="n">
-        <v>-9.4015115361065</v>
+        <v>17.6849742029874</v>
       </c>
       <c r="J36" t="n">
-        <v>-9.69239994340954</v>
+        <v>16.9534555211247</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>9.43791006501712</v>
+        <v>2.47410868314923</v>
       </c>
       <c r="B37" t="n">
-        <v>10.2874165579944</v>
+        <v>3.0751138917541</v>
       </c>
       <c r="C37" t="n">
-        <v>11.3259899664263</v>
+        <v>3.22352289066247</v>
       </c>
       <c r="D37" t="n">
-        <v>12.6256725456182</v>
+        <v>4.8270399252481</v>
       </c>
       <c r="E37" t="n">
-        <v>15.7622077450092</v>
+        <v>3.79439773869768</v>
       </c>
       <c r="F37" t="n">
-        <v>14.7413956637202</v>
+        <v>4.60134273526502</v>
       </c>
       <c r="G37" t="n">
-        <v>15.0016090420404</v>
+        <v>5.7374080597688</v>
       </c>
       <c r="H37" t="n">
-        <v>17.3770190323134</v>
+        <v>6.29996442978843</v>
       </c>
       <c r="I37" t="n">
-        <v>18.3038161107809</v>
+        <v>6.39555908395866</v>
       </c>
       <c r="J37" t="n">
-        <v>19.5064480280504</v>
+        <v>6.53083625269619</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-4.59145078157519</v>
+        <v>-4.96216761183294</v>
       </c>
       <c r="B38" t="n">
-        <v>-5.5097782066254</v>
+        <v>-5.02739501813229</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.05487257476014</v>
+        <v>-5.7125873229845</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.3113134879633</v>
+        <v>-7.09810643989355</v>
       </c>
       <c r="E38" t="n">
-        <v>13.4342149932782</v>
+        <v>14.4659316746597</v>
       </c>
       <c r="F38" t="n">
-        <v>14.9951603023074</v>
+        <v>14.3500957964798</v>
       </c>
       <c r="G38" t="n">
-        <v>14.7973198921441</v>
+        <v>16.4657718639816</v>
       </c>
       <c r="H38" t="n">
-        <v>16.8165944275627</v>
+        <v>18.6372035708146</v>
       </c>
       <c r="I38" t="n">
-        <v>-9.20553898842339</v>
+        <v>17.8242043696942</v>
       </c>
       <c r="J38" t="n">
-        <v>-9.57239405125408</v>
+        <v>6.99801313584541</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>10.2370385538707</v>
+        <v>-5.08458951135349</v>
       </c>
       <c r="B39" t="n">
-        <v>11.6586039496521</v>
+        <v>-5.55939126708562</v>
       </c>
       <c r="C39" t="n">
-        <v>11.0845160283776</v>
+        <v>-6.39097541872706</v>
       </c>
       <c r="D39" t="n">
-        <v>14.6521320335409</v>
+        <v>-6.83425983731186</v>
       </c>
       <c r="E39" t="n">
-        <v>14.1779425877823</v>
+        <v>-7.10871824842408</v>
       </c>
       <c r="F39" t="n">
-        <v>5.91924892326271</v>
+        <v>-7.46001123655576</v>
       </c>
       <c r="G39" t="n">
-        <v>4.93450973448384</v>
+        <v>-8.08973375602947</v>
       </c>
       <c r="H39" t="n">
-        <v>5.42014060540822</v>
+        <v>-8.56563696220704</v>
       </c>
       <c r="I39" t="n">
-        <v>6.15299583162787</v>
+        <v>-9.40135076269622</v>
       </c>
       <c r="J39" t="n">
-        <v>7.28648183370593</v>
+        <v>-9.35061775551402</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>11.3057987583386</v>
+        <v>1.93131964613921</v>
       </c>
       <c r="B40" t="n">
-        <v>11.7964417925405</v>
+        <v>2.84117740296888</v>
       </c>
       <c r="C40" t="n">
-        <v>12.5747122911882</v>
+        <v>2.96569111728546</v>
       </c>
       <c r="D40" t="n">
-        <v>13.6838152106518</v>
+        <v>4.31455494738735</v>
       </c>
       <c r="E40" t="n">
-        <v>-6.61680442963201</v>
+        <v>4.40865271629527</v>
       </c>
       <c r="F40" t="n">
-        <v>-7.22681890973106</v>
+        <v>4.33165990645554</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.62014480071539</v>
+        <v>4.9502578821456</v>
       </c>
       <c r="H40" t="n">
-        <v>-8.56384883457959</v>
+        <v>7.03078709888763</v>
       </c>
       <c r="I40" t="n">
-        <v>-8.87192227911775</v>
+        <v>7.94455882603239</v>
       </c>
       <c r="J40" t="n">
-        <v>-10.1145250229612</v>
+        <v>7.2408986890596</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-5.23752974439656</v>
+        <v>9.36136628418954</v>
       </c>
       <c r="B41" t="n">
-        <v>-5.7951000863711</v>
+        <v>11.0599019854927</v>
       </c>
       <c r="C41" t="n">
-        <v>-6.05470759361222</v>
+        <v>12.0806545688237</v>
       </c>
       <c r="D41" t="n">
-        <v>-6.4293245810066</v>
+        <v>12.1038463129197</v>
       </c>
       <c r="E41" t="n">
-        <v>-6.82694426140168</v>
+        <v>14.4745637383701</v>
       </c>
       <c r="F41" t="n">
-        <v>-7.39933533681038</v>
+        <v>14.3033425519315</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.89166010351639</v>
+        <v>15.8163150827931</v>
       </c>
       <c r="H41" t="n">
-        <v>-8.29809593287669</v>
+        <v>16.3690078554836</v>
       </c>
       <c r="I41" t="n">
-        <v>-9.38805534291702</v>
+        <v>19.0978149758011</v>
       </c>
       <c r="J41" t="n">
-        <v>-9.16880778540794</v>
+        <v>19.7566781665806</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-5.27767595966062</v>
+        <v>10.4189355567599</v>
       </c>
       <c r="B42" t="n">
-        <v>-5.34413408789364</v>
+        <v>-5.38128474871384</v>
       </c>
       <c r="C42" t="n">
-        <v>-6.10496015047024</v>
+        <v>-6.05624882915203</v>
       </c>
       <c r="D42" t="n">
-        <v>-6.42691850846926</v>
+        <v>-6.02604407547597</v>
       </c>
       <c r="E42" t="n">
-        <v>-7.1659381540286</v>
+        <v>-7.5756032606256</v>
       </c>
       <c r="F42" t="n">
-        <v>-7.47331509516783</v>
+        <v>-8.0551929001668</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.84155621113104</v>
+        <v>-8.0558017434201</v>
       </c>
       <c r="H42" t="n">
-        <v>-8.49083130875666</v>
+        <v>-8.18849037049396</v>
       </c>
       <c r="I42" t="n">
-        <v>-8.94889322882379</v>
+        <v>-8.99602258272683</v>
       </c>
       <c r="J42" t="n">
-        <v>-10.1198822164203</v>
+        <v>-9.83348985725715</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>11.2632712922465</v>
+        <v>-4.92409556782802</v>
       </c>
       <c r="B43" t="n">
-        <v>10.3663028509738</v>
+        <v>-4.93862707814006</v>
       </c>
       <c r="C43" t="n">
-        <v>13.7712057292341</v>
+        <v>2.87549932027159</v>
       </c>
       <c r="D43" t="n">
-        <v>13.5068295269942</v>
+        <v>3.86938273147934</v>
       </c>
       <c r="E43" t="n">
-        <v>14.2837965571784</v>
+        <v>5.25384068974376</v>
       </c>
       <c r="F43" t="n">
-        <v>14.4361769681782</v>
+        <v>3.71896047177554</v>
       </c>
       <c r="G43" t="n">
-        <v>15.8750307908004</v>
+        <v>6.13645529761013</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4540639846038</v>
+        <v>5.82783747930905</v>
       </c>
       <c r="I43" t="n">
-        <v>18.6399717064876</v>
+        <v>6.77914156619109</v>
       </c>
       <c r="J43" t="n">
-        <v>18.5225501410323</v>
+        <v>7.13663459535121</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3.00206217341721</v>
+        <v>1.48140186641874</v>
       </c>
       <c r="B44" t="n">
-        <v>2.65917433660639</v>
+        <v>1.70075736032015</v>
       </c>
       <c r="C44" t="n">
-        <v>3.7264525648999</v>
+        <v>3.3289848527492</v>
       </c>
       <c r="D44" t="n">
-        <v>3.34578075729214</v>
+        <v>3.88070274973416</v>
       </c>
       <c r="E44" t="n">
-        <v>5.20975949518569</v>
+        <v>4.26558086885242</v>
       </c>
       <c r="F44" t="n">
-        <v>4.02524084670204</v>
+        <v>4.53664145822782</v>
       </c>
       <c r="G44" t="n">
-        <v>5.64343885910185</v>
+        <v>6.09449455723151</v>
       </c>
       <c r="H44" t="n">
-        <v>6.1819463610721</v>
+        <v>6.20653054625879</v>
       </c>
       <c r="I44" t="n">
-        <v>7.22761442879793</v>
+        <v>6.44713535511172</v>
       </c>
       <c r="J44" t="n">
-        <v>7.89319232447126</v>
+        <v>7.28601304602137</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2.2261200036162</v>
+        <v>10.9456237214193</v>
       </c>
       <c r="B45" t="n">
-        <v>2.81410230078925</v>
+        <v>10.5897419768172</v>
       </c>
       <c r="C45" t="n">
-        <v>3.53027152760922</v>
+        <v>10.9379627576277</v>
       </c>
       <c r="D45" t="n">
-        <v>4.39539407616507</v>
+        <v>13.3440859379097</v>
       </c>
       <c r="E45" t="n">
-        <v>4.38627391640664</v>
+        <v>15.2715645876497</v>
       </c>
       <c r="F45" t="n">
-        <v>4.69425578985385</v>
+        <v>14.28509745057</v>
       </c>
       <c r="G45" t="n">
-        <v>5.9035578491019</v>
+        <v>15.393317104549</v>
       </c>
       <c r="H45" t="n">
-        <v>5.99888638687058</v>
+        <v>16.8454267369742</v>
       </c>
       <c r="I45" t="n">
-        <v>6.79547978370428</v>
+        <v>16.9557635247598</v>
       </c>
       <c r="J45" t="n">
-        <v>7.75873365161283</v>
+        <v>18.5438968722152</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2.68690899092418</v>
+        <v>8.74473609220283</v>
       </c>
       <c r="B46" t="n">
-        <v>2.60877165743244</v>
+        <v>10.0682290042032</v>
       </c>
       <c r="C46" t="n">
-        <v>3.84441480353617</v>
+        <v>12.8783874742906</v>
       </c>
       <c r="D46" t="n">
-        <v>4.42417288208711</v>
+        <v>12.3700052105393</v>
       </c>
       <c r="E46" t="n">
-        <v>5.1045591743607</v>
+        <v>14.616203037542</v>
       </c>
       <c r="F46" t="n">
-        <v>4.95836844976637</v>
+        <v>-7.73205661134083</v>
       </c>
       <c r="G46" t="n">
-        <v>4.28066202087274</v>
+        <v>-7.80135962126867</v>
       </c>
       <c r="H46" t="n">
-        <v>5.63326252517783</v>
+        <v>-8.64422465327143</v>
       </c>
       <c r="I46" t="n">
-        <v>6.58887250408691</v>
+        <v>-8.47789494123148</v>
       </c>
       <c r="J46" t="n">
-        <v>7.78394601792923</v>
+        <v>-9.54692999231019</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-5.2205366135322</v>
+        <v>-4.93214633240063</v>
       </c>
       <c r="B47" t="n">
-        <v>-5.4657770291054</v>
+        <v>-5.23096344372962</v>
       </c>
       <c r="C47" t="n">
-        <v>-5.77576664223516</v>
+        <v>-5.94210412394293</v>
       </c>
       <c r="D47" t="n">
-        <v>3.27629804646582</v>
+        <v>-6.71801047197004</v>
       </c>
       <c r="E47" t="n">
-        <v>3.52275572906689</v>
+        <v>-7.16846037738686</v>
       </c>
       <c r="F47" t="n">
-        <v>5.6179414514648</v>
+        <v>-7.59219189688705</v>
       </c>
       <c r="G47" t="n">
-        <v>6.16731879218733</v>
+        <v>-7.88387721000632</v>
       </c>
       <c r="H47" t="n">
-        <v>6.07619131921399</v>
+        <v>-8.54737406264985</v>
       </c>
       <c r="I47" t="n">
-        <v>7.31788785558688</v>
+        <v>-8.6959127857025</v>
       </c>
       <c r="J47" t="n">
-        <v>6.86414369234443</v>
+        <v>-9.84770939390393</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>10.6387106117049</v>
+        <v>9.62220918496725</v>
       </c>
       <c r="B48" t="n">
-        <v>11.7265525183549</v>
+        <v>10.9205720174122</v>
       </c>
       <c r="C48" t="n">
-        <v>11.3419300525552</v>
+        <v>10.4884933828489</v>
       </c>
       <c r="D48" t="n">
-        <v>13.2154396063928</v>
+        <v>12.5009999261178</v>
       </c>
       <c r="E48" t="n">
-        <v>13.3969551271554</v>
+        <v>14.0482418248843</v>
       </c>
       <c r="F48" t="n">
-        <v>15.4583955193724</v>
+        <v>15.205905363713</v>
       </c>
       <c r="G48" t="n">
-        <v>16.0853757372664</v>
+        <v>15.9293730253515</v>
       </c>
       <c r="H48" t="n">
-        <v>18.1333481721492</v>
+        <v>15.9844823066613</v>
       </c>
       <c r="I48" t="n">
-        <v>5.58245984254468</v>
+        <v>18.9021399698699</v>
       </c>
       <c r="J48" t="n">
-        <v>7.18248438304393</v>
+        <v>19.7409331733725</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9.23100264860258</v>
+        <v>-4.93604150185506</v>
       </c>
       <c r="B49" t="n">
-        <v>10.6254318630138</v>
+        <v>-5.34350850388475</v>
       </c>
       <c r="C49" t="n">
-        <v>12.447147492225</v>
+        <v>-6.20701772839422</v>
       </c>
       <c r="D49" t="n">
-        <v>4.09029996199571</v>
+        <v>-6.93507584935346</v>
       </c>
       <c r="E49" t="n">
-        <v>4.73280264229717</v>
+        <v>13.4781368980628</v>
       </c>
       <c r="F49" t="n">
-        <v>4.73350130146267</v>
+        <v>14.4747255400255</v>
       </c>
       <c r="G49" t="n">
-        <v>4.96131133086472</v>
+        <v>15.7603531428037</v>
       </c>
       <c r="H49" t="n">
-        <v>5.71596461062162</v>
+        <v>16.3126347243483</v>
       </c>
       <c r="I49" t="n">
-        <v>6.34144492700085</v>
+        <v>19.5768639772034</v>
       </c>
       <c r="J49" t="n">
-        <v>7.17931749817309</v>
+        <v>-9.88626376923681</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10.2902733794445</v>
+        <v>-5.21047986225694</v>
       </c>
       <c r="B50" t="n">
-        <v>2.71436962065847</v>
+        <v>-5.1841839534014</v>
       </c>
       <c r="C50" t="n">
-        <v>2.92912846723587</v>
+        <v>-5.61205030774716</v>
       </c>
       <c r="D50" t="n">
-        <v>3.83726640857347</v>
+        <v>-6.08304993060879</v>
       </c>
       <c r="E50" t="n">
-        <v>4.64442744101567</v>
+        <v>-6.88436427356805</v>
       </c>
       <c r="F50" t="n">
-        <v>5.24932222547709</v>
+        <v>-7.6426670708847</v>
       </c>
       <c r="G50" t="n">
-        <v>5.48646960348943</v>
+        <v>-7.62224840321462</v>
       </c>
       <c r="H50" t="n">
-        <v>5.11562485440911</v>
+        <v>6.46929106008265</v>
       </c>
       <c r="I50" t="n">
-        <v>6.72978411403879</v>
+        <v>6.72400742829157</v>
       </c>
       <c r="J50" t="n">
-        <v>6.93636695012284</v>
+        <v>6.79267481875503</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.93072484790361</v>
+        <v>10.9047338480966</v>
       </c>
       <c r="B51" t="n">
-        <v>3.0717027767601</v>
+        <v>10.6917691528667</v>
       </c>
       <c r="C51" t="n">
-        <v>3.9122944932574</v>
+        <v>11.1716390212886</v>
       </c>
       <c r="D51" t="n">
-        <v>4.07745936536737</v>
+        <v>13.2311772260356</v>
       </c>
       <c r="E51" t="n">
-        <v>5.03136149602287</v>
+        <v>14.2338270216682</v>
       </c>
       <c r="F51" t="n">
-        <v>4.31906683879608</v>
+        <v>15.1139364028813</v>
       </c>
       <c r="G51" t="n">
-        <v>5.03815975682346</v>
+        <v>13.5781897205714</v>
       </c>
       <c r="H51" t="n">
-        <v>5.51145741680379</v>
+        <v>17.6522775040506</v>
       </c>
       <c r="I51" t="n">
-        <v>6.32717820563036</v>
+        <v>18.7980397281261</v>
       </c>
       <c r="J51" t="n">
-        <v>6.90478862657331</v>
+        <v>17.6890878663643</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9.2986163529681</v>
+        <v>9.47541587485314</v>
       </c>
       <c r="B52" t="n">
-        <v>8.92718218922372</v>
+        <v>10.8226946012046</v>
       </c>
       <c r="C52" t="n">
-        <v>11.0321229774504</v>
+        <v>11.1653851224829</v>
       </c>
       <c r="D52" t="n">
-        <v>13.5312401149318</v>
+        <v>13.5461093066115</v>
       </c>
       <c r="E52" t="n">
-        <v>13.7621689306038</v>
+        <v>14.6789562266126</v>
       </c>
       <c r="F52" t="n">
-        <v>-7.22612431416933</v>
+        <v>15.7070533820275</v>
       </c>
       <c r="G52" t="n">
-        <v>-8.04045142246365</v>
+        <v>17.1113132965788</v>
       </c>
       <c r="H52" t="n">
-        <v>-8.64310152747724</v>
+        <v>17.0260804966144</v>
       </c>
       <c r="I52" t="n">
-        <v>-8.94380346286572</v>
+        <v>17.6285938057723</v>
       </c>
       <c r="J52" t="n">
-        <v>-9.54810913872591</v>
+        <v>18.1646866585455</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3.52766107402027</v>
+        <v>-5.07177052782843</v>
       </c>
       <c r="B53" t="n">
-        <v>2.82944647238278</v>
+        <v>-5.22524062640539</v>
       </c>
       <c r="C53" t="n">
-        <v>2.96430509526938</v>
+        <v>-6.02781425243955</v>
       </c>
       <c r="D53" t="n">
-        <v>4.49191540548582</v>
+        <v>-6.54251663346863</v>
       </c>
       <c r="E53" t="n">
-        <v>4.74246304978885</v>
+        <v>-6.93553702009519</v>
       </c>
       <c r="F53" t="n">
-        <v>3.9306389438758</v>
+        <v>-7.30031898110784</v>
       </c>
       <c r="G53" t="n">
-        <v>5.52465746280508</v>
+        <v>-7.60658159988535</v>
       </c>
       <c r="H53" t="n">
-        <v>5.73606656520451</v>
+        <v>-8.67163961832197</v>
       </c>
       <c r="I53" t="n">
-        <v>19.1816165769732</v>
+        <v>-8.75730401781164</v>
       </c>
       <c r="J53" t="n">
-        <v>19.1265332062926</v>
+        <v>-9.57536545164883</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>10.1385366548094</v>
+        <v>2.26846379252715</v>
       </c>
       <c r="B54" t="n">
-        <v>11.6289993423029</v>
+        <v>1.63155165345492</v>
       </c>
       <c r="C54" t="n">
-        <v>11.3246160182369</v>
+        <v>4.76521655443605</v>
       </c>
       <c r="D54" t="n">
-        <v>-6.48162492839176</v>
+        <v>4.05606323116307</v>
       </c>
       <c r="E54" t="n">
-        <v>-7.38649599882786</v>
+        <v>3.58854219911894</v>
       </c>
       <c r="F54" t="n">
-        <v>-7.44207720930773</v>
+        <v>4.30353499716398</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.77393920245326</v>
+        <v>6.18559166788779</v>
       </c>
       <c r="H54" t="n">
-        <v>6.22994699462477</v>
+        <v>5.90331296323806</v>
       </c>
       <c r="I54" t="n">
-        <v>5.92821325954131</v>
+        <v>5.83182573143749</v>
       </c>
       <c r="J54" t="n">
-        <v>6.76089609314544</v>
+        <v>7.40459210858054</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>10.6398580877336</v>
+        <v>-4.78756901494386</v>
       </c>
       <c r="B55" t="n">
-        <v>10.6583584224774</v>
+        <v>-5.58675511140038</v>
       </c>
       <c r="C55" t="n">
-        <v>3.48142548724698</v>
+        <v>-6.10297467327756</v>
       </c>
       <c r="D55" t="n">
-        <v>4.96761377220322</v>
+        <v>-6.56222046063695</v>
       </c>
       <c r="E55" t="n">
-        <v>4.52520154576368</v>
+        <v>-6.63956927420504</v>
       </c>
       <c r="F55" t="n">
-        <v>5.02807436955376</v>
+        <v>-7.55707238913082</v>
       </c>
       <c r="G55" t="n">
-        <v>5.79938356437474</v>
+        <v>-8.04607518026379</v>
       </c>
       <c r="H55" t="n">
-        <v>5.97635167171031</v>
+        <v>-8.54979083153645</v>
       </c>
       <c r="I55" t="n">
-        <v>6.56611584910174</v>
+        <v>-9.16544328670449</v>
       </c>
       <c r="J55" t="n">
-        <v>7.24704147639612</v>
+        <v>-9.29940258686811</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-5.29544956036707</v>
+        <v>-4.75967513965802</v>
       </c>
       <c r="B56" t="n">
-        <v>-5.38950128670537</v>
+        <v>-4.89802443960781</v>
       </c>
       <c r="C56" t="n">
-        <v>-5.5221005353499</v>
+        <v>-5.96424419553768</v>
       </c>
       <c r="D56" t="n">
-        <v>-6.71198374117705</v>
+        <v>-6.71941329319246</v>
       </c>
       <c r="E56" t="n">
-        <v>-7.4995819420816</v>
+        <v>-6.62664242822249</v>
       </c>
       <c r="F56" t="n">
-        <v>14.5582601575613</v>
+        <v>-7.50859366113119</v>
       </c>
       <c r="G56" t="n">
-        <v>14.7361682020348</v>
+        <v>-7.93946265305574</v>
       </c>
       <c r="H56" t="n">
-        <v>18.2330624116491</v>
+        <v>-8.49932994062246</v>
       </c>
       <c r="I56" t="n">
-        <v>18.7922468409478</v>
+        <v>-9.19911169373073</v>
       </c>
       <c r="J56" t="n">
-        <v>19.2081855821545</v>
+        <v>-9.51026312462515</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3.01418425144228</v>
+        <v>-5.19948441610508</v>
       </c>
       <c r="B57" t="n">
-        <v>2.07570631003753</v>
+        <v>-5.6236677125719</v>
       </c>
       <c r="C57" t="n">
-        <v>3.90006499353536</v>
+        <v>12.0628498389127</v>
       </c>
       <c r="D57" t="n">
-        <v>3.89592069367706</v>
+        <v>11.1150788711429</v>
       </c>
       <c r="E57" t="n">
-        <v>4.39039594432723</v>
+        <v>15.2978944737991</v>
       </c>
       <c r="F57" t="n">
-        <v>5.23118167787296</v>
+        <v>14.2424756646027</v>
       </c>
       <c r="G57" t="n">
-        <v>6.37993094178742</v>
+        <v>15.4600504887009</v>
       </c>
       <c r="H57" t="n">
-        <v>5.60547624503102</v>
+        <v>18.1634225729845</v>
       </c>
       <c r="I57" t="n">
-        <v>7.15863934229265</v>
+        <v>18.7765357029258</v>
       </c>
       <c r="J57" t="n">
-        <v>6.95290465656465</v>
+        <v>19.8258428068106</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.34572235983474</v>
+        <v>2.55788518325292</v>
       </c>
       <c r="B58" t="n">
-        <v>2.50384937322887</v>
+        <v>3.94955828125228</v>
       </c>
       <c r="C58" t="n">
-        <v>4.01462678991729</v>
+        <v>3.36893828372195</v>
       </c>
       <c r="D58" t="n">
-        <v>3.46076413197393</v>
+        <v>3.89631878049939</v>
       </c>
       <c r="E58" t="n">
-        <v>5.49804434515058</v>
+        <v>4.66320519852002</v>
       </c>
       <c r="F58" t="n">
-        <v>4.6520925116605</v>
+        <v>5.64699593475292</v>
       </c>
       <c r="G58" t="n">
-        <v>6.06981225693702</v>
+        <v>4.68806695770553</v>
       </c>
       <c r="H58" t="n">
-        <v>5.53318276440527</v>
+        <v>6.01665917832302</v>
       </c>
       <c r="I58" t="n">
-        <v>7.76869606692798</v>
+        <v>6.2980637652517</v>
       </c>
       <c r="J58" t="n">
-        <v>6.78144714865303</v>
+        <v>7.1932849917581</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.81897940156447</v>
+        <v>-5.5461843916423</v>
       </c>
       <c r="B59" t="n">
-        <v>4.46466633202852</v>
+        <v>-5.49394521594911</v>
       </c>
       <c r="C59" t="n">
-        <v>3.55388006510327</v>
+        <v>-5.92286603697495</v>
       </c>
       <c r="D59" t="n">
-        <v>4.29651218036849</v>
+        <v>-6.52786926473569</v>
       </c>
       <c r="E59" t="n">
-        <v>4.90388575734268</v>
+        <v>-6.88877069782595</v>
       </c>
       <c r="F59" t="n">
-        <v>5.23514339734671</v>
+        <v>-8.06749436054097</v>
       </c>
       <c r="G59" t="n">
-        <v>4.23787583739991</v>
+        <v>-8.153821036234</v>
       </c>
       <c r="H59" t="n">
-        <v>5.94498838859626</v>
+        <v>-8.25878763661665</v>
       </c>
       <c r="I59" t="n">
-        <v>6.80422684611519</v>
+        <v>-9.05668165760807</v>
       </c>
       <c r="J59" t="n">
-        <v>6.50689508585717</v>
+        <v>-9.48458214818432</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>11.0803971087131</v>
+        <v>9.9840799926272</v>
       </c>
       <c r="B60" t="n">
-        <v>10.6459849713836</v>
+        <v>10.8722767698853</v>
       </c>
       <c r="C60" t="n">
-        <v>12.9294298084738</v>
+        <v>10.7017273647918</v>
       </c>
       <c r="D60" t="n">
-        <v>13.3282160126602</v>
+        <v>12.9076552999874</v>
       </c>
       <c r="E60" t="n">
-        <v>14.2079762632768</v>
+        <v>14.3626677283107</v>
       </c>
       <c r="F60" t="n">
-        <v>14.7163790819192</v>
+        <v>15.9135245935431</v>
       </c>
       <c r="G60" t="n">
-        <v>16.2820118700696</v>
+        <v>15.5019926672889</v>
       </c>
       <c r="H60" t="n">
-        <v>18.0444193915465</v>
+        <v>18.1283467911581</v>
       </c>
       <c r="I60" t="n">
-        <v>17.6859882396026</v>
+        <v>16.9072667894087</v>
       </c>
       <c r="J60" t="n">
-        <v>19.0974206213074</v>
+        <v>19.5373867521761</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>9.5447588502163</v>
+        <v>8.83467151550498</v>
       </c>
       <c r="B61" t="n">
-        <v>10.8972135227941</v>
+        <v>11.1075566629837</v>
       </c>
       <c r="C61" t="n">
-        <v>11.3277298797241</v>
+        <v>12.4409033743689</v>
       </c>
       <c r="D61" t="n">
-        <v>12.3362618440173</v>
+        <v>13.8744611508417</v>
       </c>
       <c r="E61" t="n">
-        <v>14.5379304709229</v>
+        <v>13.8778826210474</v>
       </c>
       <c r="F61" t="n">
-        <v>14.7427637408207</v>
+        <v>14.0132563084572</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.12947709735523</v>
+        <v>16.9194787463081</v>
       </c>
       <c r="H61" t="n">
-        <v>-8.7731687274249</v>
+        <v>16.8615378924954</v>
       </c>
       <c r="I61" t="n">
-        <v>-8.86018836985437</v>
+        <v>-9.06600484298422</v>
       </c>
       <c r="J61" t="n">
-        <v>-9.2561522113175</v>
+        <v>-9.93543884290963</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2.18761755050122</v>
+        <v>2.19154137093095</v>
       </c>
       <c r="B62" t="n">
-        <v>3.30645310703565</v>
+        <v>2.9240118624509</v>
       </c>
       <c r="C62" t="n">
-        <v>11.3779670389747</v>
+        <v>3.92994495618264</v>
       </c>
       <c r="D62" t="n">
-        <v>13.0090448759839</v>
+        <v>3.77441309619802</v>
       </c>
       <c r="E62" t="n">
-        <v>14.9405085773817</v>
+        <v>4.81373599788464</v>
       </c>
       <c r="F62" t="n">
-        <v>14.7049229367943</v>
+        <v>4.68136003357835</v>
       </c>
       <c r="G62" t="n">
-        <v>16.9718667810622</v>
+        <v>5.72397899940015</v>
       </c>
       <c r="H62" t="n">
-        <v>18.217272586497</v>
+        <v>4.77148043895863</v>
       </c>
       <c r="I62" t="n">
-        <v>18.4703300765982</v>
+        <v>6.30711592833735</v>
       </c>
       <c r="J62" t="n">
-        <v>19.8901103516038</v>
+        <v>5.96259369865628</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89618609095427</v>
+        <v>9.9561476081751</v>
       </c>
       <c r="B63" t="n">
-        <v>3.11359427236762</v>
+        <v>10.3904184757961</v>
       </c>
       <c r="C63" t="n">
-        <v>3.77307264142956</v>
+        <v>12.5140562087285</v>
       </c>
       <c r="D63" t="n">
-        <v>4.13045712425855</v>
+        <v>13.2601398781093</v>
       </c>
       <c r="E63" t="n">
-        <v>4.71310047996443</v>
+        <v>14.0236026071418</v>
       </c>
       <c r="F63" t="n">
-        <v>4.68482329317887</v>
+        <v>14.7043069550245</v>
       </c>
       <c r="G63" t="n">
-        <v>5.10368052980536</v>
+        <v>16.1318862452282</v>
       </c>
       <c r="H63" t="n">
-        <v>6.05117520518476</v>
+        <v>16.4170502377977</v>
       </c>
       <c r="I63" t="n">
-        <v>6.74536326058615</v>
+        <v>19.1659874376777</v>
       </c>
       <c r="J63" t="n">
-        <v>6.65383286650553</v>
+        <v>17.7306511770121</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>11.412287570513</v>
+        <v>10.0405426764738</v>
       </c>
       <c r="B64" t="n">
-        <v>11.1874487889519</v>
+        <v>12.155488438176</v>
       </c>
       <c r="C64" t="n">
-        <v>10.9091447736049</v>
+        <v>12.4280915079593</v>
       </c>
       <c r="D64" t="n">
-        <v>13.3258190876183</v>
+        <v>12.0997714042102</v>
       </c>
       <c r="E64" t="n">
-        <v>14.0306596714465</v>
+        <v>14.0600077373142</v>
       </c>
       <c r="F64" t="n">
-        <v>15.415496695268</v>
+        <v>13.5646996168858</v>
       </c>
       <c r="G64" t="n">
-        <v>6.40839494916694</v>
+        <v>16.4371156760105</v>
       </c>
       <c r="H64" t="n">
-        <v>6.20092379739092</v>
+        <v>16.7752479625774</v>
       </c>
       <c r="I64" t="n">
-        <v>6.10742769194082</v>
+        <v>18.2350381788852</v>
       </c>
       <c r="J64" t="n">
-        <v>7.94492595576348</v>
+        <v>18.1525812962206</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2.17247929394455</v>
+        <v>10.087517170135</v>
       </c>
       <c r="B65" t="n">
-        <v>3.76275200450955</v>
+        <v>11.0180099327599</v>
       </c>
       <c r="C65" t="n">
-        <v>3.44415589245261</v>
+        <v>11.5364834095724</v>
       </c>
       <c r="D65" t="n">
-        <v>3.62535416658903</v>
+        <v>12.6224374499398</v>
       </c>
       <c r="E65" t="n">
-        <v>4.60252476162095</v>
+        <v>12.4258230088665</v>
       </c>
       <c r="F65" t="n">
-        <v>4.79877588316013</v>
+        <v>5.71736073718142</v>
       </c>
       <c r="G65" t="n">
-        <v>5.87045415856388</v>
+        <v>6.10545532282908</v>
       </c>
       <c r="H65" t="n">
-        <v>6.71972436291046</v>
+        <v>18.1986950818784</v>
       </c>
       <c r="I65" t="n">
-        <v>6.8680660790593</v>
+        <v>16.7732863464848</v>
       </c>
       <c r="J65" t="n">
-        <v>7.57361368823761</v>
+        <v>18.8417023803153</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-5.13768002853737</v>
+        <v>10.5534735215479</v>
       </c>
       <c r="B66" t="n">
-        <v>-5.07349257174464</v>
+        <v>11.0283062242604</v>
       </c>
       <c r="C66" t="n">
-        <v>-5.95453634646647</v>
+        <v>11.4267589462201</v>
       </c>
       <c r="D66" t="n">
-        <v>-6.40185737836169</v>
+        <v>13.5458749463863</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.8936575326715</v>
+        <v>13.7422150980727</v>
       </c>
       <c r="F66" t="n">
-        <v>-7.92026689970786</v>
+        <v>15.2095693504185</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.016032719216</v>
+        <v>15.1700198269956</v>
       </c>
       <c r="H66" t="n">
-        <v>-8.59156306975954</v>
+        <v>17.1577780653734</v>
       </c>
       <c r="I66" t="n">
-        <v>-8.62374526987118</v>
+        <v>18.1041463004064</v>
       </c>
       <c r="J66" t="n">
-        <v>-9.41734421366761</v>
+        <v>19.8960534867493</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.55443427398408</v>
+        <v>2.9149999986712</v>
       </c>
       <c r="B67" t="n">
-        <v>2.92744910327343</v>
+        <v>1.92727287350525</v>
       </c>
       <c r="C67" t="n">
-        <v>3.93514188268657</v>
+        <v>3.64041243468894</v>
       </c>
       <c r="D67" t="n">
-        <v>5.02687520902367</v>
+        <v>4.42812200587425</v>
       </c>
       <c r="E67" t="n">
-        <v>4.87230917708786</v>
+        <v>5.00478126586885</v>
       </c>
       <c r="F67" t="n">
-        <v>4.69351273106008</v>
+        <v>4.49408013496476</v>
       </c>
       <c r="G67" t="n">
-        <v>5.14468684950557</v>
+        <v>5.77466951925399</v>
       </c>
       <c r="H67" t="n">
-        <v>5.19873975266749</v>
+        <v>4.91156477976478</v>
       </c>
       <c r="I67" t="n">
-        <v>6.6597628934647</v>
+        <v>5.97625274727532</v>
       </c>
       <c r="J67" t="n">
-        <v>6.92545269439255</v>
+        <v>6.58934324791168</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>10.0264518926742</v>
+        <v>8.98557064989173</v>
       </c>
       <c r="B68" t="n">
-        <v>11.904586298058</v>
+        <v>11.6336175410946</v>
       </c>
       <c r="C68" t="n">
-        <v>11.9467790378317</v>
+        <v>12.2139135270023</v>
       </c>
       <c r="D68" t="n">
-        <v>13.8432049223494</v>
+        <v>12.5255385125334</v>
       </c>
       <c r="E68" t="n">
-        <v>14.9871278646996</v>
+        <v>14.7216854528489</v>
       </c>
       <c r="F68" t="n">
-        <v>5.21842652648113</v>
+        <v>-7.68666217285747</v>
       </c>
       <c r="G68" t="n">
-        <v>5.12528966575177</v>
+        <v>-7.65694900643434</v>
       </c>
       <c r="H68" t="n">
-        <v>6.20305155681267</v>
+        <v>-8.3424785249458</v>
       </c>
       <c r="I68" t="n">
-        <v>6.8554356927622</v>
+        <v>-9.5689966193833</v>
       </c>
       <c r="J68" t="n">
-        <v>6.56902041257291</v>
+        <v>-9.67678907216109</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>11.0446776697863</v>
+        <v>-4.83649472907319</v>
       </c>
       <c r="B69" t="n">
-        <v>10.8505733380764</v>
+        <v>-5.71690966471616</v>
       </c>
       <c r="C69" t="n">
-        <v>10.8768325601411</v>
+        <v>-5.77910573566365</v>
       </c>
       <c r="D69" t="n">
-        <v>12.8455371724425</v>
+        <v>12.469613412301</v>
       </c>
       <c r="E69" t="n">
-        <v>14.9405100498817</v>
+        <v>13.3469778746724</v>
       </c>
       <c r="F69" t="n">
-        <v>14.5879519159708</v>
+        <v>14.7237530595047</v>
       </c>
       <c r="G69" t="n">
-        <v>16.3556558866188</v>
+        <v>14.8388894239934</v>
       </c>
       <c r="H69" t="n">
-        <v>16.9247141034761</v>
+        <v>16.0937243042573</v>
       </c>
       <c r="I69" t="n">
-        <v>7.03304439760697</v>
+        <v>18.3098458436201</v>
       </c>
       <c r="J69" t="n">
-        <v>7.79809313346938</v>
+        <v>20.2794106632309</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>10.931220993845</v>
+        <v>-4.81827378102851</v>
       </c>
       <c r="B70" t="n">
-        <v>-5.12808820620451</v>
+        <v>-5.37090220339936</v>
       </c>
       <c r="C70" t="n">
-        <v>-5.33779378736148</v>
+        <v>-5.82262538848505</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.5440012202291</v>
+        <v>-6.40366096191031</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.62377076924043</v>
+        <v>-6.89977188935865</v>
       </c>
       <c r="F70" t="n">
-        <v>-8.05959838452623</v>
+        <v>-7.87700385812243</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.79308732194318</v>
+        <v>-8.07340725990126</v>
       </c>
       <c r="H70" t="n">
-        <v>-8.67620734239801</v>
+        <v>-8.74356404527227</v>
       </c>
       <c r="I70" t="n">
-        <v>-9.15913371622191</v>
+        <v>-8.7581250190014</v>
       </c>
       <c r="J70" t="n">
-        <v>-9.46480363194929</v>
+        <v>-9.73351923762368</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>10.5637831934445</v>
+        <v>9.85602454229189</v>
       </c>
       <c r="B71" t="n">
-        <v>10.2013497566677</v>
+        <v>10.3415558885008</v>
       </c>
       <c r="C71" t="n">
-        <v>12.8194068679545</v>
+        <v>11.2307557948744</v>
       </c>
       <c r="D71" t="n">
-        <v>12.8137003404507</v>
+        <v>13.6920766880422</v>
       </c>
       <c r="E71" t="n">
-        <v>13.4110125420237</v>
+        <v>14.5509932062853</v>
       </c>
       <c r="F71" t="n">
-        <v>15.1383566715344</v>
+        <v>14.6098006444396</v>
       </c>
       <c r="G71" t="n">
-        <v>15.2291677667061</v>
+        <v>16.0751000703974</v>
       </c>
       <c r="H71" t="n">
-        <v>16.8090879346296</v>
+        <v>16.7694777331771</v>
       </c>
       <c r="I71" t="n">
-        <v>16.8699407793617</v>
+        <v>17.9235499617421</v>
       </c>
       <c r="J71" t="n">
-        <v>18.6857294473837</v>
+        <v>17.8812294911028</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.71064207080986</v>
+        <v>-4.76570440736975</v>
       </c>
       <c r="B72" t="n">
-        <v>2.58161997303173</v>
+        <v>-5.75462811178184</v>
       </c>
       <c r="C72" t="n">
-        <v>3.01139990623913</v>
+        <v>-6.38172938830466</v>
       </c>
       <c r="D72" t="n">
-        <v>4.37886063689798</v>
+        <v>-5.97823131484553</v>
       </c>
       <c r="E72" t="n">
-        <v>4.33153008238489</v>
+        <v>-7.39274609201756</v>
       </c>
       <c r="F72" t="n">
-        <v>3.87984079101586</v>
+        <v>-7.67736175915327</v>
       </c>
       <c r="G72" t="n">
-        <v>5.66505647153426</v>
+        <v>-7.90916846978698</v>
       </c>
       <c r="H72" t="n">
-        <v>5.31725784270095</v>
+        <v>-8.83586807318522</v>
       </c>
       <c r="I72" t="n">
-        <v>6.1703773873765</v>
+        <v>-8.99512901036256</v>
       </c>
       <c r="J72" t="n">
-        <v>6.85753291285756</v>
+        <v>-9.46798957278173</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>9.95173451481294</v>
+        <v>-5.20461827864895</v>
       </c>
       <c r="B73" t="n">
-        <v>10.4107568532302</v>
+        <v>-5.26929282275913</v>
       </c>
       <c r="C73" t="n">
-        <v>12.9346611258117</v>
+        <v>-6.37222304073591</v>
       </c>
       <c r="D73" t="n">
-        <v>-6.44515771206971</v>
+        <v>-6.50685208620656</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.3675336923266</v>
+        <v>-7.41943734056493</v>
       </c>
       <c r="F73" t="n">
-        <v>-7.54063825867043</v>
+        <v>-7.12018548589853</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.32034320471882</v>
+        <v>-7.95821144066579</v>
       </c>
       <c r="H73" t="n">
-        <v>-8.7189544347319</v>
+        <v>-8.57270890383184</v>
       </c>
       <c r="I73" t="n">
-        <v>-8.9765452426503</v>
+        <v>-9.20414732100528</v>
       </c>
       <c r="J73" t="n">
-        <v>-9.54943503052724</v>
+        <v>-9.24035384573651</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-5.05203280053557</v>
+        <v>2.9002728694926</v>
       </c>
       <c r="B74" t="n">
-        <v>-5.62357265388739</v>
+        <v>2.59417510171121</v>
       </c>
       <c r="C74" t="n">
-        <v>-6.06186851735553</v>
+        <v>2.74702862700627</v>
       </c>
       <c r="D74" t="n">
-        <v>-6.93395812584585</v>
+        <v>5.24256476804226</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.66159964501303</v>
+        <v>3.80471252558102</v>
       </c>
       <c r="F74" t="n">
-        <v>-7.36246072520973</v>
+        <v>5.0572819415672</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.69305994545079</v>
+        <v>5.03144349721414</v>
       </c>
       <c r="H74" t="n">
-        <v>-8.00630394008752</v>
+        <v>16.3488322216917</v>
       </c>
       <c r="I74" t="n">
-        <v>-9.24531056471985</v>
+        <v>17.9301173993499</v>
       </c>
       <c r="J74" t="n">
-        <v>-9.44534424433181</v>
+        <v>18.348818948317</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-5.08278871117052</v>
+        <v>9.20683236140512</v>
       </c>
       <c r="B75" t="n">
-        <v>-5.64638085203461</v>
+        <v>11.943067145398</v>
       </c>
       <c r="C75" t="n">
-        <v>-6.3796962458113</v>
+        <v>12.5273717462876</v>
       </c>
       <c r="D75" t="n">
-        <v>-6.07867398144364</v>
+        <v>13.3155809408444</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.85425824002415</v>
+        <v>13.9348166349536</v>
       </c>
       <c r="F75" t="n">
-        <v>-6.96845892479983</v>
+        <v>16.3878869110611</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.58192802079507</v>
+        <v>15.4490019571534</v>
       </c>
       <c r="H75" t="n">
-        <v>-8.90108475465392</v>
+        <v>16.7804715244607</v>
       </c>
       <c r="I75" t="n">
-        <v>-8.88796980829092</v>
+        <v>18.6995995684979</v>
       </c>
       <c r="J75" t="n">
-        <v>-9.50584573513692</v>
+        <v>18.8065259574753</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>9.71843889914869</v>
+        <v>9.82904365330771</v>
       </c>
       <c r="B76" t="n">
-        <v>11.6014145838108</v>
+        <v>10.8061584291327</v>
       </c>
       <c r="C76" t="n">
-        <v>11.3584807044845</v>
+        <v>10.741496936717</v>
       </c>
       <c r="D76" t="n">
-        <v>13.658674935135</v>
+        <v>14.0762217381991</v>
       </c>
       <c r="E76" t="n">
-        <v>14.1729174018621</v>
+        <v>15.5620943157652</v>
       </c>
       <c r="F76" t="n">
-        <v>5.39638130764788</v>
+        <v>15.1619778696733</v>
       </c>
       <c r="G76" t="n">
-        <v>5.63975593620887</v>
+        <v>16.2177364492094</v>
       </c>
       <c r="H76" t="n">
-        <v>6.1988167195426</v>
+        <v>16.7821391544663</v>
       </c>
       <c r="I76" t="n">
-        <v>5.46404004824198</v>
+        <v>17.4961750944616</v>
       </c>
       <c r="J76" t="n">
-        <v>6.87073284340526</v>
+        <v>19.9581257978829</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>10.2686178542099</v>
+        <v>-4.94669215648736</v>
       </c>
       <c r="B77" t="n">
-        <v>12.2370143456187</v>
+        <v>-5.44635302540271</v>
       </c>
       <c r="C77" t="n">
-        <v>12.3296277445333</v>
+        <v>-6.22806263131621</v>
       </c>
       <c r="D77" t="n">
-        <v>12.6782229361372</v>
+        <v>-6.82885706408573</v>
       </c>
       <c r="E77" t="n">
-        <v>14.895715491014</v>
+        <v>-6.80010076059599</v>
       </c>
       <c r="F77" t="n">
-        <v>5.38850962690323</v>
+        <v>-7.59019691453041</v>
       </c>
       <c r="G77" t="n">
-        <v>4.29596242982831</v>
+        <v>-7.925631962001</v>
       </c>
       <c r="H77" t="n">
-        <v>6.25361052263884</v>
+        <v>-8.39594919028097</v>
       </c>
       <c r="I77" t="n">
-        <v>6.75091424831011</v>
+        <v>-9.28478053837885</v>
       </c>
       <c r="J77" t="n">
-        <v>6.69469416975156</v>
+        <v>-9.27250743012974</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.8979509927369</v>
+        <v>-5.20804892757261</v>
       </c>
       <c r="B78" t="n">
-        <v>2.77084131946983</v>
+        <v>-5.22420174551817</v>
       </c>
       <c r="C78" t="n">
-        <v>3.53694816427087</v>
+        <v>-5.86705700180625</v>
       </c>
       <c r="D78" t="n">
-        <v>4.71828681313892</v>
+        <v>-6.35823186169094</v>
       </c>
       <c r="E78" t="n">
-        <v>4.32415596244545</v>
+        <v>-6.71492853673622</v>
       </c>
       <c r="F78" t="n">
-        <v>5.14948940853612</v>
+        <v>-7.56150061591599</v>
       </c>
       <c r="G78" t="n">
-        <v>5.09484088387672</v>
+        <v>-8.20099660400669</v>
       </c>
       <c r="H78" t="n">
-        <v>7.13554949150977</v>
+        <v>-8.60016375588985</v>
       </c>
       <c r="I78" t="n">
-        <v>6.97043816658266</v>
+        <v>-9.03889733938805</v>
       </c>
       <c r="J78" t="n">
-        <v>7.1461934188219</v>
+        <v>20.6673296730122</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-5.10026086611214</v>
+        <v>3.16740075355976</v>
       </c>
       <c r="B79" t="n">
-        <v>-5.65913647736409</v>
+        <v>3.04618989503156</v>
       </c>
       <c r="C79" t="n">
-        <v>-6.50232729810814</v>
+        <v>3.2747416890699</v>
       </c>
       <c r="D79" t="n">
-        <v>-6.41376674590798</v>
+        <v>3.65573927930237</v>
       </c>
       <c r="E79" t="n">
-        <v>-6.95873957515669</v>
+        <v>3.50490579053208</v>
       </c>
       <c r="F79" t="n">
-        <v>-7.3515147632773</v>
+        <v>5.01223643359409</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.79210016820311</v>
+        <v>16.6531538527048</v>
       </c>
       <c r="H79" t="n">
-        <v>-8.41973396513412</v>
+        <v>17.5352342181483</v>
       </c>
       <c r="I79" t="n">
-        <v>-8.74183701114536</v>
+        <v>17.3373157151034</v>
       </c>
       <c r="J79" t="n">
-        <v>-9.36975059819962</v>
+        <v>19.1819199017929</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.67597896571654</v>
+        <v>-4.72316117152273</v>
       </c>
       <c r="B80" t="n">
-        <v>3.22738437082151</v>
+        <v>-5.33601653654954</v>
       </c>
       <c r="C80" t="n">
-        <v>3.10745905103832</v>
+        <v>-6.61552091353165</v>
       </c>
       <c r="D80" t="n">
-        <v>13.4496448345093</v>
+        <v>-6.43750284701528</v>
       </c>
       <c r="E80" t="n">
-        <v>13.6507377822262</v>
+        <v>-7.10847356091387</v>
       </c>
       <c r="F80" t="n">
-        <v>14.9487095872298</v>
+        <v>14.6498551201299</v>
       </c>
       <c r="G80" t="n">
-        <v>16.2631166833375</v>
+        <v>14.8546362088981</v>
       </c>
       <c r="H80" t="n">
-        <v>16.8280360301041</v>
+        <v>17.8399654404115</v>
       </c>
       <c r="I80" t="n">
-        <v>18.2131261393333</v>
+        <v>19.1207873629904</v>
       </c>
       <c r="J80" t="n">
-        <v>20.4616311300909</v>
+        <v>18.0577997473556</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-5.0695725768892</v>
+        <v>-4.60961817495975</v>
       </c>
       <c r="B81" t="n">
-        <v>-5.37168342720265</v>
+        <v>-5.31176439914108</v>
       </c>
       <c r="C81" t="n">
-        <v>-6.28344975547887</v>
+        <v>-5.77157634796165</v>
       </c>
       <c r="D81" t="n">
-        <v>-6.71216997261117</v>
+        <v>-6.62120824747937</v>
       </c>
       <c r="E81" t="n">
-        <v>-6.7674268485094</v>
+        <v>-7.33588828242039</v>
       </c>
       <c r="F81" t="n">
-        <v>-7.62843491107485</v>
+        <v>-7.52637965037628</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.19699816233387</v>
+        <v>-7.893830810498</v>
       </c>
       <c r="H81" t="n">
-        <v>-8.72267749609729</v>
+        <v>-8.71463079520883</v>
       </c>
       <c r="I81" t="n">
-        <v>-8.81447094400668</v>
+        <v>-9.13683222950105</v>
       </c>
       <c r="J81" t="n">
-        <v>18.9335080425076</v>
+        <v>-9.83939956441648</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>9.91993310766266</v>
+        <v>3.24600328258753</v>
       </c>
       <c r="B82" t="n">
-        <v>12.3627533246493</v>
+        <v>3.43926784198689</v>
       </c>
       <c r="C82" t="n">
-        <v>11.88792580149</v>
+        <v>4.39050436839111</v>
       </c>
       <c r="D82" t="n">
-        <v>-6.12267375424702</v>
+        <v>3.99462833470797</v>
       </c>
       <c r="E82" t="n">
-        <v>-7.03538866568968</v>
+        <v>4.16937819483076</v>
       </c>
       <c r="F82" t="n">
-        <v>-7.66664123826659</v>
+        <v>5.86118524703272</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.56743741758119</v>
+        <v>5.17950115017282</v>
       </c>
       <c r="H82" t="n">
-        <v>5.99596648697925</v>
+        <v>6.50402621378193</v>
       </c>
       <c r="I82" t="n">
-        <v>6.77743344271968</v>
+        <v>6.82966811144412</v>
       </c>
       <c r="J82" t="n">
-        <v>8.26929862488959</v>
+        <v>6.48084216843173</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.6636944575559</v>
+        <v>-4.91904398961795</v>
       </c>
       <c r="B83" t="n">
-        <v>2.25232220348723</v>
+        <v>-5.21401870161402</v>
       </c>
       <c r="C83" t="n">
-        <v>3.67765975012212</v>
+        <v>-5.67018639554339</v>
       </c>
       <c r="D83" t="n">
-        <v>4.60028797955222</v>
+        <v>-6.64513598576497</v>
       </c>
       <c r="E83" t="n">
-        <v>4.48605655962441</v>
+        <v>5.88668796008625</v>
       </c>
       <c r="F83" t="n">
-        <v>4.86397484426712</v>
+        <v>6.11052494485039</v>
       </c>
       <c r="G83" t="n">
-        <v>5.4209279610325</v>
+        <v>5.96474870940492</v>
       </c>
       <c r="H83" t="n">
-        <v>5.37326180089085</v>
+        <v>6.37009206289943</v>
       </c>
       <c r="I83" t="n">
-        <v>6.60168742246299</v>
+        <v>5.81955658138569</v>
       </c>
       <c r="J83" t="n">
-        <v>6.92710036378977</v>
+        <v>7.18461430796142</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>9.90327063594578</v>
+        <v>2.47383067402835</v>
       </c>
       <c r="B84" t="n">
-        <v>10.8926539361951</v>
+        <v>2.36912142903313</v>
       </c>
       <c r="C84" t="n">
-        <v>13.317546602942</v>
+        <v>3.41548177313585</v>
       </c>
       <c r="D84" t="n">
-        <v>4.19223714257506</v>
+        <v>-6.299538712029</v>
       </c>
       <c r="E84" t="n">
-        <v>5.05071113664382</v>
+        <v>-7.06487553259559</v>
       </c>
       <c r="F84" t="n">
-        <v>5.67046694026569</v>
+        <v>-8.04879352508055</v>
       </c>
       <c r="G84" t="n">
-        <v>5.69952630126002</v>
+        <v>-7.88165915245232</v>
       </c>
       <c r="H84" t="n">
-        <v>6.12260639916807</v>
+        <v>-8.1722325786363</v>
       </c>
       <c r="I84" t="n">
-        <v>6.50091722530013</v>
+        <v>-9.1944800188822</v>
       </c>
       <c r="J84" t="n">
-        <v>6.99713119197942</v>
+        <v>-9.24893118108497</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>9.49092830797726</v>
+        <v>-4.89382489796041</v>
       </c>
       <c r="B85" t="n">
-        <v>3.23587363839753</v>
+        <v>-5.64886167609459</v>
       </c>
       <c r="C85" t="n">
-        <v>3.31120084518813</v>
+        <v>-6.3262428414511</v>
       </c>
       <c r="D85" t="n">
-        <v>3.8425195206417</v>
+        <v>-6.66055213684185</v>
       </c>
       <c r="E85" t="n">
-        <v>5.36678265451988</v>
+        <v>-7.11916214828543</v>
       </c>
       <c r="F85" t="n">
-        <v>5.0683103671899</v>
+        <v>5.01668717488716</v>
       </c>
       <c r="G85" t="n">
-        <v>5.85555562070318</v>
+        <v>5.21939797559189</v>
       </c>
       <c r="H85" t="n">
-        <v>6.1328271452989</v>
+        <v>6.29206301931897</v>
       </c>
       <c r="I85" t="n">
-        <v>6.9776037862802</v>
+        <v>6.00481255860021</v>
       </c>
       <c r="J85" t="n">
-        <v>6.85580780959161</v>
+        <v>7.60129247047785</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>10.1516591031659</v>
+        <v>11.2345972915792</v>
       </c>
       <c r="B86" t="n">
-        <v>11.0920691202257</v>
+        <v>11.4730878620088</v>
       </c>
       <c r="C86" t="n">
-        <v>13.9544169251228</v>
+        <v>11.1967433263316</v>
       </c>
       <c r="D86" t="n">
-        <v>13.5897159057185</v>
+        <v>-6.37422555003918</v>
       </c>
       <c r="E86" t="n">
-        <v>13.9268450039801</v>
+        <v>-7.1798373315696</v>
       </c>
       <c r="F86" t="n">
-        <v>5.81123089731602</v>
+        <v>-7.25102597896583</v>
       </c>
       <c r="G86" t="n">
-        <v>4.90524980169036</v>
+        <v>-8.32404476478884</v>
       </c>
       <c r="H86" t="n">
-        <v>6.23656652703075</v>
+        <v>-8.37962439366641</v>
       </c>
       <c r="I86" t="n">
-        <v>6.72852937258504</v>
+        <v>-9.11051333919449</v>
       </c>
       <c r="J86" t="n">
-        <v>7.59520013819071</v>
+        <v>-10.0140478675826</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>10.4758954202603</v>
+        <v>-5.32643804399323</v>
       </c>
       <c r="B87" t="n">
-        <v>10.1997657929554</v>
+        <v>-5.19509900965853</v>
       </c>
       <c r="C87" t="n">
-        <v>12.2622312060011</v>
+        <v>-6.40792708442436</v>
       </c>
       <c r="D87" t="n">
-        <v>13.0224738858508</v>
+        <v>-5.96926770573429</v>
       </c>
       <c r="E87" t="n">
-        <v>14.0401354377314</v>
+        <v>-6.96021710976746</v>
       </c>
       <c r="F87" t="n">
-        <v>4.79712280027895</v>
+        <v>-7.37969171767701</v>
       </c>
       <c r="G87" t="n">
-        <v>5.02746449668461</v>
+        <v>-8.29982892009298</v>
       </c>
       <c r="H87" t="n">
-        <v>5.43459053039056</v>
+        <v>-8.50821142187143</v>
       </c>
       <c r="I87" t="n">
-        <v>6.5239952464136</v>
+        <v>-8.6568157866135</v>
       </c>
       <c r="J87" t="n">
-        <v>6.23380203873091</v>
+        <v>-9.32499581925122</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-5.23649495830167</v>
+        <v>3.20548015904462</v>
       </c>
       <c r="B88" t="n">
-        <v>-5.14626467013593</v>
+        <v>3.57617722549327</v>
       </c>
       <c r="C88" t="n">
-        <v>-6.0711563165394</v>
+        <v>3.66196422643369</v>
       </c>
       <c r="D88" t="n">
-        <v>-6.15850396516995</v>
+        <v>3.79737871168682</v>
       </c>
       <c r="E88" t="n">
-        <v>-6.79776666731135</v>
+        <v>3.92061955673767</v>
       </c>
       <c r="F88" t="n">
-        <v>-7.82966598768807</v>
+        <v>15.565663194285</v>
       </c>
       <c r="G88" t="n">
-        <v>-8.16728441014007</v>
+        <v>16.9406376691353</v>
       </c>
       <c r="H88" t="n">
-        <v>-8.88837051313268</v>
+        <v>16.8974264689002</v>
       </c>
       <c r="I88" t="n">
-        <v>-9.09726852055306</v>
+        <v>18.0863865567808</v>
       </c>
       <c r="J88" t="n">
-        <v>-9.25974882053979</v>
+        <v>17.7345438215885</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>10.6605691638342</v>
+        <v>10.3730225557074</v>
       </c>
       <c r="B89" t="n">
-        <v>10.863971945126</v>
+        <v>12.4955426033923</v>
       </c>
       <c r="C89" t="n">
-        <v>-6.16827617208925</v>
+        <v>13.5063705604662</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.58417985055497</v>
+        <v>12.1016947953436</v>
       </c>
       <c r="E89" t="n">
-        <v>-6.89226204387495</v>
+        <v>13.3870608466834</v>
       </c>
       <c r="F89" t="n">
-        <v>15.8669554326459</v>
+        <v>15.6827036983248</v>
       </c>
       <c r="G89" t="n">
-        <v>16.2168771633247</v>
+        <v>15.6435791842654</v>
       </c>
       <c r="H89" t="n">
-        <v>17.3945178731539</v>
+        <v>16.5514467406844</v>
       </c>
       <c r="I89" t="n">
-        <v>17.5008985533614</v>
+        <v>19.3631538071282</v>
       </c>
       <c r="J89" t="n">
-        <v>19.9219201031199</v>
+        <v>18.772584439616</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>3.2593883868904</v>
+        <v>2.57757437247256</v>
       </c>
       <c r="B90" t="n">
-        <v>3.45320555238388</v>
+        <v>2.99647037262789</v>
       </c>
       <c r="C90" t="n">
-        <v>4.79039526205858</v>
+        <v>3.6988701913112</v>
       </c>
       <c r="D90" t="n">
-        <v>4.28523118674642</v>
+        <v>4.30182557497468</v>
       </c>
       <c r="E90" t="n">
-        <v>4.88155967544234</v>
+        <v>3.70696469306919</v>
       </c>
       <c r="F90" t="n">
-        <v>5.40208065985855</v>
+        <v>5.19043013087409</v>
       </c>
       <c r="G90" t="n">
-        <v>6.08699178929243</v>
+        <v>6.49565057129054</v>
       </c>
       <c r="H90" t="n">
-        <v>6.37868098047465</v>
+        <v>5.92862724892318</v>
       </c>
       <c r="I90" t="n">
-        <v>6.99550275290782</v>
+        <v>5.86390265493827</v>
       </c>
       <c r="J90" t="n">
-        <v>6.07668524525925</v>
+        <v>7.00900104482307</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>10.1518294616448</v>
+        <v>-4.87328224057256</v>
       </c>
       <c r="B91" t="n">
-        <v>11.6723896275464</v>
+        <v>11.0060077566931</v>
       </c>
       <c r="C91" t="n">
-        <v>12.1060927831064</v>
+        <v>11.8389563052208</v>
       </c>
       <c r="D91" t="n">
-        <v>12.6462593830163</v>
+        <v>14.6628972138598</v>
       </c>
       <c r="E91" t="n">
-        <v>3.81914537753223</v>
+        <v>13.9009830248731</v>
       </c>
       <c r="F91" t="n">
-        <v>4.34250652471844</v>
+        <v>15.8390608393019</v>
       </c>
       <c r="G91" t="n">
-        <v>5.46152020649663</v>
+        <v>15.3985268144479</v>
       </c>
       <c r="H91" t="n">
-        <v>5.70221610395088</v>
+        <v>18.2466735706388</v>
       </c>
       <c r="I91" t="n">
-        <v>6.56417948473923</v>
+        <v>16.3580139362787</v>
       </c>
       <c r="J91" t="n">
-        <v>18.7421160015639</v>
+        <v>19.2304646145443</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1.29146255927868</v>
+        <v>2.57289934316596</v>
       </c>
       <c r="B92" t="n">
-        <v>3.20677057004347</v>
+        <v>2.89684598772871</v>
       </c>
       <c r="C92" t="n">
-        <v>3.30028188629445</v>
+        <v>3.32033134142193</v>
       </c>
       <c r="D92" t="n">
-        <v>4.51700417023835</v>
+        <v>3.71266203461321</v>
       </c>
       <c r="E92" t="n">
-        <v>4.91452019150114</v>
+        <v>4.01568431648009</v>
       </c>
       <c r="F92" t="n">
-        <v>5.8241717684148</v>
+        <v>6.2228045853116</v>
       </c>
       <c r="G92" t="n">
-        <v>4.48945829953194</v>
+        <v>5.41813889661886</v>
       </c>
       <c r="H92" t="n">
-        <v>5.46194578333204</v>
+        <v>5.39228320251572</v>
       </c>
       <c r="I92" t="n">
-        <v>5.75214494966668</v>
+        <v>6.80926860990957</v>
       </c>
       <c r="J92" t="n">
-        <v>6.55233009685958</v>
+        <v>6.37326591436068</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>9.71308563154849</v>
+        <v>10.94900614106</v>
       </c>
       <c r="B93" t="n">
-        <v>10.8799475960283</v>
+        <v>11.6305442863599</v>
       </c>
       <c r="C93" t="n">
-        <v>11.7413382702937</v>
+        <v>13.4253621408513</v>
       </c>
       <c r="D93" t="n">
-        <v>13.3478666440523</v>
+        <v>12.7906923296421</v>
       </c>
       <c r="E93" t="n">
-        <v>14.9069517361602</v>
+        <v>-6.72439937484348</v>
       </c>
       <c r="F93" t="n">
-        <v>16.7586721960643</v>
+        <v>-7.79740310598134</v>
       </c>
       <c r="G93" t="n">
-        <v>15.8009686700109</v>
+        <v>-8.077336744827</v>
       </c>
       <c r="H93" t="n">
-        <v>17.2807792981397</v>
+        <v>-8.4725368115666</v>
       </c>
       <c r="I93" t="n">
-        <v>17.500502028623</v>
+        <v>-8.8164769241205</v>
       </c>
       <c r="J93" t="n">
-        <v>20.733635299158</v>
+        <v>-9.3796842984946</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>8.96897242495073</v>
+        <v>10.3735036826828</v>
       </c>
       <c r="B94" t="n">
-        <v>11.8041947168574</v>
+        <v>13.1423120840717</v>
       </c>
       <c r="C94" t="n">
-        <v>11.6403046564048</v>
+        <v>12.0090018740792</v>
       </c>
       <c r="D94" t="n">
-        <v>12.7663245569685</v>
+        <v>12.8981468603549</v>
       </c>
       <c r="E94" t="n">
-        <v>-7.09531272210135</v>
+        <v>4.98165509001683</v>
       </c>
       <c r="F94" t="n">
-        <v>-7.48044469096287</v>
+        <v>4.84647531695613</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.69481052102741</v>
+        <v>6.56377016426888</v>
       </c>
       <c r="H94" t="n">
-        <v>-8.36667038773708</v>
+        <v>6.85097650486146</v>
       </c>
       <c r="I94" t="n">
-        <v>-8.76875990850512</v>
+        <v>6.53819881788388</v>
       </c>
       <c r="J94" t="n">
-        <v>-10.2976937120055</v>
+        <v>6.92096037012014</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-5.66774671702168</v>
+        <v>2.83641023444094</v>
       </c>
       <c r="B95" t="n">
-        <v>-5.59932397835852</v>
+        <v>3.17679516600272</v>
       </c>
       <c r="C95" t="n">
-        <v>-5.98820758039465</v>
+        <v>3.73212146373465</v>
       </c>
       <c r="D95" t="n">
-        <v>-6.32772539626542</v>
+        <v>4.37143355678068</v>
       </c>
       <c r="E95" t="n">
-        <v>-7.20850036338393</v>
+        <v>5.16189955691328</v>
       </c>
       <c r="F95" t="n">
-        <v>14.8554393684294</v>
+        <v>5.41571253866636</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.58708164907213</v>
+        <v>4.66621837298563</v>
       </c>
       <c r="H95" t="n">
-        <v>-8.53788510267768</v>
+        <v>5.41997114797722</v>
       </c>
       <c r="I95" t="n">
-        <v>-9.26174947908491</v>
+        <v>6.99658456893988</v>
       </c>
       <c r="J95" t="n">
-        <v>-8.90937817131652</v>
+        <v>7.47203166341998</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>3.43015217443762</v>
+        <v>10.4657264123971</v>
       </c>
       <c r="B96" t="n">
-        <v>2.61512301323178</v>
+        <v>11.3653212292501</v>
       </c>
       <c r="C96" t="n">
-        <v>3.90848637717611</v>
+        <v>11.2852173850039</v>
       </c>
       <c r="D96" t="n">
-        <v>4.18451651297709</v>
+        <v>13.1657089843814</v>
       </c>
       <c r="E96" t="n">
-        <v>5.00376405987491</v>
+        <v>13.3038105021515</v>
       </c>
       <c r="F96" t="n">
-        <v>5.00048156999614</v>
+        <v>15.406577527995</v>
       </c>
       <c r="G96" t="n">
-        <v>6.17211608851653</v>
+        <v>15.7420624383482</v>
       </c>
       <c r="H96" t="n">
-        <v>6.03533309373836</v>
+        <v>-8.94850971862517</v>
       </c>
       <c r="I96" t="n">
-        <v>6.43712870429452</v>
+        <v>-9.04429577606039</v>
       </c>
       <c r="J96" t="n">
-        <v>6.64455507901246</v>
+        <v>-9.37904885630167</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-4.96703576057238</v>
+        <v>-5.047078965197</v>
       </c>
       <c r="B97" t="n">
-        <v>-5.38352111609634</v>
+        <v>-5.65324189420082</v>
       </c>
       <c r="C97" t="n">
-        <v>-6.2425577558839</v>
+        <v>-6.04864918473</v>
       </c>
       <c r="D97" t="n">
-        <v>-6.5020067965628</v>
+        <v>-6.62830987575866</v>
       </c>
       <c r="E97" t="n">
-        <v>-7.10822976214602</v>
+        <v>-7.05104384640026</v>
       </c>
       <c r="F97" t="n">
-        <v>-7.46295955711859</v>
+        <v>-7.44677129250154</v>
       </c>
       <c r="G97" t="n">
-        <v>-8.2858225912682</v>
+        <v>-8.02913098780229</v>
       </c>
       <c r="H97" t="n">
-        <v>-8.15304015253509</v>
+        <v>-9.04751316404349</v>
       </c>
       <c r="I97" t="n">
-        <v>-9.31986409090647</v>
+        <v>18.7901803428613</v>
       </c>
       <c r="J97" t="n">
-        <v>-9.38087773889271</v>
+        <v>19.7222881351813</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>9.77860537231412</v>
+        <v>10.6397404100115</v>
       </c>
       <c r="B98" t="n">
-        <v>11.630624078511</v>
+        <v>10.303865895594</v>
       </c>
       <c r="C98" t="n">
-        <v>4.16923364388042</v>
+        <v>11.7997638631026</v>
       </c>
       <c r="D98" t="n">
-        <v>4.73991273484678</v>
+        <v>12.8626438130653</v>
       </c>
       <c r="E98" t="n">
-        <v>4.25005293574031</v>
+        <v>13.0719077897189</v>
       </c>
       <c r="F98" t="n">
-        <v>5.60173696791194</v>
+        <v>16.0058799649253</v>
       </c>
       <c r="G98" t="n">
-        <v>5.26201182967138</v>
+        <v>16.0240025539925</v>
       </c>
       <c r="H98" t="n">
-        <v>6.11643041084472</v>
+        <v>-8.44202774837881</v>
       </c>
       <c r="I98" t="n">
-        <v>7.64265909755408</v>
+        <v>-8.8519552124062</v>
       </c>
       <c r="J98" t="n">
-        <v>6.20822893548118</v>
+        <v>-9.39285971845483</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>10.8530349402228</v>
+        <v>-4.47509890861777</v>
       </c>
       <c r="B99" t="n">
-        <v>10.4702234228351</v>
+        <v>-5.78341044223088</v>
       </c>
       <c r="C99" t="n">
-        <v>11.7053531067097</v>
+        <v>-5.91291246141783</v>
       </c>
       <c r="D99" t="n">
-        <v>12.7102625697099</v>
+        <v>-6.89416154410463</v>
       </c>
       <c r="E99" t="n">
-        <v>13.7322871645845</v>
+        <v>-7.17215927475539</v>
       </c>
       <c r="F99" t="n">
-        <v>4.76784785417456</v>
+        <v>-7.55505440780544</v>
       </c>
       <c r="G99" t="n">
-        <v>4.78874717814874</v>
+        <v>-8.28865654172001</v>
       </c>
       <c r="H99" t="n">
-        <v>6.65018515419772</v>
+        <v>-8.12309939504558</v>
       </c>
       <c r="I99" t="n">
-        <v>6.55946778067398</v>
+        <v>-9.13276091668738</v>
       </c>
       <c r="J99" t="n">
-        <v>6.27686148457016</v>
+        <v>-9.49977850978707</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>10.6815922334533</v>
+        <v>-5.13068103052712</v>
       </c>
       <c r="B100" t="n">
-        <v>10.2649137379979</v>
+        <v>-5.17982701814491</v>
       </c>
       <c r="C100" t="n">
-        <v>12.503363587387</v>
+        <v>-6.31394300613235</v>
       </c>
       <c r="D100" t="n">
-        <v>12.4888942206831</v>
+        <v>4.52273440050278</v>
       </c>
       <c r="E100" t="n">
-        <v>13.8061753845946</v>
+        <v>4.72984942465943</v>
       </c>
       <c r="F100" t="n">
-        <v>15.2713015359247</v>
+        <v>5.41720375154378</v>
       </c>
       <c r="G100" t="n">
-        <v>16.3156330314692</v>
+        <v>6.13845438282078</v>
       </c>
       <c r="H100" t="n">
-        <v>16.3886885008161</v>
+        <v>6.02631024349534</v>
       </c>
       <c r="I100" t="n">
-        <v>16.8768277030437</v>
+        <v>6.09123720830386</v>
       </c>
       <c r="J100" t="n">
-        <v>20.1636329777558</v>
+        <v>7.21414640712745</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>11.5789360896346</v>
+        <v>10.9166509889702</v>
       </c>
       <c r="B101" t="n">
-        <v>-5.33794664701829</v>
+        <v>11.1000019401788</v>
       </c>
       <c r="C101" t="n">
-        <v>-5.64696822754444</v>
+        <v>12.2189560447761</v>
       </c>
       <c r="D101" t="n">
-        <v>-6.28493346806217</v>
+        <v>12.7066114562541</v>
       </c>
       <c r="E101" t="n">
-        <v>-6.90175075882996</v>
+        <v>13.816608482837</v>
       </c>
       <c r="F101" t="n">
-        <v>-7.26971834202597</v>
+        <v>14.1861182308497</v>
       </c>
       <c r="G101" t="n">
-        <v>-8.05987412873252</v>
+        <v>15.1837447943438</v>
       </c>
       <c r="H101" t="n">
-        <v>-8.99030801368008</v>
+        <v>17.8545750234815</v>
       </c>
       <c r="I101" t="n">
-        <v>-9.22824553030569</v>
+        <v>17.9870175577406</v>
       </c>
       <c r="J101" t="n">
-        <v>-10.0052471203839</v>
+        <v>19.1813445555111</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>9.31052749113266</v>
+        <v>8.93450847364627</v>
       </c>
       <c r="B102" t="n">
-        <v>3.30661575089525</v>
+        <v>11.5225378965311</v>
       </c>
       <c r="C102" t="n">
-        <v>3.17721859026762</v>
+        <v>11.5270933609681</v>
       </c>
       <c r="D102" t="n">
-        <v>4.53694032923823</v>
+        <v>13.1768504594265</v>
       </c>
       <c r="E102" t="n">
-        <v>4.18010620832148</v>
+        <v>14.2843285495844</v>
       </c>
       <c r="F102" t="n">
-        <v>4.96303317607517</v>
+        <v>4.07475826688906</v>
       </c>
       <c r="G102" t="n">
-        <v>5.66232934757972</v>
+        <v>5.09896490739558</v>
       </c>
       <c r="H102" t="n">
-        <v>6.20690424855192</v>
+        <v>6.99669553511342</v>
       </c>
       <c r="I102" t="n">
-        <v>6.05185167334431</v>
+        <v>6.56622371637307</v>
       </c>
       <c r="J102" t="n">
-        <v>7.41361338970807</v>
+        <v>7.75164042708129</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2.65217872697613</v>
+        <v>9.33050768098947</v>
       </c>
       <c r="B103" t="n">
-        <v>4.02732896287857</v>
+        <v>-5.58004740432805</v>
       </c>
       <c r="C103" t="n">
-        <v>2.38771772330421</v>
+        <v>-5.92688055380785</v>
       </c>
       <c r="D103" t="n">
-        <v>3.47551366101253</v>
+        <v>-6.9326250004369</v>
       </c>
       <c r="E103" t="n">
-        <v>5.18281578019203</v>
+        <v>-6.90729603897941</v>
       </c>
       <c r="F103" t="n">
-        <v>3.93672286475293</v>
+        <v>-7.53644866188247</v>
       </c>
       <c r="G103" t="n">
-        <v>6.55406982085092</v>
+        <v>-7.9888946957531</v>
       </c>
       <c r="H103" t="n">
-        <v>5.39971044551621</v>
+        <v>-8.27168681837172</v>
       </c>
       <c r="I103" t="n">
-        <v>19.0242539579761</v>
+        <v>-9.04024936499025</v>
       </c>
       <c r="J103" t="n">
-        <v>18.9745106086991</v>
+        <v>-10.0220660715338</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>10.3547768482671</v>
+        <v>9.27985842534032</v>
       </c>
       <c r="B104" t="n">
-        <v>3.43925377023227</v>
+        <v>10.7835561682016</v>
       </c>
       <c r="C104" t="n">
-        <v>3.75661043018889</v>
+        <v>-5.80861040820789</v>
       </c>
       <c r="D104" t="n">
-        <v>3.41073525770289</v>
+        <v>-6.55305743925691</v>
       </c>
       <c r="E104" t="n">
-        <v>4.41066257018564</v>
+        <v>-6.53733204500339</v>
       </c>
       <c r="F104" t="n">
-        <v>5.21066464043379</v>
+        <v>-7.57475151439728</v>
       </c>
       <c r="G104" t="n">
-        <v>5.54952820466138</v>
+        <v>-7.53409121572067</v>
       </c>
       <c r="H104" t="n">
-        <v>7.04195118448524</v>
+        <v>-8.45352236803051</v>
       </c>
       <c r="I104" t="n">
-        <v>6.43315012128325</v>
+        <v>-9.09496863514639</v>
       </c>
       <c r="J104" t="n">
-        <v>7.60693364151361</v>
+        <v>-9.53560321929036</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-5.09267146241482</v>
+        <v>10.1128390847875</v>
       </c>
       <c r="B105" t="n">
-        <v>-5.61636558970613</v>
+        <v>11.3352522421836</v>
       </c>
       <c r="C105" t="n">
-        <v>-6.01832089968376</v>
+        <v>10.0288274261082</v>
       </c>
       <c r="D105" t="n">
-        <v>-6.57724457455376</v>
+        <v>13.1880544264637</v>
       </c>
       <c r="E105" t="n">
-        <v>-6.6778264253189</v>
+        <v>15.197312967298</v>
       </c>
       <c r="F105" t="n">
-        <v>-7.21836932064976</v>
+        <v>15.9374256963407</v>
       </c>
       <c r="G105" t="n">
-        <v>-7.50454948401622</v>
+        <v>15.845677479644</v>
       </c>
       <c r="H105" t="n">
-        <v>-8.55340729034254</v>
+        <v>17.6027227311846</v>
       </c>
       <c r="I105" t="n">
-        <v>-9.20379618490199</v>
+        <v>18.232730978325</v>
       </c>
       <c r="J105" t="n">
-        <v>-9.38237502774638</v>
+        <v>19.1460420460078</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>9.74753481098182</v>
+        <v>10.0023585182659</v>
       </c>
       <c r="B106" t="n">
-        <v>3.25147050243498</v>
+        <v>11.6001972917833</v>
       </c>
       <c r="C106" t="n">
-        <v>4.1237726432629</v>
+        <v>11.8667098962677</v>
       </c>
       <c r="D106" t="n">
-        <v>3.80267506077942</v>
+        <v>13.4195011134149</v>
       </c>
       <c r="E106" t="n">
-        <v>4.52087396217765</v>
+        <v>15.1638278866888</v>
       </c>
       <c r="F106" t="n">
-        <v>4.18184489011542</v>
+        <v>16.6056988993311</v>
       </c>
       <c r="G106" t="n">
-        <v>5.55019660770556</v>
+        <v>16.4157117220815</v>
       </c>
       <c r="H106" t="n">
-        <v>6.37823853106686</v>
+        <v>6.14662997002571</v>
       </c>
       <c r="I106" t="n">
-        <v>7.52085702429609</v>
+        <v>6.27666221117198</v>
       </c>
       <c r="J106" t="n">
-        <v>6.22094000370004</v>
+        <v>5.66676382114312</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-5.08382888454916</v>
+        <v>9.58393484657799</v>
       </c>
       <c r="B107" t="n">
-        <v>-5.73994992599463</v>
+        <v>11.3658830527071</v>
       </c>
       <c r="C107" t="n">
-        <v>-6.06518237794029</v>
+        <v>2.51018676819505</v>
       </c>
       <c r="D107" t="n">
-        <v>-6.43009081947292</v>
+        <v>4.13013642519071</v>
       </c>
       <c r="E107" t="n">
-        <v>-7.01715870359568</v>
+        <v>4.10671514241216</v>
       </c>
       <c r="F107" t="n">
-        <v>-7.28325130873489</v>
+        <v>5.72604613920814</v>
       </c>
       <c r="G107" t="n">
-        <v>-7.91374047211196</v>
+        <v>4.96539704206467</v>
       </c>
       <c r="H107" t="n">
-        <v>-8.31733748344487</v>
+        <v>6.75262779642484</v>
       </c>
       <c r="I107" t="n">
-        <v>-9.07609606619082</v>
+        <v>6.73171879533785</v>
       </c>
       <c r="J107" t="n">
-        <v>-9.66663748953713</v>
+        <v>18.9010601289132</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-5.15493579310768</v>
+        <v>8.94344548245765</v>
       </c>
       <c r="B108" t="n">
-        <v>-5.60841281308554</v>
+        <v>9.8584023233895</v>
       </c>
       <c r="C108" t="n">
-        <v>-6.07405566678587</v>
+        <v>2.84879559337858</v>
       </c>
       <c r="D108" t="n">
-        <v>-6.4135674092415</v>
+        <v>13.9879018109474</v>
       </c>
       <c r="E108" t="n">
-        <v>-6.88548701456459</v>
+        <v>13.8966130644062</v>
       </c>
       <c r="F108" t="n">
-        <v>-7.35275999589077</v>
+        <v>14.0753285835107</v>
       </c>
       <c r="G108" t="n">
-        <v>-8.34536800146778</v>
+        <v>16.0550990099826</v>
       </c>
       <c r="H108" t="n">
-        <v>-8.82439819451606</v>
+        <v>16.9564440181983</v>
       </c>
       <c r="I108" t="n">
-        <v>-9.63326264516785</v>
+        <v>18.1335950188606</v>
       </c>
       <c r="J108" t="n">
-        <v>-9.76401002451529</v>
+        <v>18.4026197849779</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>10.1126864001101</v>
+        <v>10.0465082697984</v>
       </c>
       <c r="B109" t="n">
-        <v>11.9643151925802</v>
+        <v>10.8624732936332</v>
       </c>
       <c r="C109" t="n">
-        <v>12.6697844996453</v>
+        <v>12.4852708922985</v>
       </c>
       <c r="D109" t="n">
-        <v>14.5147892756299</v>
+        <v>13.1829852832106</v>
       </c>
       <c r="E109" t="n">
-        <v>14.4770302255644</v>
+        <v>15.3482042466589</v>
       </c>
       <c r="F109" t="n">
-        <v>15.0498946954719</v>
+        <v>15.4506381646241</v>
       </c>
       <c r="G109" t="n">
-        <v>15.5162126943484</v>
+        <v>-8.25804062993053</v>
       </c>
       <c r="H109" t="n">
-        <v>16.8570534147694</v>
+        <v>-8.13658881265783</v>
       </c>
       <c r="I109" t="n">
-        <v>18.7222331948571</v>
+        <v>-9.15084206949711</v>
       </c>
       <c r="J109" t="n">
-        <v>19.192753484568</v>
+        <v>-9.58707218245609</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-4.86416492025874</v>
+        <v>10.3950328311905</v>
       </c>
       <c r="B110" t="n">
-        <v>-5.19712828726999</v>
+        <v>11.5014336630125</v>
       </c>
       <c r="C110" t="n">
-        <v>-6.31399421518711</v>
+        <v>11.558890277336</v>
       </c>
       <c r="D110" t="n">
-        <v>-6.56437706163376</v>
+        <v>13.0857499860081</v>
       </c>
       <c r="E110" t="n">
-        <v>-7.14651117726404</v>
+        <v>14.8878830576699</v>
       </c>
       <c r="F110" t="n">
-        <v>-7.00093914168366</v>
+        <v>15.3100427748516</v>
       </c>
       <c r="G110" t="n">
-        <v>-8.07130823112245</v>
+        <v>14.8017677850255</v>
       </c>
       <c r="H110" t="n">
-        <v>-7.96747798024569</v>
+        <v>17.6858211687077</v>
       </c>
       <c r="I110" t="n">
-        <v>-9.25619725462794</v>
+        <v>17.308184450389</v>
       </c>
       <c r="J110" t="n">
-        <v>-9.40314417063305</v>
+        <v>18.3229924784582</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>3.20290194724682</v>
+        <v>-4.87012242119046</v>
       </c>
       <c r="B111" t="n">
-        <v>3.08881763824653</v>
+        <v>-5.26448916207704</v>
       </c>
       <c r="C111" t="n">
-        <v>3.83530769926542</v>
+        <v>-6.19738376228847</v>
       </c>
       <c r="D111" t="n">
-        <v>4.49782753925551</v>
+        <v>-6.75095379973017</v>
       </c>
       <c r="E111" t="n">
-        <v>5.02434583979124</v>
+        <v>-7.28636343397237</v>
       </c>
       <c r="F111" t="n">
-        <v>5.36057344940052</v>
+        <v>-7.34935852842295</v>
       </c>
       <c r="G111" t="n">
-        <v>5.34184580683566</v>
+        <v>-8.12832742593739</v>
       </c>
       <c r="H111" t="n">
-        <v>6.11038767864479</v>
+        <v>-8.7814758995185</v>
       </c>
       <c r="I111" t="n">
-        <v>6.86052722207119</v>
+        <v>-9.26844070175826</v>
       </c>
       <c r="J111" t="n">
-        <v>7.78436543141398</v>
+        <v>-9.37449026631705</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-5.07423758291513</v>
+        <v>2.86428070174372</v>
       </c>
       <c r="B112" t="n">
-        <v>-5.12839811865046</v>
+        <v>10.6071670827804</v>
       </c>
       <c r="C112" t="n">
-        <v>-6.11598929083603</v>
+        <v>4.39343790792315</v>
       </c>
       <c r="D112" t="n">
-        <v>-6.26271437788267</v>
+        <v>4.0652179960277</v>
       </c>
       <c r="E112" t="n">
-        <v>-7.15597548364709</v>
+        <v>5.35054161850606</v>
       </c>
       <c r="F112" t="n">
-        <v>-7.28426971182173</v>
+        <v>5.23938814497234</v>
       </c>
       <c r="G112" t="n">
-        <v>-7.83993888459319</v>
+        <v>5.58329555223215</v>
       </c>
       <c r="H112" t="n">
-        <v>-8.6309818484895</v>
+        <v>4.78327015887313</v>
       </c>
       <c r="I112" t="n">
-        <v>-9.03052073766413</v>
+        <v>6.54315956034006</v>
       </c>
       <c r="J112" t="n">
-        <v>-9.17401433551368</v>
+        <v>6.8994493759706</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-5.01752957042629</v>
+        <v>10.2627024812625</v>
       </c>
       <c r="B113" t="n">
-        <v>-5.58792206405216</v>
+        <v>10.8007596163532</v>
       </c>
       <c r="C113" t="n">
-        <v>-5.86961257430057</v>
+        <v>12.6018675728389</v>
       </c>
       <c r="D113" t="n">
-        <v>-6.49266895340055</v>
+        <v>13.6939346954601</v>
       </c>
       <c r="E113" t="n">
-        <v>-6.59400344415375</v>
+        <v>13.1048828531918</v>
       </c>
       <c r="F113" t="n">
-        <v>15.1109540507015</v>
+        <v>15.1000943030373</v>
       </c>
       <c r="G113" t="n">
-        <v>14.8482466459131</v>
+        <v>16.0875368302209</v>
       </c>
       <c r="H113" t="n">
-        <v>6.52570117453605</v>
+        <v>17.7806114215939</v>
       </c>
       <c r="I113" t="n">
-        <v>6.59819860510208</v>
+        <v>17.6180921331966</v>
       </c>
       <c r="J113" t="n">
-        <v>6.33053349783416</v>
+        <v>18.2686528708284</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>9.58782463228477</v>
+        <v>10.7322552802912</v>
       </c>
       <c r="B114" t="n">
-        <v>10.3322967335952</v>
+        <v>11.6449481258768</v>
       </c>
       <c r="C114" t="n">
-        <v>13.2144746618345</v>
+        <v>12.6277453420715</v>
       </c>
       <c r="D114" t="n">
-        <v>13.9378355062252</v>
+        <v>14.5303377438206</v>
       </c>
       <c r="E114" t="n">
-        <v>14.37717140127</v>
+        <v>14.4467262366553</v>
       </c>
       <c r="F114" t="n">
-        <v>14.3308401191695</v>
+        <v>5.20455953546075</v>
       </c>
       <c r="G114" t="n">
-        <v>16.5655102354398</v>
+        <v>5.09143260722358</v>
       </c>
       <c r="H114" t="n">
-        <v>17.880886190303</v>
+        <v>5.44752361604389</v>
       </c>
       <c r="I114" t="n">
-        <v>17.5574573221217</v>
+        <v>6.29018932673649</v>
       </c>
       <c r="J114" t="n">
-        <v>18.9486804559717</v>
+        <v>19.1976437941181</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2.67131199974352</v>
+        <v>-4.81386180148705</v>
       </c>
       <c r="B115" t="n">
-        <v>2.97331901955447</v>
+        <v>-5.61556385097224</v>
       </c>
       <c r="C115" t="n">
-        <v>3.87725005504391</v>
+        <v>-5.94486900781882</v>
       </c>
       <c r="D115" t="n">
-        <v>4.34164515608089</v>
+        <v>-6.91059033236444</v>
       </c>
       <c r="E115" t="n">
-        <v>5.28478849800977</v>
+        <v>-7.22880256987692</v>
       </c>
       <c r="F115" t="n">
-        <v>5.38572489299785</v>
+        <v>-7.57907785101601</v>
       </c>
       <c r="G115" t="n">
-        <v>5.65994840854195</v>
+        <v>-7.57427330767892</v>
       </c>
       <c r="H115" t="n">
-        <v>5.5416200078509</v>
+        <v>15.4079027650268</v>
       </c>
       <c r="I115" t="n">
-        <v>6.55734470121883</v>
+        <v>17.2795494461193</v>
       </c>
       <c r="J115" t="n">
-        <v>8.25541763895249</v>
+        <v>19.7494149193345</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-5.04581621847133</v>
+        <v>-5.03353148240188</v>
       </c>
       <c r="B116" t="n">
-        <v>-5.83193001584082</v>
+        <v>-5.15611322880062</v>
       </c>
       <c r="C116" t="n">
-        <v>-6.13054997799996</v>
+        <v>-5.80738733118411</v>
       </c>
       <c r="D116" t="n">
-        <v>-6.21348293640342</v>
+        <v>-6.61835151479604</v>
       </c>
       <c r="E116" t="n">
-        <v>-7.12469572069462</v>
+        <v>-6.82578087819663</v>
       </c>
       <c r="F116" t="n">
-        <v>-7.71674576123255</v>
+        <v>-7.10151744993643</v>
       </c>
       <c r="G116" t="n">
-        <v>-7.85526084067677</v>
+        <v>-7.9534061107719</v>
       </c>
       <c r="H116" t="n">
-        <v>-8.00098384650351</v>
+        <v>-8.96028423801332</v>
       </c>
       <c r="I116" t="n">
-        <v>-8.93767635770939</v>
+        <v>-8.6659312163904</v>
       </c>
       <c r="J116" t="n">
-        <v>-9.53859232464826</v>
+        <v>-9.82631200008202</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.7808385931573</v>
+        <v>9.34998323163767</v>
       </c>
       <c r="B117" t="n">
-        <v>3.14969272869778</v>
+        <v>11.0742580949862</v>
       </c>
       <c r="C117" t="n">
-        <v>2.09599072694629</v>
+        <v>12.3295720610659</v>
       </c>
       <c r="D117" t="n">
-        <v>3.88387715445218</v>
+        <v>12.8530670180144</v>
       </c>
       <c r="E117" t="n">
-        <v>4.27039985878562</v>
+        <v>12.8609725073289</v>
       </c>
       <c r="F117" t="n">
-        <v>4.62191818253156</v>
+        <v>15.0583957188393</v>
       </c>
       <c r="G117" t="n">
-        <v>5.71255354931692</v>
+        <v>17.368012025356</v>
       </c>
       <c r="H117" t="n">
-        <v>5.47297508958407</v>
+        <v>17.7907608763424</v>
       </c>
       <c r="I117" t="n">
-        <v>7.12064139528264</v>
+        <v>18.0488372820389</v>
       </c>
       <c r="J117" t="n">
-        <v>7.01800338356268</v>
+        <v>19.2744377211031</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>10.6279012345835</v>
+        <v>9.58569376905951</v>
       </c>
       <c r="B118" t="n">
-        <v>12.0478085749859</v>
+        <v>9.91510209540145</v>
       </c>
       <c r="C118" t="n">
-        <v>12.1740486766115</v>
+        <v>12.2426116642215</v>
       </c>
       <c r="D118" t="n">
-        <v>13.9203739595801</v>
+        <v>13.0693896972529</v>
       </c>
       <c r="E118" t="n">
-        <v>14.0220969261881</v>
+        <v>14.9203955594868</v>
       </c>
       <c r="F118" t="n">
-        <v>15.0706757573776</v>
+        <v>15.3409399902961</v>
       </c>
       <c r="G118" t="n">
-        <v>-8.00419003204643</v>
+        <v>15.3779053028029</v>
       </c>
       <c r="H118" t="n">
-        <v>-8.09601838587503</v>
+        <v>6.42450109862003</v>
       </c>
       <c r="I118" t="n">
-        <v>-9.1401218167047</v>
+        <v>6.84980114521432</v>
       </c>
       <c r="J118" t="n">
-        <v>-9.44335131124322</v>
+        <v>6.89507306813315</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>9.76510843169541</v>
+        <v>9.52476140033414</v>
       </c>
       <c r="B119" t="n">
-        <v>11.1492892795346</v>
+        <v>11.4994654659493</v>
       </c>
       <c r="C119" t="n">
-        <v>11.9336027760305</v>
+        <v>11.5440464572463</v>
       </c>
       <c r="D119" t="n">
-        <v>12.9842172259709</v>
+        <v>13.0107917619079</v>
       </c>
       <c r="E119" t="n">
-        <v>14.9787716271131</v>
+        <v>14.0552544478931</v>
       </c>
       <c r="F119" t="n">
-        <v>15.1990995579283</v>
+        <v>15.3841170943053</v>
       </c>
       <c r="G119" t="n">
-        <v>15.7742450623871</v>
+        <v>15.7322406860514</v>
       </c>
       <c r="H119" t="n">
-        <v>16.7464345523541</v>
+        <v>18.3523151989894</v>
       </c>
       <c r="I119" t="n">
-        <v>17.7849208178009</v>
+        <v>16.7969903623488</v>
       </c>
       <c r="J119" t="n">
-        <v>5.53165982247803</v>
+        <v>18.37195652363</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>11.0303329804556</v>
+        <v>-4.95763448909886</v>
       </c>
       <c r="B120" t="n">
-        <v>9.11493757943266</v>
+        <v>-5.22003686338516</v>
       </c>
       <c r="C120" t="n">
-        <v>10.9372877810118</v>
+        <v>-5.95523611719613</v>
       </c>
       <c r="D120" t="n">
-        <v>3.7635094929969</v>
+        <v>-6.3948922130772</v>
       </c>
       <c r="E120" t="n">
-        <v>4.06060199289811</v>
+        <v>-7.03267077602798</v>
       </c>
       <c r="F120" t="n">
-        <v>4.63948237040477</v>
+        <v>-7.42325087624394</v>
       </c>
       <c r="G120" t="n">
-        <v>5.737083841255</v>
+        <v>-8.10209096972619</v>
       </c>
       <c r="H120" t="n">
-        <v>6.14736744769875</v>
+        <v>-8.4970753937787</v>
       </c>
       <c r="I120" t="n">
-        <v>6.46286159337021</v>
+        <v>-9.43251392026183</v>
       </c>
       <c r="J120" t="n">
-        <v>7.22906145517736</v>
+        <v>-9.7339293597747</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2.40041742199142</v>
+        <v>10.0519891969781</v>
       </c>
       <c r="B121" t="n">
-        <v>3.06475712414841</v>
+        <v>-5.53684057571971</v>
       </c>
       <c r="C121" t="n">
-        <v>3.25095266118641</v>
+        <v>-6.05979511877338</v>
       </c>
       <c r="D121" t="n">
-        <v>4.33320502889145</v>
+        <v>-6.67975167906606</v>
       </c>
       <c r="E121" t="n">
-        <v>4.12858576394375</v>
+        <v>15.1032111732154</v>
       </c>
       <c r="F121" t="n">
-        <v>4.34718513164015</v>
+        <v>14.2066965774577</v>
       </c>
       <c r="G121" t="n">
-        <v>5.54270599729599</v>
+        <v>-7.91680933188903</v>
       </c>
       <c r="H121" t="n">
-        <v>7.12235400980575</v>
+        <v>-8.44594523970191</v>
       </c>
       <c r="I121" t="n">
-        <v>5.8113696484219</v>
+        <v>-8.58123090338551</v>
       </c>
       <c r="J121" t="n">
-        <v>7.3720671612041</v>
+        <v>-9.57640474262296</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>11.5267324720794</v>
+        <v>3.35481399625979</v>
       </c>
       <c r="B122" t="n">
-        <v>10.1660330673192</v>
+        <v>2.56148961512748</v>
       </c>
       <c r="C122" t="n">
-        <v>3.34760579153859</v>
+        <v>3.51528614679834</v>
       </c>
       <c r="D122" t="n">
-        <v>3.25200233315846</v>
+        <v>4.16854618927669</v>
       </c>
       <c r="E122" t="n">
-        <v>5.51807149717767</v>
+        <v>5.05122380580227</v>
       </c>
       <c r="F122" t="n">
-        <v>5.40510684423206</v>
+        <v>4.36680776698892</v>
       </c>
       <c r="G122" t="n">
-        <v>5.12197554410472</v>
+        <v>5.53130223840204</v>
       </c>
       <c r="H122" t="n">
-        <v>5.56730607090275</v>
+        <v>5.90416533364293</v>
       </c>
       <c r="I122" t="n">
-        <v>6.65233812586389</v>
+        <v>16.4875995580618</v>
       </c>
       <c r="J122" t="n">
-        <v>6.56495960960296</v>
+        <v>19.6231547162391</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>9.25459572392026</v>
+        <v>-5.06232646672077</v>
       </c>
       <c r="B123" t="n">
-        <v>2.81549574785877</v>
+        <v>-5.62490752587255</v>
       </c>
       <c r="C123" t="n">
-        <v>3.82538097306097</v>
+        <v>-6.04971466528596</v>
       </c>
       <c r="D123" t="n">
-        <v>3.87508614838782</v>
+        <v>-6.44377058623465</v>
       </c>
       <c r="E123" t="n">
-        <v>4.15715143185183</v>
+        <v>-7.03788139261029</v>
       </c>
       <c r="F123" t="n">
-        <v>4.57712962229372</v>
+        <v>-7.52778746332705</v>
       </c>
       <c r="G123" t="n">
-        <v>5.77236807592818</v>
+        <v>-8.23826793046664</v>
       </c>
       <c r="H123" t="n">
-        <v>5.46080554790266</v>
+        <v>-8.4143741716602</v>
       </c>
       <c r="I123" t="n">
-        <v>7.05739207367072</v>
+        <v>-8.75552146836707</v>
       </c>
       <c r="J123" t="n">
-        <v>7.08620154994805</v>
+        <v>-9.64842726585933</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2.7729540433798</v>
+        <v>9.51627106421617</v>
       </c>
       <c r="B124" t="n">
-        <v>3.07340272620057</v>
+        <v>10.5806297249486</v>
       </c>
       <c r="C124" t="n">
-        <v>3.98640525427128</v>
+        <v>10.7988172377814</v>
       </c>
       <c r="D124" t="n">
-        <v>4.20732141141234</v>
+        <v>12.0283188063482</v>
       </c>
       <c r="E124" t="n">
-        <v>4.23670838040712</v>
+        <v>15.1341661876384</v>
       </c>
       <c r="F124" t="n">
-        <v>4.78941584121476</v>
+        <v>15.8336300179963</v>
       </c>
       <c r="G124" t="n">
-        <v>5.71093079830221</v>
+        <v>15.6221689425376</v>
       </c>
       <c r="H124" t="n">
-        <v>5.42606787541371</v>
+        <v>16.4865210519144</v>
       </c>
       <c r="I124" t="n">
-        <v>6.63249009138385</v>
+        <v>18.8918109890014</v>
       </c>
       <c r="J124" t="n">
-        <v>6.63542183849346</v>
+        <v>17.5582834665794</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2.89757106390368</v>
+        <v>2.06022773361257</v>
       </c>
       <c r="B125" t="n">
-        <v>3.85864649414968</v>
+        <v>2.74744766809856</v>
       </c>
       <c r="C125" t="n">
-        <v>3.16162304064594</v>
+        <v>3.28928411502601</v>
       </c>
       <c r="D125" t="n">
-        <v>4.13461319091474</v>
+        <v>4.15283027420162</v>
       </c>
       <c r="E125" t="n">
-        <v>4.70086847717652</v>
+        <v>4.16875703574455</v>
       </c>
       <c r="F125" t="n">
-        <v>4.39643397643298</v>
+        <v>4.82779153524954</v>
       </c>
       <c r="G125" t="n">
-        <v>5.67458837208684</v>
+        <v>5.95467839571796</v>
       </c>
       <c r="H125" t="n">
-        <v>6.23993165440909</v>
+        <v>6.93507879073226</v>
       </c>
       <c r="I125" t="n">
-        <v>6.77963604226702</v>
+        <v>7.53176966639268</v>
       </c>
       <c r="J125" t="n">
-        <v>6.57195310950311</v>
+        <v>6.57856633578193</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>10.0632539821531</v>
+        <v>-4.92748004212947</v>
       </c>
       <c r="B126" t="n">
-        <v>11.0214951295182</v>
+        <v>-5.62026643476436</v>
       </c>
       <c r="C126" t="n">
-        <v>11.1781435860394</v>
+        <v>-5.804256337829</v>
       </c>
       <c r="D126" t="n">
-        <v>13.2152421885911</v>
+        <v>-6.81146012066504</v>
       </c>
       <c r="E126" t="n">
-        <v>15.7739190664761</v>
+        <v>-7.09673987349746</v>
       </c>
       <c r="F126" t="n">
-        <v>14.020718535751</v>
+        <v>-7.18446249230465</v>
       </c>
       <c r="G126" t="n">
-        <v>16.4953295714568</v>
+        <v>-8.56128825977824</v>
       </c>
       <c r="H126" t="n">
-        <v>5.39232165734811</v>
+        <v>-8.59307294971984</v>
       </c>
       <c r="I126" t="n">
-        <v>6.78956393902913</v>
+        <v>-8.99559064824807</v>
       </c>
       <c r="J126" t="n">
-        <v>7.52393701026172</v>
+        <v>-9.73871336246223</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2.10762768423574</v>
+        <v>10.4464571883214</v>
       </c>
       <c r="B127" t="n">
-        <v>3.07743835094554</v>
+        <v>9.83725808190056</v>
       </c>
       <c r="C127" t="n">
-        <v>4.31242373595198</v>
+        <v>12.0073033713971</v>
       </c>
       <c r="D127" t="n">
-        <v>4.0995621513846</v>
+        <v>13.472388794439</v>
       </c>
       <c r="E127" t="n">
-        <v>4.21261166933706</v>
+        <v>14.4407006957931</v>
       </c>
       <c r="F127" t="n">
-        <v>5.182565435124</v>
+        <v>14.9385234467092</v>
       </c>
       <c r="G127" t="n">
-        <v>5.00166012764002</v>
+        <v>16.1954973758692</v>
       </c>
       <c r="H127" t="n">
-        <v>5.25586904042771</v>
+        <v>16.9830697402234</v>
       </c>
       <c r="I127" t="n">
-        <v>6.50927983442228</v>
+        <v>6.25401260040046</v>
       </c>
       <c r="J127" t="n">
-        <v>7.23931904922737</v>
+        <v>7.39981825857096</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2.05147041813803</v>
+        <v>9.08536464321915</v>
       </c>
       <c r="B128" t="n">
-        <v>2.03791778616015</v>
+        <v>10.315938374086</v>
       </c>
       <c r="C128" t="n">
-        <v>3.57676961084207</v>
+        <v>11.3376575639974</v>
       </c>
       <c r="D128" t="n">
-        <v>4.81369174314633</v>
+        <v>12.648849342799</v>
       </c>
       <c r="E128" t="n">
-        <v>4.83370235121203</v>
+        <v>16.0137587786359</v>
       </c>
       <c r="F128" t="n">
-        <v>5.66707160445584</v>
+        <v>14.2318019061887</v>
       </c>
       <c r="G128" t="n">
-        <v>5.23836246778393</v>
+        <v>16.464114135711</v>
       </c>
       <c r="H128" t="n">
-        <v>5.81750388011743</v>
+        <v>15.9440794862546</v>
       </c>
       <c r="I128" t="n">
-        <v>6.92833660977307</v>
+        <v>18.0687972875711</v>
       </c>
       <c r="J128" t="n">
-        <v>7.50522362144698</v>
+        <v>18.8836985478761</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>10.5236636897534</v>
+        <v>9.58153346868158</v>
       </c>
       <c r="B129" t="n">
-        <v>10.920121265063</v>
+        <v>9.79979187440549</v>
       </c>
       <c r="C129" t="n">
-        <v>12.7253827144892</v>
+        <v>12.8658099011347</v>
       </c>
       <c r="D129" t="n">
-        <v>12.7356676760738</v>
+        <v>12.3891819475887</v>
       </c>
       <c r="E129" t="n">
-        <v>14.2584905262344</v>
+        <v>14.933399961644</v>
       </c>
       <c r="F129" t="n">
-        <v>14.6175677474984</v>
+        <v>14.7603580331069</v>
       </c>
       <c r="G129" t="n">
-        <v>15.0428908499691</v>
+        <v>16.5687613335083</v>
       </c>
       <c r="H129" t="n">
-        <v>16.9974416767406</v>
+        <v>16.6427696719799</v>
       </c>
       <c r="I129" t="n">
-        <v>17.6943442447888</v>
+        <v>17.6709813060323</v>
       </c>
       <c r="J129" t="n">
-        <v>20.0628951314979</v>
+        <v>18.6055951883841</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2.39254979947539</v>
+        <v>2.89485055687024</v>
       </c>
       <c r="B130" t="n">
-        <v>2.98876651986544</v>
+        <v>2.85580029174687</v>
       </c>
       <c r="C130" t="n">
-        <v>3.89050346249776</v>
+        <v>3.70229106167295</v>
       </c>
       <c r="D130" t="n">
-        <v>3.65135248016885</v>
+        <v>4.294352556932</v>
       </c>
       <c r="E130" t="n">
-        <v>4.24961201576535</v>
+        <v>4.42292179421695</v>
       </c>
       <c r="F130" t="n">
-        <v>5.28294680370814</v>
+        <v>5.750895252082</v>
       </c>
       <c r="G130" t="n">
-        <v>5.10181434906804</v>
+        <v>5.60194837897256</v>
       </c>
       <c r="H130" t="n">
-        <v>6.04820406564411</v>
+        <v>-8.87800383615032</v>
       </c>
       <c r="I130" t="n">
-        <v>6.88479275234725</v>
+        <v>-9.15470697509499</v>
       </c>
       <c r="J130" t="n">
-        <v>6.13376239510155</v>
+        <v>-9.30440145155163</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>3.2630768147592</v>
+        <v>-4.83572984093881</v>
       </c>
       <c r="B131" t="n">
-        <v>1.93833484184029</v>
+        <v>-5.4478132880713</v>
       </c>
       <c r="C131" t="n">
-        <v>4.13381756274114</v>
+        <v>-6.15152480317536</v>
       </c>
       <c r="D131" t="n">
-        <v>4.8954269654813</v>
+        <v>-6.72743981432016</v>
       </c>
       <c r="E131" t="n">
-        <v>4.11170138386567</v>
+        <v>-7.10520474471116</v>
       </c>
       <c r="F131" t="n">
-        <v>5.3064455445961</v>
+        <v>-7.30394601677187</v>
       </c>
       <c r="G131" t="n">
-        <v>6.04948621222202</v>
+        <v>-7.734865914429</v>
       </c>
       <c r="H131" t="n">
-        <v>5.77990519029228</v>
+        <v>-8.46134127056156</v>
       </c>
       <c r="I131" t="n">
-        <v>6.26903404773063</v>
+        <v>-9.0262523504719</v>
       </c>
       <c r="J131" t="n">
-        <v>6.49766941230071</v>
+        <v>-9.38301819390369</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-4.77889424792144</v>
+        <v>-4.96967124245647</v>
       </c>
       <c r="B132" t="n">
-        <v>-5.73015444506971</v>
+        <v>-5.48972966543021</v>
       </c>
       <c r="C132" t="n">
-        <v>-6.18056603483709</v>
+        <v>-5.92076367382669</v>
       </c>
       <c r="D132" t="n">
-        <v>-6.67938614185995</v>
+        <v>-6.31531266344236</v>
       </c>
       <c r="E132" t="n">
-        <v>-7.10250344231099</v>
+        <v>-7.15618701502415</v>
       </c>
       <c r="F132" t="n">
-        <v>-7.98910986881095</v>
+        <v>-7.15768199337605</v>
       </c>
       <c r="G132" t="n">
-        <v>-8.11339931034877</v>
+        <v>-8.22586231889685</v>
       </c>
       <c r="H132" t="n">
-        <v>-8.66958204501975</v>
+        <v>-8.46163898841265</v>
       </c>
       <c r="I132" t="n">
-        <v>-8.29689475834504</v>
+        <v>-8.81041095726442</v>
       </c>
       <c r="J132" t="n">
-        <v>-9.81524491409148</v>
+        <v>-9.25209249454733</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>8.50291799435704</v>
+        <v>8.77925500266187</v>
       </c>
       <c r="B133" t="n">
-        <v>10.1839096187613</v>
+        <v>10.8132700686934</v>
       </c>
       <c r="C133" t="n">
-        <v>12.9476844489779</v>
+        <v>11.3948752221219</v>
       </c>
       <c r="D133" t="n">
-        <v>12.602970694495</v>
+        <v>13.3935259811662</v>
       </c>
       <c r="E133" t="n">
-        <v>14.1655784221976</v>
+        <v>13.5073820685206</v>
       </c>
       <c r="F133" t="n">
-        <v>14.7121391004251</v>
+        <v>16.6432897211931</v>
       </c>
       <c r="G133" t="n">
-        <v>17.2573757291226</v>
+        <v>15.9906145542449</v>
       </c>
       <c r="H133" t="n">
-        <v>16.4659248624729</v>
+        <v>17.4702809131968</v>
       </c>
       <c r="I133" t="n">
-        <v>16.8529674256133</v>
+        <v>18.4044545335376</v>
       </c>
       <c r="J133" t="n">
-        <v>18.4899547728677</v>
+        <v>18.9150041524034</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-4.79446502641119</v>
+        <v>-5.19577911402539</v>
       </c>
       <c r="B134" t="n">
-        <v>-5.56727705936721</v>
+        <v>-5.73757770317561</v>
       </c>
       <c r="C134" t="n">
-        <v>-5.73641895378694</v>
+        <v>-6.19486544645472</v>
       </c>
       <c r="D134" t="n">
-        <v>-6.19333147667155</v>
+        <v>-6.31238812482762</v>
       </c>
       <c r="E134" t="n">
-        <v>-7.02994649615083</v>
+        <v>-7.58576175127579</v>
       </c>
       <c r="F134" t="n">
-        <v>-7.9342379507646</v>
+        <v>-7.05327206745042</v>
       </c>
       <c r="G134" t="n">
-        <v>-7.84985421946209</v>
+        <v>-7.81079999087869</v>
       </c>
       <c r="H134" t="n">
-        <v>16.8809711842147</v>
+        <v>-8.46133564780889</v>
       </c>
       <c r="I134" t="n">
-        <v>18.2631693418088</v>
+        <v>-9.16256246094411</v>
       </c>
       <c r="J134" t="n">
-        <v>18.7369211704428</v>
+        <v>-9.36023373114735</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-4.95205703050972</v>
+        <v>10.0573608149788</v>
       </c>
       <c r="B135" t="n">
-        <v>-5.64555891612009</v>
+        <v>11.8726723277366</v>
       </c>
       <c r="C135" t="n">
-        <v>-6.00453617436405</v>
+        <v>-6.18296739617862</v>
       </c>
       <c r="D135" t="n">
-        <v>-6.89028726585914</v>
+        <v>-6.55266509439038</v>
       </c>
       <c r="E135" t="n">
-        <v>-6.23119147466691</v>
+        <v>-7.03539162815089</v>
       </c>
       <c r="F135" t="n">
-        <v>-7.6298619542776</v>
+        <v>14.799707689597</v>
       </c>
       <c r="G135" t="n">
-        <v>-8.00097764728769</v>
+        <v>14.4845735031718</v>
       </c>
       <c r="H135" t="n">
-        <v>16.3287266727806</v>
+        <v>15.7818902825663</v>
       </c>
       <c r="I135" t="n">
-        <v>17.5812887191297</v>
+        <v>17.8000124781419</v>
       </c>
       <c r="J135" t="n">
-        <v>20.3733796918635</v>
+        <v>19.6324803176808</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>9.16033170378699</v>
+        <v>9.71154058811578</v>
       </c>
       <c r="B136" t="n">
-        <v>10.3900462154921</v>
+        <v>11.897735836465</v>
       </c>
       <c r="C136" t="n">
-        <v>3.32912022710539</v>
+        <v>11.6303813695374</v>
       </c>
       <c r="D136" t="n">
-        <v>2.89411167089659</v>
+        <v>13.9418402555186</v>
       </c>
       <c r="E136" t="n">
-        <v>3.75055765793948</v>
+        <v>13.4999449993272</v>
       </c>
       <c r="F136" t="n">
-        <v>4.93487225714552</v>
+        <v>15.6385539221257</v>
       </c>
       <c r="G136" t="n">
-        <v>4.83678095500282</v>
+        <v>14.8340296238309</v>
       </c>
       <c r="H136" t="n">
-        <v>5.89667942459451</v>
+        <v>17.1019668278109</v>
       </c>
       <c r="I136" t="n">
-        <v>6.01508219802995</v>
+        <v>18.0041399516038</v>
       </c>
       <c r="J136" t="n">
-        <v>7.36467453502349</v>
+        <v>20.3395024377398</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>9.73529687914224</v>
+        <v>-5.58377836178023</v>
       </c>
       <c r="B137" t="n">
-        <v>10.8025540314387</v>
+        <v>-5.281357194369</v>
       </c>
       <c r="C137" t="n">
-        <v>11.816103938632</v>
+        <v>-5.89941517957526</v>
       </c>
       <c r="D137" t="n">
-        <v>13.151377862068</v>
+        <v>-6.83929626438563</v>
       </c>
       <c r="E137" t="n">
-        <v>13.5341966889</v>
+        <v>-6.7847624569096</v>
       </c>
       <c r="F137" t="n">
-        <v>15.952142478576</v>
+        <v>-7.55771429576634</v>
       </c>
       <c r="G137" t="n">
-        <v>17.4185761266914</v>
+        <v>-7.67890848728302</v>
       </c>
       <c r="H137" t="n">
-        <v>17.5035933322995</v>
+        <v>-8.17837547531645</v>
       </c>
       <c r="I137" t="n">
-        <v>18.1517585346854</v>
+        <v>-9.07888970946473</v>
       </c>
       <c r="J137" t="n">
-        <v>19.4345076707828</v>
+        <v>-9.81204661444692</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-4.94633845999908</v>
+        <v>-5.14169278009044</v>
       </c>
       <c r="B138" t="n">
-        <v>-5.23988377883634</v>
+        <v>10.6983969401453</v>
       </c>
       <c r="C138" t="n">
-        <v>-6.28085058498441</v>
+        <v>12.2995151529073</v>
       </c>
       <c r="D138" t="n">
-        <v>-6.78164685915572</v>
+        <v>12.5850445389422</v>
       </c>
       <c r="E138" t="n">
-        <v>-7.31041354243816</v>
+        <v>14.3892871120363</v>
       </c>
       <c r="F138" t="n">
-        <v>-7.39524029976481</v>
+        <v>15.358011228757</v>
       </c>
       <c r="G138" t="n">
-        <v>-7.80418010938642</v>
+        <v>16.2689188761803</v>
       </c>
       <c r="H138" t="n">
-        <v>-8.88235844185077</v>
+        <v>17.5362863770266</v>
       </c>
       <c r="I138" t="n">
-        <v>-9.08799050129585</v>
+        <v>18.3120027183051</v>
       </c>
       <c r="J138" t="n">
-        <v>-9.46756706418802</v>
+        <v>17.7298667940307</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>9.78621955649506</v>
+        <v>10.5342476966891</v>
       </c>
       <c r="B139" t="n">
-        <v>11.0984813608597</v>
+        <v>12.68981884221</v>
       </c>
       <c r="C139" t="n">
-        <v>12.9372097032482</v>
+        <v>11.4473943504055</v>
       </c>
       <c r="D139" t="n">
-        <v>12.2789946183731</v>
+        <v>12.6778667545316</v>
       </c>
       <c r="E139" t="n">
-        <v>14.975806303632</v>
+        <v>13.2333458417569</v>
       </c>
       <c r="F139" t="n">
-        <v>14.8063825959836</v>
+        <v>14.8307309681592</v>
       </c>
       <c r="G139" t="n">
-        <v>16.1863893451822</v>
+        <v>17.2215755339291</v>
       </c>
       <c r="H139" t="n">
-        <v>16.3895960404456</v>
+        <v>18.0959469657272</v>
       </c>
       <c r="I139" t="n">
-        <v>6.85395425006127</v>
+        <v>18.4358162342415</v>
       </c>
       <c r="J139" t="n">
-        <v>7.27390834416185</v>
+        <v>19.616616779847</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-5.19442074190159</v>
+        <v>2.07264574083412</v>
       </c>
       <c r="B140" t="n">
-        <v>-5.67315126213163</v>
+        <v>2.54724243946823</v>
       </c>
       <c r="C140" t="n">
-        <v>-6.18053595097821</v>
+        <v>2.93698208278946</v>
       </c>
       <c r="D140" t="n">
-        <v>-6.34763964948931</v>
+        <v>3.75451583765328</v>
       </c>
       <c r="E140" t="n">
-        <v>-7.12559724953124</v>
+        <v>3.86806740991791</v>
       </c>
       <c r="F140" t="n">
-        <v>16.1511891572197</v>
+        <v>5.40627020168672</v>
       </c>
       <c r="G140" t="n">
-        <v>16.7366270251206</v>
+        <v>-7.83323713800261</v>
       </c>
       <c r="H140" t="n">
-        <v>16.6856728425995</v>
+        <v>-8.50665642012336</v>
       </c>
       <c r="I140" t="n">
-        <v>18.1003815047874</v>
+        <v>-8.62812014700172</v>
       </c>
       <c r="J140" t="n">
-        <v>6.31481619660829</v>
+        <v>-9.03278718457498</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-5.15340877050805</v>
+        <v>9.59274684510313</v>
       </c>
       <c r="B141" t="n">
-        <v>-5.3434669812721</v>
+        <v>10.7738197221475</v>
       </c>
       <c r="C141" t="n">
-        <v>-6.11851660706573</v>
+        <v>11.6473877372208</v>
       </c>
       <c r="D141" t="n">
-        <v>-6.50217522129926</v>
+        <v>12.7158312885534</v>
       </c>
       <c r="E141" t="n">
-        <v>-7.10741296662129</v>
+        <v>14.1166160757377</v>
       </c>
       <c r="F141" t="n">
-        <v>-7.32591866439325</v>
+        <v>15.0196117758989</v>
       </c>
       <c r="G141" t="n">
-        <v>-7.94086548298479</v>
+        <v>16.8951822078168</v>
       </c>
       <c r="H141" t="n">
-        <v>-8.58591865011724</v>
+        <v>17.5458556541309</v>
       </c>
       <c r="I141" t="n">
-        <v>-9.87483101946601</v>
+        <v>18.7976721476804</v>
       </c>
       <c r="J141" t="n">
-        <v>-9.83177657039244</v>
+        <v>17.9939065766385</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-5.114005822355</v>
+        <v>2.11119343319098</v>
       </c>
       <c r="B142" t="n">
-        <v>-5.24659352944646</v>
+        <v>3.79417304731421</v>
       </c>
       <c r="C142" t="n">
-        <v>-6.07779589349877</v>
+        <v>3.04497793903075</v>
       </c>
       <c r="D142" t="n">
-        <v>-6.41184190497156</v>
+        <v>4.3416868088203</v>
       </c>
       <c r="E142" t="n">
-        <v>-6.57595756445387</v>
+        <v>5.56651103544586</v>
       </c>
       <c r="F142" t="n">
-        <v>-7.3562634204793</v>
+        <v>5.18681396841143</v>
       </c>
       <c r="G142" t="n">
-        <v>-7.81389363726706</v>
+        <v>4.81486379080756</v>
       </c>
       <c r="H142" t="n">
-        <v>-8.53549534724853</v>
+        <v>5.90829166721197</v>
       </c>
       <c r="I142" t="n">
-        <v>-9.28632390219667</v>
+        <v>6.81078281426857</v>
       </c>
       <c r="J142" t="n">
-        <v>-9.74594828161592</v>
+        <v>6.53014209969629</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-4.92551141354881</v>
+        <v>9.29513379378</v>
       </c>
       <c r="B143" t="n">
-        <v>-6.05860095499164</v>
+        <v>11.5847610806635</v>
       </c>
       <c r="C143" t="n">
-        <v>-5.80018117918646</v>
+        <v>12.1487999666138</v>
       </c>
       <c r="D143" t="n">
-        <v>11.9229956917538</v>
+        <v>13.2110191299239</v>
       </c>
       <c r="E143" t="n">
-        <v>13.5819764765855</v>
+        <v>14.0863212369692</v>
       </c>
       <c r="F143" t="n">
-        <v>4.56640794250457</v>
+        <v>16.2534137229521</v>
       </c>
       <c r="G143" t="n">
-        <v>6.18719883652704</v>
+        <v>14.472885424603</v>
       </c>
       <c r="H143" t="n">
-        <v>5.85426503102753</v>
+        <v>16.6506767236408</v>
       </c>
       <c r="I143" t="n">
-        <v>6.18689114877215</v>
+        <v>17.3726768124023</v>
       </c>
       <c r="J143" t="n">
-        <v>5.95573878626086</v>
+        <v>17.5734238361446</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>9.86712002770598</v>
+        <v>10.1774601066442</v>
       </c>
       <c r="B144" t="n">
-        <v>11.0254958459671</v>
+        <v>11.4164276880279</v>
       </c>
       <c r="C144" t="n">
-        <v>12.2023548008065</v>
+        <v>11.7457875489123</v>
       </c>
       <c r="D144" t="n">
-        <v>13.4101861765971</v>
+        <v>15.0201306689968</v>
       </c>
       <c r="E144" t="n">
-        <v>13.3258757734558</v>
+        <v>14.1456982504408</v>
       </c>
       <c r="F144" t="n">
-        <v>15.0197736999265</v>
+        <v>16.151329522509</v>
       </c>
       <c r="G144" t="n">
-        <v>15.9360742115665</v>
+        <v>16.801568731867</v>
       </c>
       <c r="H144" t="n">
-        <v>5.64061288630093</v>
+        <v>16.9791600761306</v>
       </c>
       <c r="I144" t="n">
-        <v>7.95740643204331</v>
+        <v>18.4939133368684</v>
       </c>
       <c r="J144" t="n">
-        <v>6.91508193013356</v>
+        <v>6.895338150951</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>3.27328719513524</v>
+        <v>11.3202766714772</v>
       </c>
       <c r="B145" t="n">
-        <v>2.54962965709508</v>
+        <v>12.1329941138706</v>
       </c>
       <c r="C145" t="n">
-        <v>4.08834299796708</v>
+        <v>10.8281602830147</v>
       </c>
       <c r="D145" t="n">
-        <v>4.18727149644451</v>
+        <v>12.3343942725422</v>
       </c>
       <c r="E145" t="n">
-        <v>4.64201126587916</v>
+        <v>16.7566940091802</v>
       </c>
       <c r="F145" t="n">
-        <v>4.54770476362382</v>
+        <v>3.92622063778886</v>
       </c>
       <c r="G145" t="n">
-        <v>6.10383814175298</v>
+        <v>5.48454205142837</v>
       </c>
       <c r="H145" t="n">
-        <v>6.91811364675292</v>
+        <v>6.55895515587492</v>
       </c>
       <c r="I145" t="n">
-        <v>5.7059207214384</v>
+        <v>6.52232508870924</v>
       </c>
       <c r="J145" t="n">
-        <v>5.68107727390447</v>
+        <v>6.9320696093041</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2.49400741656736</v>
+        <v>-5.00088588860859</v>
       </c>
       <c r="B146" t="n">
-        <v>3.27075756952151</v>
+        <v>-5.52193401930634</v>
       </c>
       <c r="C146" t="n">
-        <v>3.49429875203362</v>
+        <v>-5.68352690988297</v>
       </c>
       <c r="D146" t="n">
-        <v>3.28168771481352</v>
+        <v>-6.39643826260763</v>
       </c>
       <c r="E146" t="n">
-        <v>5.01409304089942</v>
+        <v>-7.06286554214611</v>
       </c>
       <c r="F146" t="n">
-        <v>4.85751186970091</v>
+        <v>-7.62185804955666</v>
       </c>
       <c r="G146" t="n">
-        <v>5.62590795220937</v>
+        <v>-7.36094031433387</v>
       </c>
       <c r="H146" t="n">
-        <v>7.07612715354141</v>
+        <v>-8.45959904176191</v>
       </c>
       <c r="I146" t="n">
-        <v>6.53162612405505</v>
+        <v>-9.20536537291938</v>
       </c>
       <c r="J146" t="n">
-        <v>7.90813509943587</v>
+        <v>-9.68638759793749</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2.62518087259353</v>
+        <v>10.7141799235867</v>
       </c>
       <c r="B147" t="n">
-        <v>2.35862035938515</v>
+        <v>10.3264098413298</v>
       </c>
       <c r="C147" t="n">
-        <v>3.14631022998199</v>
+        <v>12.5132993676988</v>
       </c>
       <c r="D147" t="n">
-        <v>5.55682225453529</v>
+        <v>12.5489717036775</v>
       </c>
       <c r="E147" t="n">
-        <v>4.76421343914617</v>
+        <v>13.7728655408698</v>
       </c>
       <c r="F147" t="n">
-        <v>4.70962020436965</v>
+        <v>5.35948873256903</v>
       </c>
       <c r="G147" t="n">
-        <v>5.39332174156499</v>
+        <v>5.94389367075425</v>
       </c>
       <c r="H147" t="n">
-        <v>6.3571726201861</v>
+        <v>5.014579006259</v>
       </c>
       <c r="I147" t="n">
-        <v>6.87585749624918</v>
+        <v>5.53879573905813</v>
       </c>
       <c r="J147" t="n">
-        <v>7.35223252710399</v>
+        <v>7.42706809973932</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>9.58589122617663</v>
+        <v>10.640080160011</v>
       </c>
       <c r="B148" t="n">
-        <v>9.70662370801421</v>
+        <v>10.6077032245462</v>
       </c>
       <c r="C148" t="n">
-        <v>11.7055990852258</v>
+        <v>11.4729900227377</v>
       </c>
       <c r="D148" t="n">
-        <v>14.1141620149645</v>
+        <v>12.3820083679691</v>
       </c>
       <c r="E148" t="n">
-        <v>-7.01891061057443</v>
+        <v>15.0375117250025</v>
       </c>
       <c r="F148" t="n">
-        <v>-7.82773785350677</v>
+        <v>4.92871482034306</v>
       </c>
       <c r="G148" t="n">
-        <v>4.95651958485977</v>
+        <v>5.67962617944189</v>
       </c>
       <c r="H148" t="n">
-        <v>5.53933370852673</v>
+        <v>17.3563394896596</v>
       </c>
       <c r="I148" t="n">
-        <v>6.41560023038402</v>
+        <v>18.1139065050609</v>
       </c>
       <c r="J148" t="n">
-        <v>6.76830663122153</v>
+        <v>21.2593881804657</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>9.36172431176785</v>
+        <v>7.48305934308071</v>
       </c>
       <c r="B149" t="n">
-        <v>11.3423817928122</v>
+        <v>10.6522373905057</v>
       </c>
       <c r="C149" t="n">
-        <v>12.8202593434164</v>
+        <v>13.2348954472384</v>
       </c>
       <c r="D149" t="n">
-        <v>14.0662846080992</v>
+        <v>13.7417038316839</v>
       </c>
       <c r="E149" t="n">
-        <v>13.4425933118511</v>
+        <v>13.0610233298576</v>
       </c>
       <c r="F149" t="n">
-        <v>15.9950770819254</v>
+        <v>16.1899784347714</v>
       </c>
       <c r="G149" t="n">
-        <v>15.351509045521</v>
+        <v>-8.32717872723393</v>
       </c>
       <c r="H149" t="n">
-        <v>15.5654848440326</v>
+        <v>-8.41902814392246</v>
       </c>
       <c r="I149" t="n">
-        <v>18.6710003839734</v>
+        <v>-8.74103736535401</v>
       </c>
       <c r="J149" t="n">
-        <v>17.7647726039691</v>
+        <v>-9.38244243869451</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2.78729306390545</v>
+        <v>-5.4696304095195</v>
       </c>
       <c r="B150" t="n">
-        <v>2.86621589912741</v>
+        <v>11.9044847287325</v>
       </c>
       <c r="C150" t="n">
-        <v>3.63544747717285</v>
+        <v>9.75941765271221</v>
       </c>
       <c r="D150" t="n">
-        <v>4.50034381480255</v>
+        <v>12.3679780888148</v>
       </c>
       <c r="E150" t="n">
-        <v>3.92908602354529</v>
+        <v>14.1433382694991</v>
       </c>
       <c r="F150" t="n">
-        <v>4.78349216439402</v>
+        <v>13.5338194013324</v>
       </c>
       <c r="G150" t="n">
-        <v>6.32450248594885</v>
+        <v>15.9709868786179</v>
       </c>
       <c r="H150" t="n">
-        <v>6.73965022887272</v>
+        <v>18.0043178483667</v>
       </c>
       <c r="I150" t="n">
-        <v>6.44789596354552</v>
+        <v>19.4033116520446</v>
       </c>
       <c r="J150" t="n">
-        <v>8.11305698599808</v>
+        <v>6.85364653664749</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-5.05282900279906</v>
+        <v>3.94155699162609</v>
       </c>
       <c r="B151" t="n">
-        <v>-5.65120205820676</v>
+        <v>11.089356899902</v>
       </c>
       <c r="C151" t="n">
-        <v>-5.79007723390889</v>
+        <v>11.3755014408301</v>
       </c>
       <c r="D151" t="n">
-        <v>-6.75258088521701</v>
+        <v>12.8867222724702</v>
       </c>
       <c r="E151" t="n">
-        <v>-6.9618712959647</v>
+        <v>14.1672425564809</v>
       </c>
       <c r="F151" t="n">
-        <v>-7.88214908257144</v>
+        <v>15.4784106451163</v>
       </c>
       <c r="G151" t="n">
-        <v>5.68024323236184</v>
+        <v>16.1644247013927</v>
       </c>
       <c r="H151" t="n">
-        <v>5.843061057616</v>
+        <v>17.7563083484983</v>
       </c>
       <c r="I151" t="n">
-        <v>6.20159093126995</v>
+        <v>17.0322706305502</v>
       </c>
       <c r="J151" t="n">
-        <v>6.64773458555175</v>
+        <v>18.1061327781385</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>-5.51433415967404</v>
+        <v>10.4040149061163</v>
       </c>
       <c r="B152" t="n">
-        <v>-5.44401677668623</v>
+        <v>11.5467135477782</v>
       </c>
       <c r="C152" t="n">
-        <v>-5.68989889618728</v>
+        <v>12.2281328212421</v>
       </c>
       <c r="D152" t="n">
-        <v>-6.4731237216244</v>
+        <v>4.10407689436879</v>
       </c>
       <c r="E152" t="n">
-        <v>-7.13597181966112</v>
+        <v>4.24986105141864</v>
       </c>
       <c r="F152" t="n">
-        <v>-7.7229927634135</v>
+        <v>5.05494233572093</v>
       </c>
       <c r="G152" t="n">
-        <v>-7.88206778898672</v>
+        <v>5.46184301425816</v>
       </c>
       <c r="H152" t="n">
-        <v>-8.53797257511133</v>
+        <v>6.82048900217917</v>
       </c>
       <c r="I152" t="n">
-        <v>-9.19767433716273</v>
+        <v>7.15946551126703</v>
       </c>
       <c r="J152" t="n">
-        <v>-9.67261530780256</v>
+        <v>7.44778878675825</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>9.26558082449926</v>
+        <v>10.5078235856163</v>
       </c>
       <c r="B153" t="n">
-        <v>11.1676048966536</v>
+        <v>10.2220461228013</v>
       </c>
       <c r="C153" t="n">
-        <v>12.9282083069606</v>
+        <v>10.7663171816271</v>
       </c>
       <c r="D153" t="n">
-        <v>4.72238922513997</v>
+        <v>13.426142028664</v>
       </c>
       <c r="E153" t="n">
-        <v>4.42163385290539</v>
+        <v>13.8441095070009</v>
       </c>
       <c r="F153" t="n">
-        <v>5.21969347221526</v>
+        <v>15.5747707434205</v>
       </c>
       <c r="G153" t="n">
-        <v>5.47717523551293</v>
+        <v>17.2748913395545</v>
       </c>
       <c r="H153" t="n">
-        <v>6.72210583088008</v>
+        <v>17.1701858050102</v>
       </c>
       <c r="I153" t="n">
-        <v>6.36667236947093</v>
+        <v>-8.90507845044599</v>
       </c>
       <c r="J153" t="n">
-        <v>7.41412001127165</v>
+        <v>-9.56808541440835</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>9.8505993580304</v>
+        <v>9.60681060209631</v>
       </c>
       <c r="B154" t="n">
-        <v>11.3641603703833</v>
+        <v>10.7452666065565</v>
       </c>
       <c r="C154" t="n">
-        <v>11.2803414201218</v>
+        <v>11.4458109312854</v>
       </c>
       <c r="D154" t="n">
-        <v>12.851256642142</v>
+        <v>12.8315016268766</v>
       </c>
       <c r="E154" t="n">
-        <v>14.6912331751101</v>
+        <v>12.2401134110878</v>
       </c>
       <c r="F154" t="n">
-        <v>15.0102031616102</v>
+        <v>15.8869410749414</v>
       </c>
       <c r="G154" t="n">
-        <v>15.5995831212003</v>
+        <v>15.5564105521167</v>
       </c>
       <c r="H154" t="n">
-        <v>15.2441398165883</v>
+        <v>17.6529827381236</v>
       </c>
       <c r="I154" t="n">
-        <v>18.7396511854243</v>
+        <v>17.9367752040131</v>
       </c>
       <c r="J154" t="n">
-        <v>17.7302166481822</v>
+        <v>18.5762941880632</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>8.88812667641603</v>
+        <v>2.59310113391333</v>
       </c>
       <c r="B155" t="n">
-        <v>9.90420936102116</v>
+        <v>3.5560993238118</v>
       </c>
       <c r="C155" t="n">
-        <v>10.4117631768294</v>
+        <v>-5.70576797105146</v>
       </c>
       <c r="D155" t="n">
-        <v>11.9173180593485</v>
+        <v>-6.41484306088092</v>
       </c>
       <c r="E155" t="n">
-        <v>11.3324745573941</v>
+        <v>-7.22858085814136</v>
       </c>
       <c r="F155" t="n">
-        <v>14.45780377261</v>
+        <v>-7.36908103550447</v>
       </c>
       <c r="G155" t="n">
-        <v>16.4160708605151</v>
+        <v>-8.12915032008643</v>
       </c>
       <c r="H155" t="n">
-        <v>16.8977900874337</v>
+        <v>-8.18992339750353</v>
       </c>
       <c r="I155" t="n">
-        <v>18.579804027911</v>
+        <v>-8.77683396479753</v>
       </c>
       <c r="J155" t="n">
-        <v>19.5292155614701</v>
+        <v>-9.30531453288074</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2.41382940650592</v>
+        <v>10.7080966331333</v>
       </c>
       <c r="B156" t="n">
-        <v>3.59182582899377</v>
+        <v>11.6717688164317</v>
       </c>
       <c r="C156" t="n">
-        <v>3.25272362222381</v>
+        <v>11.2427958299649</v>
       </c>
       <c r="D156" t="n">
-        <v>3.54739903349238</v>
+        <v>13.0483411377775</v>
       </c>
       <c r="E156" t="n">
-        <v>4.47012918414249</v>
+        <v>15.1424474899636</v>
       </c>
       <c r="F156" t="n">
-        <v>4.38902610209951</v>
+        <v>14.9101257711185</v>
       </c>
       <c r="G156" t="n">
-        <v>5.29764227416093</v>
+        <v>15.5394049294239</v>
       </c>
       <c r="H156" t="n">
-        <v>6.28686753644039</v>
+        <v>16.9460606662442</v>
       </c>
       <c r="I156" t="n">
-        <v>6.46065515989308</v>
+        <v>18.6575468418752</v>
       </c>
       <c r="J156" t="n">
-        <v>6.88335990994209</v>
+        <v>18.5506541675338</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2.0660300170609</v>
+        <v>3.17160866698258</v>
       </c>
       <c r="B157" t="n">
-        <v>3.94727330165499</v>
+        <v>4.03083204667121</v>
       </c>
       <c r="C157" t="n">
-        <v>3.02364962305901</v>
+        <v>3.14560485555478</v>
       </c>
       <c r="D157" t="n">
-        <v>4.09308289650176</v>
+        <v>3.34854896823138</v>
       </c>
       <c r="E157" t="n">
-        <v>4.31703435406036</v>
+        <v>3.62619994318863</v>
       </c>
       <c r="F157" t="n">
-        <v>5.77208052612768</v>
+        <v>4.94002201875991</v>
       </c>
       <c r="G157" t="n">
-        <v>5.68929562207096</v>
+        <v>6.31637483759934</v>
       </c>
       <c r="H157" t="n">
-        <v>6.35494130351315</v>
+        <v>5.94812739689979</v>
       </c>
       <c r="I157" t="n">
-        <v>6.73335021268303</v>
+        <v>6.10549026176387</v>
       </c>
       <c r="J157" t="n">
-        <v>6.94180497775232</v>
+        <v>7.0509924432762</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>10.9402089163621</v>
+        <v>10.7488917240076</v>
       </c>
       <c r="B158" t="n">
-        <v>11.0996055429294</v>
+        <v>9.71496928470945</v>
       </c>
       <c r="C158" t="n">
-        <v>12.0672354551536</v>
+        <v>12.7633457098558</v>
       </c>
       <c r="D158" t="n">
-        <v>12.2100679097137</v>
+        <v>14.1937137111795</v>
       </c>
       <c r="E158" t="n">
-        <v>-6.81533170817172</v>
+        <v>14.2473748560729</v>
       </c>
       <c r="F158" t="n">
-        <v>-7.65838857393276</v>
+        <v>15.2011015100839</v>
       </c>
       <c r="G158" t="n">
-        <v>-7.9595682308191</v>
+        <v>15.4922051020965</v>
       </c>
       <c r="H158" t="n">
-        <v>-8.85031955882459</v>
+        <v>18.4232128683922</v>
       </c>
       <c r="I158" t="n">
-        <v>-8.80288807902614</v>
+        <v>16.0987070253147</v>
       </c>
       <c r="J158" t="n">
-        <v>-9.47369568096738</v>
+        <v>17.3241153438417</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>9.94403213911017</v>
+        <v>11.3397714594106</v>
       </c>
       <c r="B159" t="n">
-        <v>-5.47192765876324</v>
+        <v>9.48014636376211</v>
       </c>
       <c r="C159" t="n">
-        <v>-6.15235709199943</v>
+        <v>10.746857383573</v>
       </c>
       <c r="D159" t="n">
-        <v>3.25845609612266</v>
+        <v>13.2930168347516</v>
       </c>
       <c r="E159" t="n">
-        <v>3.69417513958667</v>
+        <v>13.7893234144282</v>
       </c>
       <c r="F159" t="n">
-        <v>5.25491242041755</v>
+        <v>15.0428984985807</v>
       </c>
       <c r="G159" t="n">
-        <v>6.12226819205766</v>
+        <v>15.5457029361622</v>
       </c>
       <c r="H159" t="n">
-        <v>6.37824058936436</v>
+        <v>15.8990643388271</v>
       </c>
       <c r="I159" t="n">
-        <v>6.73783836221289</v>
+        <v>17.963806621525</v>
       </c>
       <c r="J159" t="n">
-        <v>7.02761406829842</v>
+        <v>18.8742059491034</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>9.74736760873084</v>
+        <v>11.6283110201845</v>
       </c>
       <c r="B160" t="n">
-        <v>12.2101123070965</v>
+        <v>10.8707418623997</v>
       </c>
       <c r="C160" t="n">
-        <v>10.7137996494358</v>
+        <v>12.2989551951289</v>
       </c>
       <c r="D160" t="n">
-        <v>15.0336356317584</v>
+        <v>13.6923530781239</v>
       </c>
       <c r="E160" t="n">
-        <v>15.1246396996257</v>
+        <v>14.5025660186122</v>
       </c>
       <c r="F160" t="n">
-        <v>4.31884879984788</v>
+        <v>13.3466572285735</v>
       </c>
       <c r="G160" t="n">
-        <v>5.62988940741484</v>
+        <v>15.5727260940194</v>
       </c>
       <c r="H160" t="n">
-        <v>6.19344083599936</v>
+        <v>16.9677881065106</v>
       </c>
       <c r="I160" t="n">
-        <v>6.4159619899729</v>
+        <v>19.2275189231329</v>
       </c>
       <c r="J160" t="n">
-        <v>6.78551484203897</v>
+        <v>19.4048899525478</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>9.7425417021911</v>
+        <v>1.79023503615462</v>
       </c>
       <c r="B161" t="n">
-        <v>11.757917064041</v>
+        <v>2.58743243082686</v>
       </c>
       <c r="C161" t="n">
-        <v>11.8928453685159</v>
+        <v>3.88078956151226</v>
       </c>
       <c r="D161" t="n">
-        <v>13.5067726334101</v>
+        <v>4.38014226809747</v>
       </c>
       <c r="E161" t="n">
-        <v>15.4421134980643</v>
+        <v>5.3487291027084</v>
       </c>
       <c r="F161" t="n">
-        <v>15.7346444743812</v>
+        <v>5.26972217160703</v>
       </c>
       <c r="G161" t="n">
-        <v>15.8925203008685</v>
+        <v>5.40808459043554</v>
       </c>
       <c r="H161" t="n">
-        <v>15.9756889823318</v>
+        <v>6.58319018909337</v>
       </c>
       <c r="I161" t="n">
-        <v>18.1703073272659</v>
+        <v>5.91339437664741</v>
       </c>
       <c r="J161" t="n">
-        <v>19.1041664449484</v>
+        <v>6.47556040298334</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>9.13707604661825</v>
+        <v>2.96128892893161</v>
       </c>
       <c r="B162" t="n">
-        <v>3.35431691043637</v>
+        <v>3.34257545512771</v>
       </c>
       <c r="C162" t="n">
-        <v>3.23187033930396</v>
+        <v>4.05530634284467</v>
       </c>
       <c r="D162" t="n">
-        <v>4.00124357694122</v>
+        <v>3.48949055628467</v>
       </c>
       <c r="E162" t="n">
-        <v>3.8980015812746</v>
+        <v>5.09463425604798</v>
       </c>
       <c r="F162" t="n">
-        <v>4.77591561662516</v>
+        <v>5.05489653784435</v>
       </c>
       <c r="G162" t="n">
-        <v>5.86825296096244</v>
+        <v>4.51677459901117</v>
       </c>
       <c r="H162" t="n">
-        <v>5.53532476325731</v>
+        <v>5.51311781029628</v>
       </c>
       <c r="I162" t="n">
-        <v>6.76242615250234</v>
+        <v>6.62444574925401</v>
       </c>
       <c r="J162" t="n">
-        <v>7.1863816912434</v>
+        <v>7.28050649089515</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>10.5545147518167</v>
+        <v>9.26005600135941</v>
       </c>
       <c r="B163" t="n">
-        <v>11.8446314980296</v>
+        <v>9.96583104290274</v>
       </c>
       <c r="C163" t="n">
-        <v>11.7069734797372</v>
+        <v>11.8169684815575</v>
       </c>
       <c r="D163" t="n">
-        <v>13.5110475362291</v>
+        <v>13.2467372606749</v>
       </c>
       <c r="E163" t="n">
-        <v>14.4240389799198</v>
+        <v>13.7737067874939</v>
       </c>
       <c r="F163" t="n">
-        <v>15.7991359696402</v>
+        <v>15.0042532099312</v>
       </c>
       <c r="G163" t="n">
-        <v>16.3116581556492</v>
+        <v>15.8054608567298</v>
       </c>
       <c r="H163" t="n">
-        <v>17.9407741561279</v>
+        <v>17.4974531023245</v>
       </c>
       <c r="I163" t="n">
-        <v>19.2357865764323</v>
+        <v>18.5221788498548</v>
       </c>
       <c r="J163" t="n">
-        <v>19.651026419877</v>
+        <v>18.6752778415431</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>3.02831456862654</v>
+        <v>2.24851457591883</v>
       </c>
       <c r="B164" t="n">
-        <v>2.04086759699274</v>
+        <v>3.02906400658801</v>
       </c>
       <c r="C164" t="n">
-        <v>4.2096543360763</v>
+        <v>4.09714582533889</v>
       </c>
       <c r="D164" t="n">
-        <v>3.38781776677246</v>
+        <v>4.23206079055285</v>
       </c>
       <c r="E164" t="n">
-        <v>4.79440930052873</v>
+        <v>4.58454116257696</v>
       </c>
       <c r="F164" t="n">
-        <v>5.7692950868966</v>
+        <v>4.38019013354302</v>
       </c>
       <c r="G164" t="n">
-        <v>4.70129374427974</v>
+        <v>5.44714553489544</v>
       </c>
       <c r="H164" t="n">
-        <v>6.74647589687061</v>
+        <v>5.44601371668854</v>
       </c>
       <c r="I164" t="n">
-        <v>6.43488474459435</v>
+        <v>6.82607808352482</v>
       </c>
       <c r="J164" t="n">
-        <v>7.07043122797986</v>
+        <v>7.45448813866878</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>9.04231805273219</v>
+        <v>10.1574089393957</v>
       </c>
       <c r="B165" t="n">
-        <v>10.8561158117512</v>
+        <v>10.5422871181332</v>
       </c>
       <c r="C165" t="n">
-        <v>12.4998231485502</v>
+        <v>11.9127640479899</v>
       </c>
       <c r="D165" t="n">
-        <v>13.4634194558322</v>
+        <v>13.4740462883296</v>
       </c>
       <c r="E165" t="n">
-        <v>13.6225999409663</v>
+        <v>14.2864783800946</v>
       </c>
       <c r="F165" t="n">
-        <v>-7.51468163591517</v>
+        <v>15.5665007539377</v>
       </c>
       <c r="G165" t="n">
-        <v>-7.74374132294718</v>
+        <v>15.5494396635614</v>
       </c>
       <c r="H165" t="n">
-        <v>-8.51237974107453</v>
+        <v>15.4550136698897</v>
       </c>
       <c r="I165" t="n">
-        <v>-9.12660498615743</v>
+        <v>-9.31062144203201</v>
       </c>
       <c r="J165" t="n">
-        <v>-9.73099199120527</v>
+        <v>-9.34964342253832</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>10.0339254932381</v>
+        <v>10.4195045372382</v>
       </c>
       <c r="B166" t="n">
-        <v>10.9475183048605</v>
+        <v>12.0454155746121</v>
       </c>
       <c r="C166" t="n">
-        <v>12.7966233110086</v>
+        <v>11.1653312252141</v>
       </c>
       <c r="D166" t="n">
-        <v>12.6091286120269</v>
+        <v>13.5779826356121</v>
       </c>
       <c r="E166" t="n">
-        <v>5.04431662098514</v>
+        <v>13.8627334727002</v>
       </c>
       <c r="F166" t="n">
-        <v>5.08746799307343</v>
+        <v>15.708877666254</v>
       </c>
       <c r="G166" t="n">
-        <v>5.04436454348891</v>
+        <v>15.9168667160483</v>
       </c>
       <c r="H166" t="n">
-        <v>6.03446699292339</v>
+        <v>16.7421656054435</v>
       </c>
       <c r="I166" t="n">
-        <v>5.75810865420471</v>
+        <v>17.4312389844977</v>
       </c>
       <c r="J166" t="n">
-        <v>6.93767682297093</v>
+        <v>19.4887345258763</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>9.65280216749646</v>
+        <v>10.4046845904832</v>
       </c>
       <c r="B167" t="n">
-        <v>11.3732184913411</v>
+        <v>10.4434958982481</v>
       </c>
       <c r="C167" t="n">
-        <v>11.3925505469674</v>
+        <v>-5.99157653107547</v>
       </c>
       <c r="D167" t="n">
-        <v>12.8348522853024</v>
+        <v>-6.30262511540319</v>
       </c>
       <c r="E167" t="n">
-        <v>13.6662934124174</v>
+        <v>-7.27524326211967</v>
       </c>
       <c r="F167" t="n">
-        <v>15.2361444909811</v>
+        <v>-7.71881917618953</v>
       </c>
       <c r="G167" t="n">
-        <v>15.5466334221635</v>
+        <v>-8.32270569969731</v>
       </c>
       <c r="H167" t="n">
-        <v>17.6325827293999</v>
+        <v>-8.43488373428014</v>
       </c>
       <c r="I167" t="n">
-        <v>16.7382008121795</v>
+        <v>-8.855856770046</v>
       </c>
       <c r="J167" t="n">
-        <v>18.5395121300314</v>
+        <v>-9.30148853345339</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>9.92717000248755</v>
+        <v>9.24268155706267</v>
       </c>
       <c r="B168" t="n">
-        <v>11.3260640940095</v>
+        <v>10.8537674593208</v>
       </c>
       <c r="C168" t="n">
-        <v>11.9410890064681</v>
+        <v>11.4072908075651</v>
       </c>
       <c r="D168" t="n">
-        <v>12.7805523260516</v>
+        <v>13.3500799613472</v>
       </c>
       <c r="E168" t="n">
-        <v>13.3922252728898</v>
+        <v>13.0995209688782</v>
       </c>
       <c r="F168" t="n">
-        <v>16.4102134002159</v>
+        <v>14.6073028599497</v>
       </c>
       <c r="G168" t="n">
-        <v>16.3278292072095</v>
+        <v>14.8770627383284</v>
       </c>
       <c r="H168" t="n">
-        <v>17.8699224204182</v>
+        <v>16.583744990297</v>
       </c>
       <c r="I168" t="n">
-        <v>18.4456322665505</v>
+        <v>17.360647035554</v>
       </c>
       <c r="J168" t="n">
-        <v>18.7657244780821</v>
+        <v>19.0700351561157</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-4.55701516033926</v>
+        <v>-5.46857431721897</v>
       </c>
       <c r="B169" t="n">
-        <v>-5.37919059728059</v>
+        <v>-5.47560681272541</v>
       </c>
       <c r="C169" t="n">
-        <v>-5.92305166428623</v>
+        <v>-5.48821694991645</v>
       </c>
       <c r="D169" t="n">
-        <v>-6.52108584993796</v>
+        <v>-6.28168156920612</v>
       </c>
       <c r="E169" t="n">
-        <v>-6.90876920085112</v>
+        <v>-7.10217652205216</v>
       </c>
       <c r="F169" t="n">
-        <v>-7.39820479274763</v>
+        <v>-7.56867907837968</v>
       </c>
       <c r="G169" t="n">
-        <v>-8.07118202550897</v>
+        <v>-7.82525444735462</v>
       </c>
       <c r="H169" t="n">
-        <v>17.1284388205897</v>
+        <v>-8.47470954362032</v>
       </c>
       <c r="I169" t="n">
-        <v>-8.97011626307335</v>
+        <v>-9.3552060536554</v>
       </c>
       <c r="J169" t="n">
-        <v>-9.10487503432647</v>
+        <v>-9.14687281135122</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-5.1035059381663</v>
+        <v>10.8339284902502</v>
       </c>
       <c r="B170" t="n">
-        <v>-5.35728140449399</v>
+        <v>11.1755182394216</v>
       </c>
       <c r="C170" t="n">
-        <v>-6.08528913439481</v>
+        <v>10.4773510149798</v>
       </c>
       <c r="D170" t="n">
-        <v>-6.11231872335537</v>
+        <v>13.1764255406824</v>
       </c>
       <c r="E170" t="n">
-        <v>-7.03824311219263</v>
+        <v>15.4675941238945</v>
       </c>
       <c r="F170" t="n">
-        <v>-7.34498326846531</v>
+        <v>14.4116641799938</v>
       </c>
       <c r="G170" t="n">
-        <v>-7.84296879623262</v>
+        <v>16.3761236267203</v>
       </c>
       <c r="H170" t="n">
-        <v>6.61959896799277</v>
+        <v>17.7076610618157</v>
       </c>
       <c r="I170" t="n">
-        <v>6.52343943690941</v>
+        <v>16.3201857067164</v>
       </c>
       <c r="J170" t="n">
-        <v>7.63144280090179</v>
+        <v>17.8665445091923</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>9.92218922373627</v>
+        <v>2.63762677410978</v>
       </c>
       <c r="B171" t="n">
-        <v>11.471080842136</v>
+        <v>3.57709175167502</v>
       </c>
       <c r="C171" t="n">
-        <v>11.1550582886764</v>
+        <v>4.05423415906575</v>
       </c>
       <c r="D171" t="n">
-        <v>12.9231528866126</v>
+        <v>4.15974490220147</v>
       </c>
       <c r="E171" t="n">
-        <v>14.4665617732887</v>
+        <v>4.05535259168894</v>
       </c>
       <c r="F171" t="n">
-        <v>13.9146257033939</v>
+        <v>5.42619309084097</v>
       </c>
       <c r="G171" t="n">
-        <v>15.4056018437744</v>
+        <v>5.22146423665595</v>
       </c>
       <c r="H171" t="n">
-        <v>17.3999512733605</v>
+        <v>5.71276329391203</v>
       </c>
       <c r="I171" t="n">
-        <v>17.4224442633152</v>
+        <v>18.0386622883727</v>
       </c>
       <c r="J171" t="n">
-        <v>19.9443673711532</v>
+        <v>20.702055673979</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2.88381778358216</v>
+        <v>3.31342701267822</v>
       </c>
       <c r="B172" t="n">
-        <v>2.2951065721602</v>
+        <v>3.20384568199692</v>
       </c>
       <c r="C172" t="n">
-        <v>3.83268492611935</v>
+        <v>2.97990807391368</v>
       </c>
       <c r="D172" t="n">
-        <v>3.19845095081655</v>
+        <v>3.77406689421259</v>
       </c>
       <c r="E172" t="n">
-        <v>4.13147842265913</v>
+        <v>3.62386513236534</v>
       </c>
       <c r="F172" t="n">
-        <v>4.64700671999962</v>
+        <v>4.67555756678295</v>
       </c>
       <c r="G172" t="n">
-        <v>5.86406984237195</v>
+        <v>6.45366745125039</v>
       </c>
       <c r="H172" t="n">
-        <v>5.61360297374093</v>
+        <v>6.37876603287969</v>
       </c>
       <c r="I172" t="n">
-        <v>7.65890107333618</v>
+        <v>6.13372978408614</v>
       </c>
       <c r="J172" t="n">
-        <v>6.76492503743107</v>
+        <v>7.02092395897337</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>10.2307607751726</v>
+        <v>10.8728103638276</v>
       </c>
       <c r="B173" t="n">
-        <v>11.028600208169</v>
+        <v>10.9113485095547</v>
       </c>
       <c r="C173" t="n">
-        <v>12.3213208001824</v>
+        <v>12.2962957293709</v>
       </c>
       <c r="D173" t="n">
-        <v>11.8517995437228</v>
+        <v>12.5723099519233</v>
       </c>
       <c r="E173" t="n">
-        <v>13.0088060493547</v>
+        <v>13.4408425607668</v>
       </c>
       <c r="F173" t="n">
-        <v>14.6029609945057</v>
+        <v>14.4949744307366</v>
       </c>
       <c r="G173" t="n">
-        <v>15.8277414503726</v>
+        <v>15.2855431221603</v>
       </c>
       <c r="H173" t="n">
-        <v>16.3885286682832</v>
+        <v>18.7393688726947</v>
       </c>
       <c r="I173" t="n">
-        <v>18.2841166407115</v>
+        <v>18.1920800562269</v>
       </c>
       <c r="J173" t="n">
-        <v>18.428558669471</v>
+        <v>19.3301247592308</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-5.22449713476671</v>
+        <v>9.33450502456676</v>
       </c>
       <c r="B174" t="n">
-        <v>-5.44317798703519</v>
+        <v>10.6110607111186</v>
       </c>
       <c r="C174" t="n">
-        <v>-5.97618790872282</v>
+        <v>11.2311538901998</v>
       </c>
       <c r="D174" t="n">
-        <v>-6.53171806812122</v>
+        <v>13.3658573547938</v>
       </c>
       <c r="E174" t="n">
-        <v>4.55729287853158</v>
+        <v>12.854196688029</v>
       </c>
       <c r="F174" t="n">
-        <v>5.0875610904321</v>
+        <v>4.86227073765567</v>
       </c>
       <c r="G174" t="n">
-        <v>4.88976761816857</v>
+        <v>6.14238077070062</v>
       </c>
       <c r="H174" t="n">
-        <v>5.56455538173887</v>
+        <v>16.8527520835843</v>
       </c>
       <c r="I174" t="n">
-        <v>6.80889976845937</v>
+        <v>18.4639896085311</v>
       </c>
       <c r="J174" t="n">
-        <v>6.80139231366693</v>
+        <v>19.1262493333745</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-4.94268705116951</v>
+        <v>10.2824486780675</v>
       </c>
       <c r="B175" t="n">
-        <v>-5.46744174143112</v>
+        <v>2.4017819973837</v>
       </c>
       <c r="C175" t="n">
-        <v>-6.09676980851814</v>
+        <v>4.11020013025265</v>
       </c>
       <c r="D175" t="n">
-        <v>-6.69234959651702</v>
+        <v>4.80849168482194</v>
       </c>
       <c r="E175" t="n">
-        <v>-7.05481483736874</v>
+        <v>4.60156253864517</v>
       </c>
       <c r="F175" t="n">
-        <v>-7.60909983724349</v>
+        <v>4.27713164113363</v>
       </c>
       <c r="G175" t="n">
-        <v>-8.27738456527642</v>
+        <v>5.60088067036002</v>
       </c>
       <c r="H175" t="n">
-        <v>-8.33165076446735</v>
+        <v>5.66813598999648</v>
       </c>
       <c r="I175" t="n">
-        <v>-8.78157183614055</v>
+        <v>5.39402050041986</v>
       </c>
       <c r="J175" t="n">
-        <v>-9.6116131511044</v>
+        <v>7.25598852493694</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>10.0811373020736</v>
+        <v>-4.7221547686916</v>
       </c>
       <c r="B176" t="n">
-        <v>10.401525621521</v>
+        <v>-5.32905836029495</v>
       </c>
       <c r="C176" t="n">
-        <v>11.7060302165807</v>
+        <v>-5.99982284006135</v>
       </c>
       <c r="D176" t="n">
-        <v>12.9637554387551</v>
+        <v>-6.49700230184914</v>
       </c>
       <c r="E176" t="n">
-        <v>13.9300836063512</v>
+        <v>-7.01872887188386</v>
       </c>
       <c r="F176" t="n">
-        <v>14.9657839195661</v>
+        <v>-7.64607319790545</v>
       </c>
       <c r="G176" t="n">
-        <v>17.2983884366068</v>
+        <v>-7.88468693529781</v>
       </c>
       <c r="H176" t="n">
-        <v>17.2851326298452</v>
+        <v>-8.53526020822228</v>
       </c>
       <c r="I176" t="n">
-        <v>19.1402349432955</v>
+        <v>-9.21853852232281</v>
       </c>
       <c r="J176" t="n">
-        <v>18.8362707691632</v>
+        <v>-9.70639437099535</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>9.92911283476988</v>
+        <v>9.7449094009344</v>
       </c>
       <c r="B177" t="n">
-        <v>10.815604169742</v>
+        <v>12.0325130645697</v>
       </c>
       <c r="C177" t="n">
-        <v>12.2636270886132</v>
+        <v>11.4458439871748</v>
       </c>
       <c r="D177" t="n">
-        <v>12.9199222231601</v>
+        <v>12.7351277288151</v>
       </c>
       <c r="E177" t="n">
-        <v>13.0737898142556</v>
+        <v>14.1774332397384</v>
       </c>
       <c r="F177" t="n">
-        <v>16.6843091413312</v>
+        <v>14.3464102678291</v>
       </c>
       <c r="G177" t="n">
-        <v>15.1549261970862</v>
+        <v>16.3313528354855</v>
       </c>
       <c r="H177" t="n">
-        <v>18.0099651631325</v>
+        <v>16.5522401662476</v>
       </c>
       <c r="I177" t="n">
-        <v>18.3045708806077</v>
+        <v>17.440461122188</v>
       </c>
       <c r="J177" t="n">
-        <v>19.0564933301543</v>
+        <v>18.8654976198639</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-5.23090605101327</v>
+        <v>-5.22781644612743</v>
       </c>
       <c r="B178" t="n">
-        <v>-5.65863989966921</v>
+        <v>-5.02813111425744</v>
       </c>
       <c r="C178" t="n">
-        <v>11.4902895312992</v>
+        <v>-5.94169299719548</v>
       </c>
       <c r="D178" t="n">
-        <v>12.8319249656713</v>
+        <v>-6.21344740596434</v>
       </c>
       <c r="E178" t="n">
-        <v>15.0920408420033</v>
+        <v>-7.16661508786275</v>
       </c>
       <c r="F178" t="n">
-        <v>13.9480320824958</v>
+        <v>-6.97920248108692</v>
       </c>
       <c r="G178" t="n">
-        <v>15.8750873727642</v>
+        <v>-7.62005033614256</v>
       </c>
       <c r="H178" t="n">
-        <v>16.7649970046604</v>
+        <v>-8.30302802197112</v>
       </c>
       <c r="I178" t="n">
-        <v>17.3471172953015</v>
+        <v>-8.86841044418173</v>
       </c>
       <c r="J178" t="n">
-        <v>20.0196200617088</v>
+        <v>-9.29974179173988</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>9.19782232691876</v>
+        <v>-5.17796033474792</v>
       </c>
       <c r="B179" t="n">
-        <v>10.6298810114501</v>
+        <v>-5.27397790082389</v>
       </c>
       <c r="C179" t="n">
-        <v>11.5300216714839</v>
+        <v>-5.77360406317242</v>
       </c>
       <c r="D179" t="n">
-        <v>12.7284222017887</v>
+        <v>-6.30625078433038</v>
       </c>
       <c r="E179" t="n">
-        <v>14.5797092401396</v>
+        <v>-7.38844667421689</v>
       </c>
       <c r="F179" t="n">
-        <v>14.6080812707808</v>
+        <v>-7.78526962616093</v>
       </c>
       <c r="G179" t="n">
-        <v>17.3533727028056</v>
+        <v>15.5794881947426</v>
       </c>
       <c r="H179" t="n">
-        <v>17.1288936669073</v>
+        <v>18.0711764930684</v>
       </c>
       <c r="I179" t="n">
-        <v>19.7215544582489</v>
+        <v>18.734927766688</v>
       </c>
       <c r="J179" t="n">
-        <v>18.0552666561862</v>
+        <v>17.5585719284898</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-5.27320397274298</v>
+        <v>-4.92873043013869</v>
       </c>
       <c r="B180" t="n">
-        <v>-5.65985242526127</v>
+        <v>-5.72175892310628</v>
       </c>
       <c r="C180" t="n">
-        <v>-6.00635817200318</v>
+        <v>-5.69161259588116</v>
       </c>
       <c r="D180" t="n">
-        <v>-6.1129720005987</v>
+        <v>-6.79422334842075</v>
       </c>
       <c r="E180" t="n">
-        <v>-6.99736031222268</v>
+        <v>-6.62663311856689</v>
       </c>
       <c r="F180" t="n">
-        <v>-7.54699870490629</v>
+        <v>-7.45402723896717</v>
       </c>
       <c r="G180" t="n">
-        <v>-7.6994999479148</v>
+        <v>-7.80715624772016</v>
       </c>
       <c r="H180" t="n">
-        <v>-8.84071354864614</v>
+        <v>-8.82704631514523</v>
       </c>
       <c r="I180" t="n">
-        <v>18.28778937003</v>
+        <v>-9.34769378138176</v>
       </c>
       <c r="J180" t="n">
-        <v>6.86894223643712</v>
+        <v>-9.56393123441606</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2.9967922485657</v>
+        <v>-5.351396385544</v>
       </c>
       <c r="B181" t="n">
-        <v>2.89899821451716</v>
+        <v>-5.76422741188941</v>
       </c>
       <c r="C181" t="n">
-        <v>2.96736399628327</v>
+        <v>-6.28465865211324</v>
       </c>
       <c r="D181" t="n">
-        <v>3.63276293195384</v>
+        <v>-6.21313253843477</v>
       </c>
       <c r="E181" t="n">
-        <v>4.2397237788947</v>
+        <v>-7.07960311199289</v>
       </c>
       <c r="F181" t="n">
-        <v>4.89898658161224</v>
+        <v>-7.63423014610179</v>
       </c>
       <c r="G181" t="n">
-        <v>5.9948865112097</v>
+        <v>-8.1042740945663</v>
       </c>
       <c r="H181" t="n">
-        <v>7.08052763598267</v>
+        <v>-8.29427511760895</v>
       </c>
       <c r="I181" t="n">
-        <v>5.83786953002392</v>
+        <v>-9.04618103059294</v>
       </c>
       <c r="J181" t="n">
-        <v>7.00803863083859</v>
+        <v>-9.45581357526586</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>10.1967159582546</v>
+        <v>-4.46077429410861</v>
       </c>
       <c r="B182" t="n">
-        <v>12.8140382230108</v>
+        <v>-5.49707550906368</v>
       </c>
       <c r="C182" t="n">
-        <v>13.7780569656681</v>
+        <v>-6.16086808977711</v>
       </c>
       <c r="D182" t="n">
-        <v>12.6939503079057</v>
+        <v>-6.82652304104454</v>
       </c>
       <c r="E182" t="n">
-        <v>14.5655360885213</v>
+        <v>-7.22558610155965</v>
       </c>
       <c r="F182" t="n">
-        <v>14.8119717432173</v>
+        <v>-7.52214290978874</v>
       </c>
       <c r="G182" t="n">
-        <v>-8.30252258686047</v>
+        <v>-8.13117834578845</v>
       </c>
       <c r="H182" t="n">
-        <v>-8.50461361344383</v>
+        <v>-8.71293093867276</v>
       </c>
       <c r="I182" t="n">
-        <v>-9.10986582510365</v>
+        <v>-9.25877682313678</v>
       </c>
       <c r="J182" t="n">
-        <v>-9.56241108086054</v>
+        <v>-9.7135370501783</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2.11076242559471</v>
+        <v>11.1878988145955</v>
       </c>
       <c r="B183" t="n">
-        <v>3.06156219333049</v>
+        <v>10.7877774867251</v>
       </c>
       <c r="C183" t="n">
-        <v>3.58156576122413</v>
+        <v>10.4028005293049</v>
       </c>
       <c r="D183" t="n">
-        <v>3.52270368345378</v>
+        <v>12.3376983402291</v>
       </c>
       <c r="E183" t="n">
-        <v>4.86502394199921</v>
+        <v>14.5110498968396</v>
       </c>
       <c r="F183" t="n">
-        <v>5.19898560333676</v>
+        <v>15.5626660622782</v>
       </c>
       <c r="G183" t="n">
-        <v>4.77590513107551</v>
+        <v>16.5945303070845</v>
       </c>
       <c r="H183" t="n">
-        <v>5.75671994170742</v>
+        <v>17.5194901855492</v>
       </c>
       <c r="I183" t="n">
-        <v>6.69926973677777</v>
+        <v>18.5137473155746</v>
       </c>
       <c r="J183" t="n">
-        <v>7.58065550529404</v>
+        <v>21.0465207713023</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>10.3266310580043</v>
+        <v>-4.86850348464292</v>
       </c>
       <c r="B184" t="n">
-        <v>10.6458184294682</v>
+        <v>-5.43766081353056</v>
       </c>
       <c r="C184" t="n">
-        <v>4.00301863848929</v>
+        <v>-5.98335064364847</v>
       </c>
       <c r="D184" t="n">
-        <v>4.32854517937814</v>
+        <v>-6.55843223258019</v>
       </c>
       <c r="E184" t="n">
-        <v>4.28837995414229</v>
+        <v>-6.99436299552448</v>
       </c>
       <c r="F184" t="n">
-        <v>5.12514904544904</v>
+        <v>-7.43299134879568</v>
       </c>
       <c r="G184" t="n">
-        <v>5.93311491286508</v>
+        <v>-8.15719965490156</v>
       </c>
       <c r="H184" t="n">
-        <v>6.02070510303326</v>
+        <v>-8.18797444894016</v>
       </c>
       <c r="I184" t="n">
-        <v>7.14294628265624</v>
+        <v>-8.96992758489681</v>
       </c>
       <c r="J184" t="n">
-        <v>6.37109002306599</v>
+        <v>-9.75087167923917</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2.91293677621323</v>
+        <v>2.19917305316301</v>
       </c>
       <c r="B185" t="n">
-        <v>3.20659970916648</v>
+        <v>11.6356083145959</v>
       </c>
       <c r="C185" t="n">
-        <v>3.96828644822216</v>
+        <v>11.8410727917423</v>
       </c>
       <c r="D185" t="n">
-        <v>3.71850676458587</v>
+        <v>14.4235344290164</v>
       </c>
       <c r="E185" t="n">
-        <v>3.71816170998767</v>
+        <v>13.162818070708</v>
       </c>
       <c r="F185" t="n">
-        <v>4.62932275497193</v>
+        <v>16.037632427819</v>
       </c>
       <c r="G185" t="n">
-        <v>5.20102977991821</v>
+        <v>16.394898733534</v>
       </c>
       <c r="H185" t="n">
-        <v>5.96465688403543</v>
+        <v>16.5792373390842</v>
       </c>
       <c r="I185" t="n">
-        <v>6.90937253583657</v>
+        <v>18.5946658931704</v>
       </c>
       <c r="J185" t="n">
-        <v>6.11702869804855</v>
+        <v>6.83901483053727</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>9.89167337315407</v>
+        <v>9.88290003779804</v>
       </c>
       <c r="B186" t="n">
-        <v>10.217660809282</v>
+        <v>11.5225021308875</v>
       </c>
       <c r="C186" t="n">
-        <v>11.8890399511565</v>
+        <v>11.7730003938525</v>
       </c>
       <c r="D186" t="n">
-        <v>12.3189570683005</v>
+        <v>12.4131722363</v>
       </c>
       <c r="E186" t="n">
-        <v>13.8839462507582</v>
+        <v>14.8650988300077</v>
       </c>
       <c r="F186" t="n">
-        <v>14.5473797457648</v>
+        <v>15.7123582778005</v>
       </c>
       <c r="G186" t="n">
-        <v>4.84813140807453</v>
+        <v>14.60646589828</v>
       </c>
       <c r="H186" t="n">
-        <v>5.65577445784303</v>
+        <v>17.7077314980033</v>
       </c>
       <c r="I186" t="n">
-        <v>7.06708107494164</v>
+        <v>19.8554098687982</v>
       </c>
       <c r="J186" t="n">
-        <v>7.37463124546005</v>
+        <v>18.5874993055295</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1.68418894788369</v>
+        <v>10.3649966302846</v>
       </c>
       <c r="B187" t="n">
-        <v>2.99810767915458</v>
+        <v>10.4198532826106</v>
       </c>
       <c r="C187" t="n">
-        <v>3.28071390916895</v>
+        <v>10.9439473513331</v>
       </c>
       <c r="D187" t="n">
-        <v>4.31341078544767</v>
+        <v>13.7136502015225</v>
       </c>
       <c r="E187" t="n">
-        <v>3.3586469846048</v>
+        <v>13.9060070413261</v>
       </c>
       <c r="F187" t="n">
-        <v>4.95737871153724</v>
+        <v>14.9045975917295</v>
       </c>
       <c r="G187" t="n">
-        <v>5.45059001054857</v>
+        <v>16.1791499024344</v>
       </c>
       <c r="H187" t="n">
-        <v>6.88551190933433</v>
+        <v>16.8750926984708</v>
       </c>
       <c r="I187" t="n">
-        <v>6.30049749383465</v>
+        <v>19.1577543574971</v>
       </c>
       <c r="J187" t="n">
-        <v>6.69136902601531</v>
+        <v>18.3345381711968</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>-4.86828635258228</v>
+        <v>-5.20166330205362</v>
       </c>
       <c r="B188" t="n">
-        <v>-5.68816153590263</v>
+        <v>-5.5136505106985</v>
       </c>
       <c r="C188" t="n">
-        <v>-6.32336294497681</v>
+        <v>-5.99375770659251</v>
       </c>
       <c r="D188" t="n">
-        <v>-6.02652731348102</v>
+        <v>-6.64696548186752</v>
       </c>
       <c r="E188" t="n">
-        <v>-7.24718608241607</v>
+        <v>-6.63721706995749</v>
       </c>
       <c r="F188" t="n">
-        <v>-7.27807329307071</v>
+        <v>-7.45732522172047</v>
       </c>
       <c r="G188" t="n">
-        <v>-7.99989679456083</v>
+        <v>-7.74179449999766</v>
       </c>
       <c r="H188" t="n">
-        <v>-8.57217278353961</v>
+        <v>-8.67871012331963</v>
       </c>
       <c r="I188" t="n">
-        <v>-8.95489366543996</v>
+        <v>-9.12159567288406</v>
       </c>
       <c r="J188" t="n">
-        <v>-9.45234421809364</v>
+        <v>-9.72529462575626</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>9.82161798591564</v>
+        <v>3.17701170885612</v>
       </c>
       <c r="B189" t="n">
-        <v>9.61659882016673</v>
+        <v>2.94251861176541</v>
       </c>
       <c r="C189" t="n">
-        <v>11.665622256503</v>
+        <v>3.89052052399487</v>
       </c>
       <c r="D189" t="n">
-        <v>11.9035246318293</v>
+        <v>3.09955218359846</v>
       </c>
       <c r="E189" t="n">
-        <v>12.3937458765503</v>
+        <v>4.67226995714144</v>
       </c>
       <c r="F189" t="n">
-        <v>14.8652724477062</v>
+        <v>5.93254349493235</v>
       </c>
       <c r="G189" t="n">
-        <v>14.8714279572922</v>
+        <v>5.68347478923899</v>
       </c>
       <c r="H189" t="n">
-        <v>17.5693980439113</v>
+        <v>5.66217711466689</v>
       </c>
       <c r="I189" t="n">
-        <v>18.8120265836132</v>
+        <v>6.48129113282177</v>
       </c>
       <c r="J189" t="n">
-        <v>20.6644374906945</v>
+        <v>6.64924950992759</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>7.82819224399948</v>
+        <v>8.35882064542714</v>
       </c>
       <c r="B190" t="n">
-        <v>11.1677505728646</v>
+        <v>9.68575525624961</v>
       </c>
       <c r="C190" t="n">
-        <v>12.5631432551505</v>
+        <v>11.9252583848255</v>
       </c>
       <c r="D190" t="n">
-        <v>14.3934421131644</v>
+        <v>13.2672698350798</v>
       </c>
       <c r="E190" t="n">
-        <v>14.0062022131506</v>
+        <v>14.8151455086716</v>
       </c>
       <c r="F190" t="n">
-        <v>14.9132952241539</v>
+        <v>14.5273006385441</v>
       </c>
       <c r="G190" t="n">
-        <v>16.2789799683974</v>
+        <v>16.4663932381783</v>
       </c>
       <c r="H190" t="n">
-        <v>17.9554282919938</v>
+        <v>15.8628296713012</v>
       </c>
       <c r="I190" t="n">
-        <v>17.2602365519835</v>
+        <v>6.62509592579039</v>
       </c>
       <c r="J190" t="n">
-        <v>19.6818605436176</v>
+        <v>6.75409221927346</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-4.89152144194826</v>
+        <v>2.78025444415278</v>
       </c>
       <c r="B191" t="n">
-        <v>-5.41482053087966</v>
+        <v>3.11729258070296</v>
       </c>
       <c r="C191" t="n">
-        <v>-5.9601238928569</v>
+        <v>4.24943546734836</v>
       </c>
       <c r="D191" t="n">
-        <v>-6.67262637178363</v>
+        <v>4.37164199217879</v>
       </c>
       <c r="E191" t="n">
-        <v>14.7724701899103</v>
+        <v>5.33072130034147</v>
       </c>
       <c r="F191" t="n">
-        <v>15.3444865440759</v>
+        <v>5.54874777628949</v>
       </c>
       <c r="G191" t="n">
-        <v>15.1417944538534</v>
+        <v>6.049568803155</v>
       </c>
       <c r="H191" t="n">
-        <v>17.6873008028433</v>
+        <v>5.98781848308084</v>
       </c>
       <c r="I191" t="n">
-        <v>18.689086673159</v>
+        <v>7.11256613965888</v>
       </c>
       <c r="J191" t="n">
-        <v>17.0446246557624</v>
+        <v>7.3549330806819</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-4.96998366823326</v>
+        <v>9.95000623332237</v>
       </c>
       <c r="B192" t="n">
-        <v>-5.53651341266673</v>
+        <v>11.2442340476656</v>
       </c>
       <c r="C192" t="n">
-        <v>-6.04412877494183</v>
+        <v>11.7621371550338</v>
       </c>
       <c r="D192" t="n">
-        <v>-6.4231577937869</v>
+        <v>12.8576709736013</v>
       </c>
       <c r="E192" t="n">
-        <v>-7.06736743597594</v>
+        <v>12.8870946410884</v>
       </c>
       <c r="F192" t="n">
-        <v>-7.21363235475709</v>
+        <v>16.2359640183809</v>
       </c>
       <c r="G192" t="n">
-        <v>-7.85737908027529</v>
+        <v>15.3204478238806</v>
       </c>
       <c r="H192" t="n">
-        <v>-8.25444012761131</v>
+        <v>16.4695804934193</v>
       </c>
       <c r="I192" t="n">
-        <v>-9.16678154158203</v>
+        <v>18.8658271240825</v>
       </c>
       <c r="J192" t="n">
-        <v>-9.25447817796802</v>
+        <v>17.5910340014141</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-5.5326473020434</v>
+        <v>10.5578212458707</v>
       </c>
       <c r="B193" t="n">
-        <v>-5.81564004058317</v>
+        <v>10.2546640465478</v>
       </c>
       <c r="C193" t="n">
-        <v>3.74287673189663</v>
+        <v>11.720601705041</v>
       </c>
       <c r="D193" t="n">
-        <v>4.11802010762073</v>
+        <v>12.787920656062</v>
       </c>
       <c r="E193" t="n">
-        <v>4.55731835581353</v>
+        <v>3.8987034809828</v>
       </c>
       <c r="F193" t="n">
-        <v>4.97615938839632</v>
+        <v>3.68828171235883</v>
       </c>
       <c r="G193" t="n">
-        <v>6.10419191425715</v>
+        <v>5.34524827203928</v>
       </c>
       <c r="H193" t="n">
-        <v>6.42164084229152</v>
+        <v>6.54821065695321</v>
       </c>
       <c r="I193" t="n">
-        <v>6.45928141474537</v>
+        <v>7.07994334463156</v>
       </c>
       <c r="J193" t="n">
-        <v>6.72057296081404</v>
+        <v>7.19059195325001</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-4.77982715165484</v>
+        <v>-4.84568579160407</v>
       </c>
       <c r="B194" t="n">
-        <v>-5.48064969365114</v>
+        <v>-5.74277663580485</v>
       </c>
       <c r="C194" t="n">
-        <v>-5.8948164268484</v>
+        <v>-6.28019016835066</v>
       </c>
       <c r="D194" t="n">
-        <v>-6.44511484148538</v>
+        <v>-6.10323459968542</v>
       </c>
       <c r="E194" t="n">
-        <v>-6.98438795603339</v>
+        <v>-7.22059302415613</v>
       </c>
       <c r="F194" t="n">
-        <v>14.5402723522648</v>
+        <v>16.0174150211287</v>
       </c>
       <c r="G194" t="n">
-        <v>-8.33217483371407</v>
+        <v>15.472766776739</v>
       </c>
       <c r="H194" t="n">
-        <v>-8.44219003865881</v>
+        <v>15.8108045669258</v>
       </c>
       <c r="I194" t="n">
-        <v>6.01628163849149</v>
+        <v>16.8188029909073</v>
       </c>
       <c r="J194" t="n">
-        <v>5.92765394700678</v>
+        <v>19.2129630199716</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-4.83706079538941</v>
+        <v>-4.94882850710574</v>
       </c>
       <c r="B195" t="n">
-        <v>-5.55237069350346</v>
+        <v>-5.91826228389078</v>
       </c>
       <c r="C195" t="n">
-        <v>-6.35573447268249</v>
+        <v>-6.37882710622014</v>
       </c>
       <c r="D195" t="n">
-        <v>-6.13752981657455</v>
+        <v>-6.78614092834621</v>
       </c>
       <c r="E195" t="n">
-        <v>-6.87770407194807</v>
+        <v>-7.46044887992955</v>
       </c>
       <c r="F195" t="n">
-        <v>14.7864706133519</v>
+        <v>-7.08903549459795</v>
       </c>
       <c r="G195" t="n">
-        <v>13.9922934420988</v>
+        <v>-7.43057212225875</v>
       </c>
       <c r="H195" t="n">
-        <v>15.9915928699043</v>
+        <v>-8.85739918626247</v>
       </c>
       <c r="I195" t="n">
-        <v>16.7258825760248</v>
+        <v>-9.05872613031496</v>
       </c>
       <c r="J195" t="n">
-        <v>19.4241385989492</v>
+        <v>18.4722937381078</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>9.94749727535281</v>
+        <v>10.0153880180716</v>
       </c>
       <c r="B196" t="n">
-        <v>2.68140567532337</v>
+        <v>11.1238472702613</v>
       </c>
       <c r="C196" t="n">
-        <v>2.86187885956989</v>
+        <v>12.4066180907321</v>
       </c>
       <c r="D196" t="n">
-        <v>4.31355122433577</v>
+        <v>13.9265108765083</v>
       </c>
       <c r="E196" t="n">
-        <v>4.42054263971822</v>
+        <v>14.1733653276258</v>
       </c>
       <c r="F196" t="n">
-        <v>6.01472639042773</v>
+        <v>15.3399596640086</v>
       </c>
       <c r="G196" t="n">
-        <v>4.79940631414962</v>
+        <v>15.57635056966</v>
       </c>
       <c r="H196" t="n">
-        <v>6.09194230517885</v>
+        <v>17.3357270623489</v>
       </c>
       <c r="I196" t="n">
-        <v>7.28557560800286</v>
+        <v>16.4968955244228</v>
       </c>
       <c r="J196" t="n">
-        <v>6.80652644411477</v>
+        <v>18.8231004215685</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>9.81458711071057</v>
+        <v>2.38361636079305</v>
       </c>
       <c r="B197" t="n">
-        <v>10.4604004840536</v>
+        <v>4.09665227814027</v>
       </c>
       <c r="C197" t="n">
-        <v>11.8382476940393</v>
+        <v>3.153413285873</v>
       </c>
       <c r="D197" t="n">
-        <v>12.3767045754202</v>
+        <v>3.72553984253751</v>
       </c>
       <c r="E197" t="n">
-        <v>13.7560242580423</v>
+        <v>4.30598428819595</v>
       </c>
       <c r="F197" t="n">
-        <v>16.2792670030905</v>
+        <v>4.61500018640813</v>
       </c>
       <c r="G197" t="n">
-        <v>17.321101687491</v>
+        <v>4.55409481956028</v>
       </c>
       <c r="H197" t="n">
-        <v>16.4898471812381</v>
+        <v>5.96979357056821</v>
       </c>
       <c r="I197" t="n">
-        <v>17.7676826204975</v>
+        <v>7.13437349109627</v>
       </c>
       <c r="J197" t="n">
-        <v>18.5238806062125</v>
+        <v>6.57185233037404</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>10.0737809745127</v>
+        <v>9.55073646853992</v>
       </c>
       <c r="B198" t="n">
-        <v>11.8297814070725</v>
+        <v>11.1964451950475</v>
       </c>
       <c r="C198" t="n">
-        <v>12.9022778623228</v>
+        <v>11.8492295666945</v>
       </c>
       <c r="D198" t="n">
-        <v>12.5339398484164</v>
+        <v>13.1096917879634</v>
       </c>
       <c r="E198" t="n">
-        <v>13.6297963053384</v>
+        <v>13.1231258442941</v>
       </c>
       <c r="F198" t="n">
-        <v>14.5797309955021</v>
+        <v>15.9915768827007</v>
       </c>
       <c r="G198" t="n">
-        <v>17.0922389266283</v>
+        <v>17.2207282680231</v>
       </c>
       <c r="H198" t="n">
-        <v>17.2611280243181</v>
+        <v>6.15446734182366</v>
       </c>
       <c r="I198" t="n">
-        <v>17.9624539974179</v>
+        <v>6.91117804500096</v>
       </c>
       <c r="J198" t="n">
-        <v>19.0994603634057</v>
+        <v>7.38948257294964</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2.67065738292833</v>
+        <v>10.8166790170088</v>
       </c>
       <c r="B199" t="n">
-        <v>2.93147054775164</v>
+        <v>3.32616728696139</v>
       </c>
       <c r="C199" t="n">
-        <v>12.8308353255337</v>
+        <v>3.18904648416176</v>
       </c>
       <c r="D199" t="n">
-        <v>13.3912961791872</v>
+        <v>3.67201262987607</v>
       </c>
       <c r="E199" t="n">
-        <v>14.2036290818779</v>
+        <v>4.3444755363575</v>
       </c>
       <c r="F199" t="n">
-        <v>14.3515138842968</v>
+        <v>4.53476801797863</v>
       </c>
       <c r="G199" t="n">
-        <v>6.07056628458416</v>
+        <v>6.07840042574804</v>
       </c>
       <c r="H199" t="n">
-        <v>6.04054939515809</v>
+        <v>6.32781695467887</v>
       </c>
       <c r="I199" t="n">
-        <v>6.47726170410352</v>
+        <v>6.85295548448622</v>
       </c>
       <c r="J199" t="n">
-        <v>6.6068608658513</v>
+        <v>7.52490769656356</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>9.33869142603592</v>
+        <v>9.84549511958404</v>
       </c>
       <c r="B200" t="n">
-        <v>9.79269436529792</v>
+        <v>11.982616978791</v>
       </c>
       <c r="C200" t="n">
-        <v>12.894243367501</v>
+        <v>10.8825291531758</v>
       </c>
       <c r="D200" t="n">
-        <v>12.3805764844563</v>
+        <v>13.785598169207</v>
       </c>
       <c r="E200" t="n">
-        <v>12.7391091031254</v>
+        <v>13.4053404753355</v>
       </c>
       <c r="F200" t="n">
-        <v>14.6301122171924</v>
+        <v>14.290450171929</v>
       </c>
       <c r="G200" t="n">
-        <v>17.3557797729635</v>
+        <v>16.6533655160357</v>
       </c>
       <c r="H200" t="n">
-        <v>16.8254175956663</v>
+        <v>16.5784346236711</v>
       </c>
       <c r="I200" t="n">
-        <v>18.440703978561</v>
+        <v>18.1238784991891</v>
       </c>
       <c r="J200" t="n">
-        <v>18.6669075768088</v>
+        <v>19.1338039303497</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>3.52712161862842</v>
+        <v>2.96088309044261</v>
       </c>
       <c r="B201" t="n">
-        <v>2.43366791204555</v>
+        <v>3.35699240318653</v>
       </c>
       <c r="C201" t="n">
-        <v>3.65736663703805</v>
+        <v>3.84968792707586</v>
       </c>
       <c r="D201" t="n">
-        <v>4.30150404047508</v>
+        <v>4.24279579802596</v>
       </c>
       <c r="E201" t="n">
-        <v>3.96774910142404</v>
+        <v>4.98209625253971</v>
       </c>
       <c r="F201" t="n">
-        <v>4.59611768850034</v>
+        <v>4.39841970276924</v>
       </c>
       <c r="G201" t="n">
-        <v>5.62113942399997</v>
+        <v>5.88489326242466</v>
       </c>
       <c r="H201" t="n">
-        <v>6.71105251406334</v>
+        <v>5.58568051682383</v>
       </c>
       <c r="I201" t="n">
-        <v>5.71775958103622</v>
+        <v>5.98255876842423</v>
       </c>
       <c r="J201" t="n">
-        <v>6.808462886643</v>
+        <v>7.60710568657725</v>
       </c>
     </row>
   </sheetData>
